--- a/テスト仕様書.xlsx
+++ b/テスト仕様書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF0DB97-3F4A-4CE6-A88B-E7FD3E1014DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581B1423-FB44-4DF3-8D9F-274638E09DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1868,19 +1868,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>詳細画面への遷移がされるか</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・ブラウザが起動していること</t>
     <rPh sb="6" eb="8">
       <t>キドウ</t>
@@ -1979,23 +1966,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>リンクをクリックするとページ遷移が行われ、
-チーム一覧ページが表示される</t>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>最初のページにアクセスする</t>
     <rPh sb="0" eb="2">
       <t>サイショ</t>
@@ -2003,29 +1973,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>チーム一覧ページが表示される
-このとき発足日順の昇順で並び替えられる</t>
-    <rPh sb="3" eb="5">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="19" eb="23">
-      <t>ホッソクビジュン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ショウジュン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>野球チーム一覧サイト　ブラックボックステスト仕様書</t>
     <rPh sb="0" eb="2">
       <t>ヤキュウ</t>
@@ -2035,6 +1982,60 @@
     </rPh>
     <rPh sb="22" eb="25">
       <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チーム一覧画面への遷移がされるか</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンクをクリックするとページ遷移が行われ、
+チーム一覧ページが表示される
+このとき発足日順の昇順で並び替えられている</t>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チーム一覧ページが表示される
+このとき発足日順の昇順で並び替えられている</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ホッソクビジュン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2617,6 +2618,87 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2638,82 +2720,43 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2722,77 +2765,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3102,7 +3103,7 @@
   <dimension ref="B1:AC129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G3"/>
+      <selection activeCell="G10" sqref="G10:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.7" x14ac:dyDescent="0.15"/>
@@ -3124,36 +3125,36 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="B2" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
       <c r="H2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="40"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
       <c r="H3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="68">
         <v>44707</v>
       </c>
-      <c r="J3" s="42"/>
+      <c r="J3" s="58"/>
     </row>
     <row r="4" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="20" t="s">
@@ -3185,126 +3186,126 @@
       </c>
     </row>
     <row r="5" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37"/>
+    </row>
+    <row r="6" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
+    </row>
+    <row r="8" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
+    </row>
+    <row r="9" spans="2:29" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37"/>
+    </row>
+    <row r="10" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="E10" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="45"/>
-    </row>
-    <row r="6" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45"/>
-    </row>
-    <row r="7" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="45"/>
-    </row>
-    <row r="8" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="45"/>
-    </row>
-    <row r="9" spans="2:29" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="45"/>
-    </row>
-    <row r="10" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="93" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="G10" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="45"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37"/>
       <c r="M10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="46" t="s">
+      <c r="N10" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="48"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="43"/>
     </row>
     <row r="11" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="66"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="45"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37"/>
       <c r="M11" s="4" t="s">
         <v>11</v>
       </c>
@@ -3358,15 +3359,15 @@
       </c>
     </row>
     <row r="12" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="66"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="37"/>
       <c r="M12" s="10" t="s">
         <v>20</v>
       </c>
@@ -3388,15 +3389,15 @@
       <c r="AC12" s="6"/>
     </row>
     <row r="13" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="66"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="45"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
       <c r="M13" s="4" t="s">
         <v>34</v>
       </c>
@@ -3450,15 +3451,15 @@
       </c>
     </row>
     <row r="14" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="67"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="45"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
       <c r="M14" s="4" t="s">
         <v>35</v>
       </c>
@@ -3512,15 +3513,15 @@
       </c>
     </row>
     <row r="15" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="45"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="37"/>
       <c r="M15" s="4" t="s">
         <v>36</v>
       </c>
@@ -3574,15 +3575,15 @@
       </c>
     </row>
     <row r="16" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
       <c r="M16" s="22" t="s">
         <v>37</v>
       </c>
@@ -3636,15 +3637,15 @@
       </c>
     </row>
     <row r="17" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="43"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
       <c r="M17" s="22" t="s">
         <v>38</v>
       </c>
@@ -3698,15 +3699,15 @@
       </c>
     </row>
     <row r="18" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="45"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
       <c r="M18" s="22" t="s">
         <v>39</v>
       </c>
@@ -3760,15 +3761,15 @@
       </c>
     </row>
     <row r="19" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="45"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
       <c r="M19" s="22" t="s">
         <v>40</v>
       </c>
@@ -3822,27 +3823,27 @@
       </c>
     </row>
     <row r="20" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="44" t="s">
+      <c r="E20" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="E20" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="G20" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="45"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
       <c r="M20" s="11" t="s">
         <v>86</v>
       </c>
@@ -3896,15 +3897,15 @@
       </c>
     </row>
     <row r="21" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="45"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
       <c r="M21" s="22" t="s">
         <v>87</v>
       </c>
@@ -3958,15 +3959,15 @@
       </c>
     </row>
     <row r="22" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="45"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
       <c r="M22" s="22" t="s">
         <v>95</v>
       </c>
@@ -4020,15 +4021,15 @@
       </c>
     </row>
     <row r="23" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="45"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
       <c r="M23" s="22" t="s">
         <v>94</v>
       </c>
@@ -4082,15 +4083,15 @@
       </c>
     </row>
     <row r="24" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="45"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
       <c r="M24" s="22" t="s">
         <v>97</v>
       </c>
@@ -4144,15 +4145,15 @@
       </c>
     </row>
     <row r="25" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="42"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="58"/>
       <c r="M25" s="22" t="s">
         <v>98</v>
       </c>
@@ -4206,15 +4207,15 @@
       </c>
     </row>
     <row r="26" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="42"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="58"/>
       <c r="M26" s="22" t="s">
         <v>42</v>
       </c>
@@ -4268,15 +4269,15 @@
       </c>
     </row>
     <row r="27" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="42"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="58"/>
       <c r="M27" s="13"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
@@ -4296,15 +4297,15 @@
       <c r="AC27" s="14"/>
     </row>
     <row r="28" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="42"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="58"/>
       <c r="M28" s="15" t="s">
         <v>21</v>
       </c>
@@ -4326,15 +4327,15 @@
       <c r="AC28" s="12"/>
     </row>
     <row r="29" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="42"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="58"/>
       <c r="M29" s="22" t="s">
         <v>43</v>
       </c>
@@ -4388,15 +4389,15 @@
       </c>
     </row>
     <row r="30" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="42"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="58"/>
       <c r="M30" s="22" t="s">
         <v>44</v>
       </c>
@@ -4450,15 +4451,15 @@
       </c>
     </row>
     <row r="31" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="42"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="58"/>
       <c r="M31" s="22" t="s">
         <v>88</v>
       </c>
@@ -4512,15 +4513,15 @@
       </c>
     </row>
     <row r="32" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="42"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="58"/>
       <c r="M32" s="22" t="s">
         <v>85</v>
       </c>
@@ -4574,15 +4575,15 @@
       </c>
     </row>
     <row r="33" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="42"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="58"/>
       <c r="M33" s="22" t="s">
         <v>45</v>
       </c>
@@ -4636,15 +4637,15 @@
       </c>
     </row>
     <row r="34" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="42"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="58"/>
       <c r="M34" s="22" t="s">
         <v>89</v>
       </c>
@@ -4698,15 +4699,15 @@
       </c>
     </row>
     <row r="35" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="43"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="42"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="58"/>
       <c r="M35" s="22" t="s">
         <v>46</v>
       </c>
@@ -4760,15 +4761,15 @@
       </c>
     </row>
     <row r="36" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="43"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="42"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="58"/>
       <c r="M36" s="22" t="s">
         <v>47</v>
       </c>
@@ -4822,15 +4823,15 @@
       </c>
     </row>
     <row r="37" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="43"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="42"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="58"/>
       <c r="M37" s="22" t="s">
         <v>90</v>
       </c>
@@ -4884,15 +4885,15 @@
       </c>
     </row>
     <row r="38" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="43"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="42"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="58"/>
       <c r="M38" s="22" t="s">
         <v>48</v>
       </c>
@@ -4946,15 +4947,15 @@
       </c>
     </row>
     <row r="39" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="43"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="42"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="58"/>
       <c r="M39" s="22" t="s">
         <v>96</v>
       </c>
@@ -5008,15 +5009,15 @@
       </c>
     </row>
     <row r="40" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="43"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="42"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="58"/>
       <c r="M40" s="22" t="s">
         <v>49</v>
       </c>
@@ -5070,15 +5071,15 @@
       </c>
     </row>
     <row r="41" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="43"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="42"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="58"/>
       <c r="M41" s="22" t="s">
         <v>91</v>
       </c>
@@ -5132,15 +5133,15 @@
       </c>
     </row>
     <row r="42" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="43"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="42"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="58"/>
       <c r="M42" s="10" t="s">
         <v>50</v>
       </c>
@@ -5194,15 +5195,15 @@
       </c>
     </row>
     <row r="43" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="43"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="42"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="58"/>
       <c r="M43" s="23" t="s">
         <v>51</v>
       </c>
@@ -5256,15 +5257,15 @@
       </c>
     </row>
     <row r="44" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="43"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="42"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="58"/>
       <c r="M44" s="2"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
@@ -5279,1424 +5280,1225 @@
       <c r="X44" s="7"/>
     </row>
     <row r="45" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="43"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="45"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="37"/>
       <c r="M45" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="N45" s="46"/>
-      <c r="O45" s="47"/>
-      <c r="P45" s="47"/>
-      <c r="Q45" s="47"/>
-      <c r="R45" s="47"/>
-      <c r="S45" s="47"/>
-      <c r="T45" s="47"/>
-      <c r="U45" s="47"/>
-      <c r="V45" s="47"/>
-      <c r="W45" s="47"/>
-      <c r="X45" s="47"/>
-      <c r="Y45" s="47"/>
-      <c r="Z45" s="47"/>
-      <c r="AA45" s="47"/>
-      <c r="AB45" s="47"/>
-      <c r="AC45" s="48"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42"/>
+      <c r="T45" s="42"/>
+      <c r="U45" s="42"/>
+      <c r="V45" s="42"/>
+      <c r="W45" s="42"/>
+      <c r="X45" s="42"/>
+      <c r="Y45" s="42"/>
+      <c r="Z45" s="42"/>
+      <c r="AA45" s="42"/>
+      <c r="AB45" s="42"/>
+      <c r="AC45" s="43"/>
     </row>
     <row r="46" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="43"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="45"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="37"/>
       <c r="M46" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="N46" s="57" t="s">
+      <c r="N46" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="O46" s="57"/>
-      <c r="P46" s="57"/>
-      <c r="Q46" s="57"/>
-      <c r="R46" s="57"/>
-      <c r="S46" s="57"/>
-      <c r="T46" s="57"/>
-      <c r="U46" s="57"/>
-      <c r="V46" s="57"/>
-      <c r="W46" s="57"/>
-      <c r="X46" s="57"/>
-      <c r="Y46" s="57"/>
-      <c r="Z46" s="57"/>
-      <c r="AA46" s="57"/>
-      <c r="AB46" s="58"/>
-      <c r="AC46" s="59"/>
+      <c r="O46" s="44"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="44"/>
+      <c r="W46" s="44"/>
+      <c r="X46" s="44"/>
+      <c r="Y46" s="44"/>
+      <c r="Z46" s="44"/>
+      <c r="AA46" s="44"/>
+      <c r="AB46" s="45"/>
+      <c r="AC46" s="46"/>
     </row>
     <row r="47" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="43"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="45"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="37"/>
       <c r="M47" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="N47" s="60" t="s">
+      <c r="N47" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="O47" s="60"/>
-      <c r="P47" s="60"/>
-      <c r="Q47" s="60"/>
-      <c r="R47" s="60"/>
-      <c r="S47" s="60"/>
-      <c r="T47" s="60"/>
-      <c r="U47" s="60"/>
-      <c r="V47" s="60"/>
-      <c r="W47" s="60"/>
-      <c r="X47" s="60"/>
-      <c r="Y47" s="60"/>
-      <c r="Z47" s="60"/>
-      <c r="AA47" s="60"/>
-      <c r="AB47" s="61"/>
-      <c r="AC47" s="62"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="47"/>
+      <c r="R47" s="47"/>
+      <c r="S47" s="47"/>
+      <c r="T47" s="47"/>
+      <c r="U47" s="47"/>
+      <c r="V47" s="47"/>
+      <c r="W47" s="47"/>
+      <c r="X47" s="47"/>
+      <c r="Y47" s="47"/>
+      <c r="Z47" s="47"/>
+      <c r="AA47" s="47"/>
+      <c r="AB47" s="48"/>
+      <c r="AC47" s="49"/>
     </row>
     <row r="48" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="43"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="45"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="37"/>
       <c r="M48" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="N48" s="57" t="s">
+      <c r="N48" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="O48" s="57"/>
-      <c r="P48" s="57"/>
-      <c r="Q48" s="57"/>
-      <c r="R48" s="57"/>
-      <c r="S48" s="57"/>
-      <c r="T48" s="57"/>
-      <c r="U48" s="57"/>
-      <c r="V48" s="57"/>
-      <c r="W48" s="57"/>
-      <c r="X48" s="57"/>
-      <c r="Y48" s="57"/>
-      <c r="Z48" s="57"/>
-      <c r="AA48" s="57"/>
-      <c r="AB48" s="58"/>
-      <c r="AC48" s="59"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="44"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="44"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="44"/>
+      <c r="U48" s="44"/>
+      <c r="V48" s="44"/>
+      <c r="W48" s="44"/>
+      <c r="X48" s="44"/>
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="44"/>
+      <c r="AA48" s="44"/>
+      <c r="AB48" s="45"/>
+      <c r="AC48" s="46"/>
     </row>
     <row r="49" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="43"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="45"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="37"/>
       <c r="M49" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="N49" s="57" t="s">
+      <c r="N49" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="O49" s="57"/>
-      <c r="P49" s="57"/>
-      <c r="Q49" s="57"/>
-      <c r="R49" s="57"/>
-      <c r="S49" s="57"/>
-      <c r="T49" s="57"/>
-      <c r="U49" s="57"/>
-      <c r="V49" s="57"/>
-      <c r="W49" s="57"/>
-      <c r="X49" s="57"/>
-      <c r="Y49" s="57"/>
-      <c r="Z49" s="57"/>
-      <c r="AA49" s="57"/>
-      <c r="AB49" s="58"/>
-      <c r="AC49" s="59"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="44"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="44"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="44"/>
+      <c r="Y49" s="44"/>
+      <c r="Z49" s="44"/>
+      <c r="AA49" s="44"/>
+      <c r="AB49" s="45"/>
+      <c r="AC49" s="46"/>
     </row>
     <row r="50" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="43"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="45"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="37"/>
       <c r="M50" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="N50" s="57" t="s">
+      <c r="N50" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="O50" s="57"/>
-      <c r="P50" s="57"/>
-      <c r="Q50" s="57"/>
-      <c r="R50" s="57"/>
-      <c r="S50" s="57"/>
-      <c r="T50" s="57"/>
-      <c r="U50" s="57"/>
-      <c r="V50" s="57"/>
-      <c r="W50" s="57"/>
-      <c r="X50" s="57"/>
-      <c r="Y50" s="57"/>
-      <c r="Z50" s="57"/>
-      <c r="AA50" s="57"/>
-      <c r="AB50" s="58"/>
-      <c r="AC50" s="59"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="44"/>
+      <c r="Y50" s="44"/>
+      <c r="Z50" s="44"/>
+      <c r="AA50" s="44"/>
+      <c r="AB50" s="45"/>
+      <c r="AC50" s="46"/>
     </row>
     <row r="51" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="43"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="45"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="37"/>
       <c r="M51" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="57" t="s">
+      <c r="N51" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="O51" s="57"/>
-      <c r="P51" s="57"/>
-      <c r="Q51" s="57"/>
-      <c r="R51" s="57"/>
-      <c r="S51" s="57"/>
-      <c r="T51" s="57"/>
-      <c r="U51" s="57"/>
-      <c r="V51" s="57"/>
-      <c r="W51" s="57"/>
-      <c r="X51" s="57"/>
-      <c r="Y51" s="57"/>
-      <c r="Z51" s="57"/>
-      <c r="AA51" s="57"/>
-      <c r="AB51" s="58"/>
-      <c r="AC51" s="59"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="44"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="44"/>
+      <c r="Y51" s="44"/>
+      <c r="Z51" s="44"/>
+      <c r="AA51" s="44"/>
+      <c r="AB51" s="45"/>
+      <c r="AC51" s="46"/>
     </row>
     <row r="52" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="43"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="45"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="37"/>
       <c r="M52" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="N52" s="63" t="s">
+      <c r="N52" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="O52" s="63"/>
-      <c r="P52" s="63"/>
-      <c r="Q52" s="63"/>
-      <c r="R52" s="63"/>
-      <c r="S52" s="63"/>
-      <c r="T52" s="63"/>
-      <c r="U52" s="63"/>
-      <c r="V52" s="63"/>
-      <c r="W52" s="63"/>
-      <c r="X52" s="63"/>
-      <c r="Y52" s="63"/>
-      <c r="Z52" s="63"/>
-      <c r="AA52" s="63"/>
-      <c r="AB52" s="64"/>
-      <c r="AC52" s="65"/>
+      <c r="O52" s="50"/>
+      <c r="P52" s="50"/>
+      <c r="Q52" s="50"/>
+      <c r="R52" s="50"/>
+      <c r="S52" s="50"/>
+      <c r="T52" s="50"/>
+      <c r="U52" s="50"/>
+      <c r="V52" s="50"/>
+      <c r="W52" s="50"/>
+      <c r="X52" s="50"/>
+      <c r="Y52" s="50"/>
+      <c r="Z52" s="50"/>
+      <c r="AA52" s="50"/>
+      <c r="AB52" s="51"/>
+      <c r="AC52" s="52"/>
     </row>
     <row r="53" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="43"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="45"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="37"/>
       <c r="M53" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="N53" s="57" t="s">
+      <c r="N53" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="O53" s="57"/>
-      <c r="P53" s="57"/>
-      <c r="Q53" s="57"/>
-      <c r="R53" s="57"/>
-      <c r="S53" s="57"/>
-      <c r="T53" s="57"/>
-      <c r="U53" s="57"/>
-      <c r="V53" s="57"/>
-      <c r="W53" s="57"/>
-      <c r="X53" s="57"/>
-      <c r="Y53" s="57"/>
-      <c r="Z53" s="57"/>
-      <c r="AA53" s="57"/>
-      <c r="AB53" s="58"/>
-      <c r="AC53" s="59"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="44"/>
+      <c r="S53" s="44"/>
+      <c r="T53" s="44"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="44"/>
+      <c r="X53" s="44"/>
+      <c r="Y53" s="44"/>
+      <c r="Z53" s="44"/>
+      <c r="AA53" s="44"/>
+      <c r="AB53" s="45"/>
+      <c r="AC53" s="46"/>
     </row>
     <row r="54" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="43"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="45"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="37"/>
       <c r="M54" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="N54" s="63">
+      <c r="N54" s="50">
         <v>1234567</v>
       </c>
-      <c r="O54" s="63"/>
-      <c r="P54" s="63"/>
-      <c r="Q54" s="63"/>
-      <c r="R54" s="63"/>
-      <c r="S54" s="63"/>
-      <c r="T54" s="63"/>
-      <c r="U54" s="63"/>
-      <c r="V54" s="63"/>
-      <c r="W54" s="63"/>
-      <c r="X54" s="63"/>
-      <c r="Y54" s="63"/>
-      <c r="Z54" s="63"/>
-      <c r="AA54" s="63"/>
-      <c r="AB54" s="64"/>
-      <c r="AC54" s="65"/>
+      <c r="O54" s="50"/>
+      <c r="P54" s="50"/>
+      <c r="Q54" s="50"/>
+      <c r="R54" s="50"/>
+      <c r="S54" s="50"/>
+      <c r="T54" s="50"/>
+      <c r="U54" s="50"/>
+      <c r="V54" s="50"/>
+      <c r="W54" s="50"/>
+      <c r="X54" s="50"/>
+      <c r="Y54" s="50"/>
+      <c r="Z54" s="50"/>
+      <c r="AA54" s="50"/>
+      <c r="AB54" s="51"/>
+      <c r="AC54" s="52"/>
     </row>
     <row r="55" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="43"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="45"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="37"/>
       <c r="M55" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="N55" s="63" t="s">
+      <c r="N55" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="O55" s="63"/>
-      <c r="P55" s="63"/>
-      <c r="Q55" s="63"/>
-      <c r="R55" s="63"/>
-      <c r="S55" s="63"/>
-      <c r="T55" s="63"/>
-      <c r="U55" s="63"/>
-      <c r="V55" s="63"/>
-      <c r="W55" s="63"/>
-      <c r="X55" s="63"/>
-      <c r="Y55" s="63"/>
-      <c r="Z55" s="63"/>
-      <c r="AA55" s="63"/>
-      <c r="AB55" s="64"/>
-      <c r="AC55" s="65"/>
+      <c r="O55" s="50"/>
+      <c r="P55" s="50"/>
+      <c r="Q55" s="50"/>
+      <c r="R55" s="50"/>
+      <c r="S55" s="50"/>
+      <c r="T55" s="50"/>
+      <c r="U55" s="50"/>
+      <c r="V55" s="50"/>
+      <c r="W55" s="50"/>
+      <c r="X55" s="50"/>
+      <c r="Y55" s="50"/>
+      <c r="Z55" s="50"/>
+      <c r="AA55" s="50"/>
+      <c r="AB55" s="51"/>
+      <c r="AC55" s="52"/>
     </row>
     <row r="56" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="43"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="45"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="37"/>
       <c r="M56" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="N56" s="57" t="s">
+      <c r="N56" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="O56" s="57"/>
-      <c r="P56" s="57"/>
-      <c r="Q56" s="57"/>
-      <c r="R56" s="57"/>
-      <c r="S56" s="57"/>
-      <c r="T56" s="57"/>
-      <c r="U56" s="57"/>
-      <c r="V56" s="57"/>
-      <c r="W56" s="57"/>
-      <c r="X56" s="57"/>
-      <c r="Y56" s="57"/>
-      <c r="Z56" s="57"/>
-      <c r="AA56" s="57"/>
-      <c r="AB56" s="58"/>
-      <c r="AC56" s="59"/>
+      <c r="O56" s="44"/>
+      <c r="P56" s="44"/>
+      <c r="Q56" s="44"/>
+      <c r="R56" s="44"/>
+      <c r="S56" s="44"/>
+      <c r="T56" s="44"/>
+      <c r="U56" s="44"/>
+      <c r="V56" s="44"/>
+      <c r="W56" s="44"/>
+      <c r="X56" s="44"/>
+      <c r="Y56" s="44"/>
+      <c r="Z56" s="44"/>
+      <c r="AA56" s="44"/>
+      <c r="AB56" s="45"/>
+      <c r="AC56" s="46"/>
     </row>
     <row r="57" spans="2:29" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B57" s="43"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="45"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="37"/>
       <c r="M57" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="N57" s="54" t="s">
+      <c r="N57" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="O57" s="54"/>
-      <c r="P57" s="54"/>
-      <c r="Q57" s="54"/>
-      <c r="R57" s="54"/>
-      <c r="S57" s="54"/>
-      <c r="T57" s="54"/>
-      <c r="U57" s="54"/>
-      <c r="V57" s="54"/>
-      <c r="W57" s="54"/>
-      <c r="X57" s="54"/>
-      <c r="Y57" s="54"/>
-      <c r="Z57" s="54"/>
-      <c r="AA57" s="54"/>
-      <c r="AB57" s="55"/>
-      <c r="AC57" s="56"/>
+      <c r="O57" s="38"/>
+      <c r="P57" s="38"/>
+      <c r="Q57" s="38"/>
+      <c r="R57" s="38"/>
+      <c r="S57" s="38"/>
+      <c r="T57" s="38"/>
+      <c r="U57" s="38"/>
+      <c r="V57" s="38"/>
+      <c r="W57" s="38"/>
+      <c r="X57" s="38"/>
+      <c r="Y57" s="38"/>
+      <c r="Z57" s="38"/>
+      <c r="AA57" s="38"/>
+      <c r="AB57" s="39"/>
+      <c r="AC57" s="40"/>
     </row>
     <row r="58" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="43"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="45"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="37"/>
     </row>
     <row r="59" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="43"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="45"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="37"/>
     </row>
     <row r="60" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="43"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="45"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="37"/>
     </row>
     <row r="61" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="43"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="45"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="37"/>
     </row>
     <row r="62" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="43"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="45"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="37"/>
     </row>
     <row r="63" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="43"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="44"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="45"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="37"/>
     </row>
     <row r="64" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="43"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="44"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="45"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="37"/>
     </row>
     <row r="65" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="43"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="45"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="37"/>
     </row>
     <row r="66" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="43"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="45"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="37"/>
     </row>
     <row r="67" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="43"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="45"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="37"/>
     </row>
     <row r="68" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="43"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="44"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="45"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="37"/>
     </row>
     <row r="69" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="43"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="45"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="37"/>
     </row>
     <row r="70" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="43"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="44"/>
-      <c r="J70" s="45"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="37"/>
     </row>
     <row r="71" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="43"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="45"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="37"/>
     </row>
     <row r="72" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="43"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="44"/>
-      <c r="F72" s="44"/>
-      <c r="G72" s="44"/>
-      <c r="H72" s="44"/>
-      <c r="I72" s="44"/>
-      <c r="J72" s="45"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="37"/>
     </row>
     <row r="73" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="43"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="44"/>
-      <c r="H73" s="44"/>
-      <c r="I73" s="44"/>
-      <c r="J73" s="45"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="37"/>
     </row>
     <row r="74" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="43"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44"/>
-      <c r="H74" s="44"/>
-      <c r="I74" s="44"/>
-      <c r="J74" s="45"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="37"/>
     </row>
     <row r="75" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="43"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="44"/>
-      <c r="I75" s="44"/>
-      <c r="J75" s="45"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="37"/>
     </row>
     <row r="76" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="43"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="44"/>
-      <c r="H76" s="44"/>
-      <c r="I76" s="44"/>
-      <c r="J76" s="45"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="37"/>
     </row>
     <row r="77" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="43"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="44"/>
-      <c r="H77" s="44"/>
-      <c r="I77" s="44"/>
-      <c r="J77" s="45"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="37"/>
     </row>
     <row r="78" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="43"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="44"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="44"/>
-      <c r="J78" s="45"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="37"/>
     </row>
     <row r="79" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="43"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="44"/>
-      <c r="I79" s="44"/>
-      <c r="J79" s="45"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="37"/>
     </row>
     <row r="80" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="43"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="44"/>
-      <c r="F80" s="44"/>
-      <c r="G80" s="44"/>
-      <c r="H80" s="44"/>
-      <c r="I80" s="44"/>
-      <c r="J80" s="45"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="37"/>
     </row>
     <row r="81" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="43"/>
-      <c r="C81" s="44"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="44"/>
-      <c r="F81" s="44"/>
-      <c r="G81" s="44"/>
-      <c r="H81" s="44"/>
-      <c r="I81" s="44"/>
-      <c r="J81" s="45"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="37"/>
     </row>
     <row r="82" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="43"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="44"/>
-      <c r="F82" s="44"/>
-      <c r="G82" s="44"/>
-      <c r="H82" s="44"/>
-      <c r="I82" s="44"/>
-      <c r="J82" s="45"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="37"/>
     </row>
     <row r="83" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="43"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="44"/>
-      <c r="F83" s="44"/>
-      <c r="G83" s="44"/>
-      <c r="H83" s="44"/>
-      <c r="I83" s="44"/>
-      <c r="J83" s="45"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="37"/>
     </row>
     <row r="84" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="43"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="44"/>
-      <c r="G84" s="44"/>
-      <c r="H84" s="44"/>
-      <c r="I84" s="44"/>
-      <c r="J84" s="45"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="37"/>
     </row>
     <row r="85" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="43"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="44"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="44"/>
-      <c r="H85" s="44"/>
-      <c r="I85" s="44"/>
-      <c r="J85" s="45"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="37"/>
     </row>
     <row r="86" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="43"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="44"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="44"/>
-      <c r="H86" s="44"/>
-      <c r="I86" s="44"/>
-      <c r="J86" s="45"/>
+      <c r="B86" s="35"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="37"/>
     </row>
     <row r="87" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="43"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="44"/>
-      <c r="F87" s="44"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="44"/>
-      <c r="I87" s="44"/>
-      <c r="J87" s="45"/>
+      <c r="B87" s="35"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="37"/>
     </row>
     <row r="88" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="43"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="44"/>
-      <c r="G88" s="44"/>
-      <c r="H88" s="44"/>
-      <c r="I88" s="44"/>
-      <c r="J88" s="45"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="37"/>
     </row>
     <row r="89" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="43"/>
-      <c r="C89" s="44"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="44"/>
-      <c r="F89" s="44"/>
-      <c r="G89" s="44"/>
-      <c r="H89" s="44"/>
-      <c r="I89" s="44"/>
-      <c r="J89" s="45"/>
+      <c r="B89" s="35"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="37"/>
     </row>
     <row r="90" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="43"/>
-      <c r="C90" s="44"/>
-      <c r="D90" s="44"/>
-      <c r="E90" s="44"/>
-      <c r="F90" s="44"/>
-      <c r="G90" s="44"/>
-      <c r="H90" s="44"/>
-      <c r="I90" s="44"/>
-      <c r="J90" s="45"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="37"/>
     </row>
     <row r="91" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="43"/>
-      <c r="C91" s="44"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="44"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="44"/>
-      <c r="I91" s="44"/>
-      <c r="J91" s="45"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="37"/>
     </row>
     <row r="92" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="43"/>
-      <c r="C92" s="44"/>
-      <c r="D92" s="44"/>
-      <c r="E92" s="44"/>
-      <c r="F92" s="44"/>
-      <c r="G92" s="44"/>
-      <c r="H92" s="44"/>
-      <c r="I92" s="44"/>
-      <c r="J92" s="45"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="37"/>
     </row>
     <row r="93" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="43"/>
-      <c r="C93" s="44"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="44"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="44"/>
-      <c r="H93" s="44"/>
-      <c r="I93" s="44"/>
-      <c r="J93" s="45"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="37"/>
     </row>
     <row r="94" spans="2:10" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="53"/>
-      <c r="C94" s="50"/>
-      <c r="D94" s="50"/>
-      <c r="E94" s="50"/>
-      <c r="F94" s="50"/>
-      <c r="G94" s="50"/>
-      <c r="H94" s="50"/>
-      <c r="I94" s="50"/>
-      <c r="J94" s="51"/>
+      <c r="B94" s="56"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="54"/>
+      <c r="E94" s="54"/>
+      <c r="F94" s="54"/>
+      <c r="G94" s="54"/>
+      <c r="H94" s="54"/>
+      <c r="I94" s="54"/>
+      <c r="J94" s="55"/>
     </row>
     <row r="95" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="52"/>
-      <c r="C95" s="52"/>
-      <c r="D95" s="52"/>
-      <c r="E95" s="52"/>
-      <c r="F95" s="52"/>
-      <c r="G95" s="52"/>
-      <c r="H95" s="52"/>
-      <c r="I95" s="52"/>
-      <c r="J95" s="52"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="53"/>
+      <c r="D95" s="53"/>
+      <c r="E95" s="53"/>
+      <c r="F95" s="53"/>
+      <c r="G95" s="53"/>
+      <c r="H95" s="53"/>
+      <c r="I95" s="53"/>
+      <c r="J95" s="53"/>
     </row>
     <row r="96" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="52"/>
-      <c r="C96" s="52"/>
-      <c r="D96" s="52"/>
-      <c r="E96" s="52"/>
-      <c r="F96" s="52"/>
-      <c r="G96" s="52"/>
-      <c r="H96" s="52"/>
-      <c r="I96" s="52"/>
-      <c r="J96" s="52"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="53"/>
+      <c r="D96" s="53"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="53"/>
+      <c r="H96" s="53"/>
+      <c r="I96" s="53"/>
+      <c r="J96" s="53"/>
     </row>
     <row r="97" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="52"/>
-      <c r="C97" s="52"/>
-      <c r="D97" s="52"/>
-      <c r="E97" s="52"/>
-      <c r="F97" s="52"/>
-      <c r="G97" s="52"/>
-      <c r="H97" s="52"/>
-      <c r="I97" s="52"/>
-      <c r="J97" s="52"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="53"/>
+      <c r="D97" s="53"/>
+      <c r="E97" s="53"/>
+      <c r="F97" s="53"/>
+      <c r="G97" s="53"/>
+      <c r="H97" s="53"/>
+      <c r="I97" s="53"/>
+      <c r="J97" s="53"/>
     </row>
     <row r="98" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="52"/>
-      <c r="C98" s="52"/>
-      <c r="D98" s="52"/>
-      <c r="E98" s="52"/>
-      <c r="F98" s="52"/>
-      <c r="G98" s="52"/>
-      <c r="H98" s="52"/>
-      <c r="I98" s="52"/>
-      <c r="J98" s="52"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="53"/>
+      <c r="E98" s="53"/>
+      <c r="F98" s="53"/>
+      <c r="G98" s="53"/>
+      <c r="H98" s="53"/>
+      <c r="I98" s="53"/>
+      <c r="J98" s="53"/>
     </row>
     <row r="99" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="52"/>
-      <c r="C99" s="52"/>
-      <c r="D99" s="52"/>
-      <c r="E99" s="52"/>
-      <c r="F99" s="52"/>
-      <c r="G99" s="52"/>
-      <c r="H99" s="52"/>
-      <c r="I99" s="52"/>
-      <c r="J99" s="52"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="53"/>
+      <c r="E99" s="53"/>
+      <c r="F99" s="53"/>
+      <c r="G99" s="53"/>
+      <c r="H99" s="53"/>
+      <c r="I99" s="53"/>
+      <c r="J99" s="53"/>
     </row>
     <row r="100" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="52"/>
-      <c r="C100" s="52"/>
-      <c r="D100" s="52"/>
-      <c r="E100" s="52"/>
-      <c r="F100" s="52"/>
-      <c r="G100" s="52"/>
-      <c r="H100" s="52"/>
-      <c r="I100" s="52"/>
-      <c r="J100" s="52"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="53"/>
+      <c r="D100" s="53"/>
+      <c r="E100" s="53"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="53"/>
+      <c r="H100" s="53"/>
+      <c r="I100" s="53"/>
+      <c r="J100" s="53"/>
     </row>
     <row r="101" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="52"/>
-      <c r="C101" s="52"/>
-      <c r="D101" s="52"/>
-      <c r="E101" s="52"/>
-      <c r="F101" s="52"/>
-      <c r="G101" s="52"/>
-      <c r="H101" s="52"/>
-      <c r="I101" s="52"/>
-      <c r="J101" s="52"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="53"/>
+      <c r="D101" s="53"/>
+      <c r="E101" s="53"/>
+      <c r="F101" s="53"/>
+      <c r="G101" s="53"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="53"/>
+      <c r="J101" s="53"/>
     </row>
     <row r="102" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="52"/>
-      <c r="C102" s="52"/>
-      <c r="D102" s="52"/>
-      <c r="E102" s="52"/>
-      <c r="F102" s="52"/>
-      <c r="G102" s="52"/>
-      <c r="H102" s="52"/>
-      <c r="I102" s="52"/>
-      <c r="J102" s="52"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="53"/>
+      <c r="D102" s="53"/>
+      <c r="E102" s="53"/>
+      <c r="F102" s="53"/>
+      <c r="G102" s="53"/>
+      <c r="H102" s="53"/>
+      <c r="I102" s="53"/>
+      <c r="J102" s="53"/>
     </row>
     <row r="103" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="52"/>
-      <c r="C103" s="52"/>
-      <c r="D103" s="52"/>
-      <c r="E103" s="52"/>
-      <c r="F103" s="52"/>
-      <c r="G103" s="52"/>
-      <c r="H103" s="52"/>
-      <c r="I103" s="52"/>
-      <c r="J103" s="52"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="53"/>
+      <c r="D103" s="53"/>
+      <c r="E103" s="53"/>
+      <c r="F103" s="53"/>
+      <c r="G103" s="53"/>
+      <c r="H103" s="53"/>
+      <c r="I103" s="53"/>
+      <c r="J103" s="53"/>
     </row>
     <row r="104" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="52"/>
-      <c r="C104" s="52"/>
-      <c r="D104" s="52"/>
-      <c r="E104" s="52"/>
-      <c r="F104" s="52"/>
-      <c r="G104" s="52"/>
-      <c r="H104" s="52"/>
-      <c r="I104" s="52"/>
-      <c r="J104" s="52"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="53"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="53"/>
+      <c r="F104" s="53"/>
+      <c r="G104" s="53"/>
+      <c r="H104" s="53"/>
+      <c r="I104" s="53"/>
+      <c r="J104" s="53"/>
     </row>
     <row r="105" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="52"/>
-      <c r="C105" s="52"/>
-      <c r="D105" s="52"/>
-      <c r="E105" s="52"/>
-      <c r="F105" s="52"/>
-      <c r="G105" s="52"/>
-      <c r="H105" s="52"/>
-      <c r="I105" s="52"/>
-      <c r="J105" s="52"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="53"/>
+      <c r="D105" s="53"/>
+      <c r="E105" s="53"/>
+      <c r="F105" s="53"/>
+      <c r="G105" s="53"/>
+      <c r="H105" s="53"/>
+      <c r="I105" s="53"/>
+      <c r="J105" s="53"/>
     </row>
     <row r="106" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="52"/>
-      <c r="C106" s="52"/>
-      <c r="D106" s="52"/>
-      <c r="E106" s="52"/>
-      <c r="F106" s="52"/>
-      <c r="G106" s="52"/>
-      <c r="H106" s="52"/>
-      <c r="I106" s="52"/>
-      <c r="J106" s="52"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="53"/>
+      <c r="D106" s="53"/>
+      <c r="E106" s="53"/>
+      <c r="F106" s="53"/>
+      <c r="G106" s="53"/>
+      <c r="H106" s="53"/>
+      <c r="I106" s="53"/>
+      <c r="J106" s="53"/>
     </row>
     <row r="107" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="52"/>
-      <c r="C107" s="52"/>
-      <c r="D107" s="52"/>
-      <c r="E107" s="52"/>
-      <c r="F107" s="52"/>
-      <c r="G107" s="52"/>
-      <c r="H107" s="52"/>
-      <c r="I107" s="52"/>
-      <c r="J107" s="52"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="53"/>
+      <c r="D107" s="53"/>
+      <c r="E107" s="53"/>
+      <c r="F107" s="53"/>
+      <c r="G107" s="53"/>
+      <c r="H107" s="53"/>
+      <c r="I107" s="53"/>
+      <c r="J107" s="53"/>
     </row>
     <row r="108" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B108" s="52"/>
-      <c r="C108" s="52"/>
-      <c r="D108" s="52"/>
-      <c r="E108" s="52"/>
-      <c r="F108" s="52"/>
-      <c r="G108" s="52"/>
-      <c r="H108" s="52"/>
-      <c r="I108" s="52"/>
-      <c r="J108" s="52"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="53"/>
+      <c r="D108" s="53"/>
+      <c r="E108" s="53"/>
+      <c r="F108" s="53"/>
+      <c r="G108" s="53"/>
+      <c r="H108" s="53"/>
+      <c r="I108" s="53"/>
+      <c r="J108" s="53"/>
     </row>
     <row r="109" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B109" s="52"/>
-      <c r="C109" s="52"/>
-      <c r="D109" s="52"/>
-      <c r="E109" s="52"/>
-      <c r="F109" s="52"/>
-      <c r="G109" s="52"/>
-      <c r="H109" s="52"/>
-      <c r="I109" s="52"/>
-      <c r="J109" s="52"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="53"/>
+      <c r="D109" s="53"/>
+      <c r="E109" s="53"/>
+      <c r="F109" s="53"/>
+      <c r="G109" s="53"/>
+      <c r="H109" s="53"/>
+      <c r="I109" s="53"/>
+      <c r="J109" s="53"/>
     </row>
     <row r="110" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="52"/>
-      <c r="C110" s="52"/>
-      <c r="D110" s="52"/>
-      <c r="E110" s="52"/>
-      <c r="F110" s="52"/>
-      <c r="G110" s="52"/>
-      <c r="H110" s="52"/>
-      <c r="I110" s="52"/>
-      <c r="J110" s="52"/>
+      <c r="B110" s="53"/>
+      <c r="C110" s="53"/>
+      <c r="D110" s="53"/>
+      <c r="E110" s="53"/>
+      <c r="F110" s="53"/>
+      <c r="G110" s="53"/>
+      <c r="H110" s="53"/>
+      <c r="I110" s="53"/>
+      <c r="J110" s="53"/>
     </row>
     <row r="111" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="52"/>
-      <c r="C111" s="52"/>
-      <c r="D111" s="52"/>
-      <c r="E111" s="52"/>
-      <c r="F111" s="52"/>
-      <c r="G111" s="52"/>
-      <c r="H111" s="52"/>
-      <c r="I111" s="52"/>
-      <c r="J111" s="52"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="53"/>
+      <c r="D111" s="53"/>
+      <c r="E111" s="53"/>
+      <c r="F111" s="53"/>
+      <c r="G111" s="53"/>
+      <c r="H111" s="53"/>
+      <c r="I111" s="53"/>
+      <c r="J111" s="53"/>
     </row>
     <row r="112" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="52"/>
-      <c r="C112" s="52"/>
-      <c r="D112" s="52"/>
-      <c r="E112" s="52"/>
-      <c r="F112" s="52"/>
-      <c r="G112" s="52"/>
-      <c r="H112" s="52"/>
-      <c r="I112" s="52"/>
-      <c r="J112" s="52"/>
+      <c r="B112" s="53"/>
+      <c r="C112" s="53"/>
+      <c r="D112" s="53"/>
+      <c r="E112" s="53"/>
+      <c r="F112" s="53"/>
+      <c r="G112" s="53"/>
+      <c r="H112" s="53"/>
+      <c r="I112" s="53"/>
+      <c r="J112" s="53"/>
     </row>
     <row r="113" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="52"/>
-      <c r="C113" s="52"/>
-      <c r="D113" s="52"/>
-      <c r="E113" s="52"/>
-      <c r="F113" s="52"/>
-      <c r="G113" s="52"/>
-      <c r="H113" s="52"/>
-      <c r="I113" s="52"/>
-      <c r="J113" s="52"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="53"/>
+      <c r="D113" s="53"/>
+      <c r="E113" s="53"/>
+      <c r="F113" s="53"/>
+      <c r="G113" s="53"/>
+      <c r="H113" s="53"/>
+      <c r="I113" s="53"/>
+      <c r="J113" s="53"/>
     </row>
     <row r="114" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B114" s="52"/>
-      <c r="C114" s="52"/>
-      <c r="D114" s="52"/>
-      <c r="E114" s="52"/>
-      <c r="F114" s="52"/>
-      <c r="G114" s="52"/>
-      <c r="H114" s="52"/>
-      <c r="I114" s="52"/>
-      <c r="J114" s="52"/>
+      <c r="B114" s="53"/>
+      <c r="C114" s="53"/>
+      <c r="D114" s="53"/>
+      <c r="E114" s="53"/>
+      <c r="F114" s="53"/>
+      <c r="G114" s="53"/>
+      <c r="H114" s="53"/>
+      <c r="I114" s="53"/>
+      <c r="J114" s="53"/>
     </row>
     <row r="115" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="52"/>
-      <c r="C115" s="52"/>
-      <c r="D115" s="52"/>
-      <c r="E115" s="52"/>
-      <c r="F115" s="52"/>
-      <c r="G115" s="52"/>
-      <c r="H115" s="52"/>
-      <c r="I115" s="52"/>
-      <c r="J115" s="52"/>
+      <c r="B115" s="53"/>
+      <c r="C115" s="53"/>
+      <c r="D115" s="53"/>
+      <c r="E115" s="53"/>
+      <c r="F115" s="53"/>
+      <c r="G115" s="53"/>
+      <c r="H115" s="53"/>
+      <c r="I115" s="53"/>
+      <c r="J115" s="53"/>
     </row>
     <row r="116" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="52"/>
-      <c r="C116" s="52"/>
-      <c r="D116" s="52"/>
-      <c r="E116" s="52"/>
-      <c r="F116" s="52"/>
-      <c r="G116" s="52"/>
-      <c r="H116" s="52"/>
-      <c r="I116" s="52"/>
-      <c r="J116" s="52"/>
+      <c r="B116" s="53"/>
+      <c r="C116" s="53"/>
+      <c r="D116" s="53"/>
+      <c r="E116" s="53"/>
+      <c r="F116" s="53"/>
+      <c r="G116" s="53"/>
+      <c r="H116" s="53"/>
+      <c r="I116" s="53"/>
+      <c r="J116" s="53"/>
     </row>
     <row r="117" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="52"/>
-      <c r="C117" s="52"/>
-      <c r="D117" s="52"/>
-      <c r="E117" s="52"/>
-      <c r="F117" s="52"/>
-      <c r="G117" s="52"/>
-      <c r="H117" s="52"/>
-      <c r="I117" s="52"/>
-      <c r="J117" s="52"/>
+      <c r="B117" s="53"/>
+      <c r="C117" s="53"/>
+      <c r="D117" s="53"/>
+      <c r="E117" s="53"/>
+      <c r="F117" s="53"/>
+      <c r="G117" s="53"/>
+      <c r="H117" s="53"/>
+      <c r="I117" s="53"/>
+      <c r="J117" s="53"/>
     </row>
     <row r="118" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B118" s="52"/>
-      <c r="C118" s="52"/>
-      <c r="D118" s="52"/>
-      <c r="E118" s="52"/>
-      <c r="F118" s="52"/>
-      <c r="G118" s="52"/>
-      <c r="H118" s="52"/>
-      <c r="I118" s="52"/>
-      <c r="J118" s="52"/>
+      <c r="B118" s="53"/>
+      <c r="C118" s="53"/>
+      <c r="D118" s="53"/>
+      <c r="E118" s="53"/>
+      <c r="F118" s="53"/>
+      <c r="G118" s="53"/>
+      <c r="H118" s="53"/>
+      <c r="I118" s="53"/>
+      <c r="J118" s="53"/>
     </row>
     <row r="119" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B119" s="52"/>
-      <c r="C119" s="52"/>
-      <c r="D119" s="52"/>
-      <c r="E119" s="52"/>
-      <c r="F119" s="52"/>
-      <c r="G119" s="52"/>
-      <c r="H119" s="52"/>
-      <c r="I119" s="52"/>
-      <c r="J119" s="52"/>
+      <c r="B119" s="53"/>
+      <c r="C119" s="53"/>
+      <c r="D119" s="53"/>
+      <c r="E119" s="53"/>
+      <c r="F119" s="53"/>
+      <c r="G119" s="53"/>
+      <c r="H119" s="53"/>
+      <c r="I119" s="53"/>
+      <c r="J119" s="53"/>
     </row>
     <row r="120" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B120" s="52"/>
-      <c r="C120" s="52"/>
-      <c r="D120" s="52"/>
-      <c r="E120" s="52"/>
-      <c r="F120" s="52"/>
-      <c r="G120" s="52"/>
-      <c r="H120" s="52"/>
-      <c r="I120" s="52"/>
-      <c r="J120" s="52"/>
+      <c r="B120" s="53"/>
+      <c r="C120" s="53"/>
+      <c r="D120" s="53"/>
+      <c r="E120" s="53"/>
+      <c r="F120" s="53"/>
+      <c r="G120" s="53"/>
+      <c r="H120" s="53"/>
+      <c r="I120" s="53"/>
+      <c r="J120" s="53"/>
     </row>
     <row r="121" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B121" s="52"/>
-      <c r="C121" s="52"/>
-      <c r="D121" s="52"/>
-      <c r="E121" s="52"/>
-      <c r="F121" s="52"/>
-      <c r="G121" s="52"/>
-      <c r="H121" s="52"/>
-      <c r="I121" s="52"/>
-      <c r="J121" s="52"/>
+      <c r="B121" s="53"/>
+      <c r="C121" s="53"/>
+      <c r="D121" s="53"/>
+      <c r="E121" s="53"/>
+      <c r="F121" s="53"/>
+      <c r="G121" s="53"/>
+      <c r="H121" s="53"/>
+      <c r="I121" s="53"/>
+      <c r="J121" s="53"/>
     </row>
     <row r="122" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="52"/>
-      <c r="C122" s="52"/>
-      <c r="D122" s="52"/>
-      <c r="E122" s="52"/>
-      <c r="F122" s="52"/>
-      <c r="G122" s="52"/>
-      <c r="H122" s="52"/>
-      <c r="I122" s="52"/>
-      <c r="J122" s="52"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="53"/>
+      <c r="D122" s="53"/>
+      <c r="E122" s="53"/>
+      <c r="F122" s="53"/>
+      <c r="G122" s="53"/>
+      <c r="H122" s="53"/>
+      <c r="I122" s="53"/>
+      <c r="J122" s="53"/>
     </row>
     <row r="123" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="52"/>
-      <c r="C123" s="52"/>
-      <c r="D123" s="52"/>
-      <c r="E123" s="52"/>
-      <c r="F123" s="52"/>
-      <c r="G123" s="52"/>
-      <c r="H123" s="52"/>
-      <c r="I123" s="52"/>
-      <c r="J123" s="52"/>
+      <c r="B123" s="53"/>
+      <c r="C123" s="53"/>
+      <c r="D123" s="53"/>
+      <c r="E123" s="53"/>
+      <c r="F123" s="53"/>
+      <c r="G123" s="53"/>
+      <c r="H123" s="53"/>
+      <c r="I123" s="53"/>
+      <c r="J123" s="53"/>
     </row>
     <row r="124" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B124" s="52"/>
-      <c r="C124" s="52"/>
-      <c r="D124" s="52"/>
-      <c r="E124" s="52"/>
-      <c r="F124" s="52"/>
-      <c r="G124" s="52"/>
-      <c r="H124" s="52"/>
-      <c r="I124" s="52"/>
-      <c r="J124" s="52"/>
+      <c r="B124" s="53"/>
+      <c r="C124" s="53"/>
+      <c r="D124" s="53"/>
+      <c r="E124" s="53"/>
+      <c r="F124" s="53"/>
+      <c r="G124" s="53"/>
+      <c r="H124" s="53"/>
+      <c r="I124" s="53"/>
+      <c r="J124" s="53"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B125" s="52"/>
-      <c r="C125" s="52"/>
-      <c r="D125" s="52"/>
-      <c r="E125" s="52"/>
-      <c r="F125" s="52"/>
-      <c r="G125" s="52"/>
-      <c r="H125" s="52"/>
-      <c r="I125" s="52"/>
-      <c r="J125" s="52"/>
+      <c r="B125" s="53"/>
+      <c r="C125" s="53"/>
+      <c r="D125" s="53"/>
+      <c r="E125" s="53"/>
+      <c r="F125" s="53"/>
+      <c r="G125" s="53"/>
+      <c r="H125" s="53"/>
+      <c r="I125" s="53"/>
+      <c r="J125" s="53"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B126" s="52"/>
-      <c r="C126" s="52"/>
-      <c r="D126" s="52"/>
-      <c r="E126" s="52"/>
-      <c r="F126" s="52"/>
-      <c r="G126" s="52"/>
-      <c r="H126" s="52"/>
-      <c r="I126" s="52"/>
-      <c r="J126" s="52"/>
+      <c r="B126" s="53"/>
+      <c r="C126" s="53"/>
+      <c r="D126" s="53"/>
+      <c r="E126" s="53"/>
+      <c r="F126" s="53"/>
+      <c r="G126" s="53"/>
+      <c r="H126" s="53"/>
+      <c r="I126" s="53"/>
+      <c r="J126" s="53"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B127" s="52"/>
-      <c r="C127" s="52"/>
-      <c r="D127" s="52"/>
-      <c r="E127" s="52"/>
-      <c r="F127" s="52"/>
-      <c r="G127" s="52"/>
-      <c r="H127" s="52"/>
-      <c r="I127" s="52"/>
-      <c r="J127" s="52"/>
+      <c r="B127" s="53"/>
+      <c r="C127" s="53"/>
+      <c r="D127" s="53"/>
+      <c r="E127" s="53"/>
+      <c r="F127" s="53"/>
+      <c r="G127" s="53"/>
+      <c r="H127" s="53"/>
+      <c r="I127" s="53"/>
+      <c r="J127" s="53"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B128" s="52"/>
-      <c r="C128" s="52"/>
-      <c r="D128" s="52"/>
-      <c r="E128" s="52"/>
-      <c r="F128" s="52"/>
-      <c r="G128" s="52"/>
-      <c r="H128" s="52"/>
-      <c r="I128" s="52"/>
-      <c r="J128" s="52"/>
+      <c r="B128" s="53"/>
+      <c r="C128" s="53"/>
+      <c r="D128" s="53"/>
+      <c r="E128" s="53"/>
+      <c r="F128" s="53"/>
+      <c r="G128" s="53"/>
+      <c r="H128" s="53"/>
+      <c r="I128" s="53"/>
+      <c r="J128" s="53"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B129" s="52"/>
-      <c r="C129" s="52"/>
-      <c r="D129" s="52"/>
-      <c r="E129" s="52"/>
-      <c r="F129" s="52"/>
-      <c r="G129" s="52"/>
-      <c r="H129" s="52"/>
-      <c r="I129" s="52"/>
-      <c r="J129" s="52"/>
+      <c r="B129" s="53"/>
+      <c r="C129" s="53"/>
+      <c r="D129" s="53"/>
+      <c r="E129" s="53"/>
+      <c r="F129" s="53"/>
+      <c r="G129" s="53"/>
+      <c r="H129" s="53"/>
+      <c r="I129" s="53"/>
+      <c r="J129" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="242">
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="C80:C84"/>
-    <mergeCell ref="D80:D84"/>
-    <mergeCell ref="E80:E84"/>
-    <mergeCell ref="F80:F84"/>
-    <mergeCell ref="G80:G84"/>
-    <mergeCell ref="H80:H84"/>
-    <mergeCell ref="I80:I84"/>
-    <mergeCell ref="J80:J84"/>
-    <mergeCell ref="N57:AC57"/>
-    <mergeCell ref="N45:AC45"/>
-    <mergeCell ref="N46:AC46"/>
-    <mergeCell ref="N47:AC47"/>
-    <mergeCell ref="N48:AC48"/>
-    <mergeCell ref="N49:AC49"/>
-    <mergeCell ref="N50:AC50"/>
-    <mergeCell ref="N51:AC51"/>
-    <mergeCell ref="N53:AC53"/>
-    <mergeCell ref="N52:AC52"/>
-    <mergeCell ref="N56:AC56"/>
-    <mergeCell ref="N54:AC54"/>
-    <mergeCell ref="N55:AC55"/>
-    <mergeCell ref="B125:B129"/>
-    <mergeCell ref="C125:C129"/>
-    <mergeCell ref="D125:D129"/>
-    <mergeCell ref="E125:E129"/>
-    <mergeCell ref="F125:F129"/>
-    <mergeCell ref="G125:G129"/>
-    <mergeCell ref="H125:H129"/>
-    <mergeCell ref="I125:I129"/>
-    <mergeCell ref="J125:J129"/>
-    <mergeCell ref="B120:B124"/>
-    <mergeCell ref="C120:C124"/>
-    <mergeCell ref="D120:D124"/>
-    <mergeCell ref="E120:E124"/>
-    <mergeCell ref="F120:F124"/>
-    <mergeCell ref="G120:G124"/>
-    <mergeCell ref="H120:H124"/>
-    <mergeCell ref="I120:I124"/>
-    <mergeCell ref="J120:J124"/>
-    <mergeCell ref="H110:H114"/>
-    <mergeCell ref="I110:I114"/>
-    <mergeCell ref="J110:J114"/>
-    <mergeCell ref="B115:B119"/>
-    <mergeCell ref="C115:C119"/>
-    <mergeCell ref="D115:D119"/>
-    <mergeCell ref="E115:E119"/>
-    <mergeCell ref="F115:F119"/>
-    <mergeCell ref="G115:G119"/>
-    <mergeCell ref="H115:H119"/>
-    <mergeCell ref="B110:B114"/>
-    <mergeCell ref="C110:C114"/>
-    <mergeCell ref="D110:D114"/>
-    <mergeCell ref="E110:E114"/>
-    <mergeCell ref="F110:F114"/>
-    <mergeCell ref="G110:G114"/>
-    <mergeCell ref="I115:I119"/>
-    <mergeCell ref="J115:J119"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="C105:C109"/>
-    <mergeCell ref="D105:D109"/>
-    <mergeCell ref="E105:E109"/>
-    <mergeCell ref="F105:F109"/>
-    <mergeCell ref="G105:G109"/>
-    <mergeCell ref="H105:H109"/>
-    <mergeCell ref="I105:I109"/>
-    <mergeCell ref="J105:J109"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="C100:C104"/>
-    <mergeCell ref="D100:D104"/>
-    <mergeCell ref="E100:E104"/>
-    <mergeCell ref="F100:F104"/>
-    <mergeCell ref="G100:G104"/>
-    <mergeCell ref="H100:H104"/>
-    <mergeCell ref="I100:I104"/>
-    <mergeCell ref="J100:J104"/>
-    <mergeCell ref="H90:H94"/>
-    <mergeCell ref="I90:I94"/>
-    <mergeCell ref="J90:J94"/>
-    <mergeCell ref="B95:B99"/>
-    <mergeCell ref="C95:C99"/>
-    <mergeCell ref="D95:D99"/>
-    <mergeCell ref="E95:E99"/>
-    <mergeCell ref="F95:F99"/>
-    <mergeCell ref="G95:G99"/>
-    <mergeCell ref="H95:H99"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="D90:D94"/>
-    <mergeCell ref="E90:E94"/>
-    <mergeCell ref="F90:F94"/>
-    <mergeCell ref="G90:G94"/>
-    <mergeCell ref="I95:I99"/>
-    <mergeCell ref="J95:J99"/>
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="C85:C89"/>
-    <mergeCell ref="D85:D89"/>
-    <mergeCell ref="E85:E89"/>
-    <mergeCell ref="F85:F89"/>
-    <mergeCell ref="G85:G89"/>
-    <mergeCell ref="H85:H89"/>
-    <mergeCell ref="I85:I89"/>
-    <mergeCell ref="J85:J89"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="D75:D79"/>
-    <mergeCell ref="E75:E79"/>
-    <mergeCell ref="F75:F79"/>
-    <mergeCell ref="G75:G79"/>
-    <mergeCell ref="H75:H79"/>
-    <mergeCell ref="I75:I79"/>
-    <mergeCell ref="J75:J79"/>
-    <mergeCell ref="H65:H69"/>
-    <mergeCell ref="I65:I69"/>
-    <mergeCell ref="J65:J69"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="D70:D74"/>
-    <mergeCell ref="E70:E74"/>
-    <mergeCell ref="F70:F74"/>
-    <mergeCell ref="G70:G74"/>
-    <mergeCell ref="H70:H74"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="C65:C69"/>
-    <mergeCell ref="D65:D69"/>
-    <mergeCell ref="E65:E69"/>
-    <mergeCell ref="F65:F69"/>
-    <mergeCell ref="G65:G69"/>
-    <mergeCell ref="I70:I74"/>
-    <mergeCell ref="J70:J74"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="D60:D64"/>
-    <mergeCell ref="E60:E64"/>
-    <mergeCell ref="F60:F64"/>
-    <mergeCell ref="G60:G64"/>
-    <mergeCell ref="H60:H64"/>
-    <mergeCell ref="I60:I64"/>
-    <mergeCell ref="J60:J64"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="E55:E59"/>
-    <mergeCell ref="F55:F59"/>
-    <mergeCell ref="G55:G59"/>
-    <mergeCell ref="H55:H59"/>
-    <mergeCell ref="I55:I59"/>
-    <mergeCell ref="J55:J59"/>
-    <mergeCell ref="H45:H49"/>
-    <mergeCell ref="I45:I49"/>
-    <mergeCell ref="J45:J49"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="E50:E54"/>
-    <mergeCell ref="F50:F54"/>
-    <mergeCell ref="G50:G54"/>
-    <mergeCell ref="H50:H54"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="E45:E49"/>
-    <mergeCell ref="F45:F49"/>
-    <mergeCell ref="G45:G49"/>
-    <mergeCell ref="I50:I54"/>
-    <mergeCell ref="J50:J54"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="E40:E44"/>
-    <mergeCell ref="F40:F44"/>
-    <mergeCell ref="G40:G44"/>
-    <mergeCell ref="H40:H44"/>
-    <mergeCell ref="I40:I44"/>
-    <mergeCell ref="J40:J44"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="F35:F39"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="H35:H39"/>
-    <mergeCell ref="I35:I39"/>
-    <mergeCell ref="J35:J39"/>
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="I25:I29"/>
-    <mergeCell ref="J25:J29"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="G25:G29"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="I20:I24"/>
-    <mergeCell ref="J20:J24"/>
+    <mergeCell ref="B2:G3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="I5:I9"/>
+    <mergeCell ref="J5:J9"/>
     <mergeCell ref="N10:AC10"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="C15:C19"/>
@@ -6716,18 +6518,217 @@
     <mergeCell ref="H10:H14"/>
     <mergeCell ref="I10:I14"/>
     <mergeCell ref="J10:J14"/>
-    <mergeCell ref="B2:G3"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="I5:I9"/>
-    <mergeCell ref="J5:J9"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="I20:I24"/>
+    <mergeCell ref="J20:J24"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="I25:I29"/>
+    <mergeCell ref="J25:J29"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="H35:H39"/>
+    <mergeCell ref="I35:I39"/>
+    <mergeCell ref="J35:J39"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="E40:E44"/>
+    <mergeCell ref="F40:F44"/>
+    <mergeCell ref="G40:G44"/>
+    <mergeCell ref="H40:H44"/>
+    <mergeCell ref="I40:I44"/>
+    <mergeCell ref="J40:J44"/>
+    <mergeCell ref="H45:H49"/>
+    <mergeCell ref="I45:I49"/>
+    <mergeCell ref="J45:J49"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="E50:E54"/>
+    <mergeCell ref="F50:F54"/>
+    <mergeCell ref="G50:G54"/>
+    <mergeCell ref="H50:H54"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="F45:F49"/>
+    <mergeCell ref="G45:G49"/>
+    <mergeCell ref="I50:I54"/>
+    <mergeCell ref="J50:J54"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="E55:E59"/>
+    <mergeCell ref="F55:F59"/>
+    <mergeCell ref="G55:G59"/>
+    <mergeCell ref="H55:H59"/>
+    <mergeCell ref="I55:I59"/>
+    <mergeCell ref="J55:J59"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="E60:E64"/>
+    <mergeCell ref="F60:F64"/>
+    <mergeCell ref="G60:G64"/>
+    <mergeCell ref="H60:H64"/>
+    <mergeCell ref="I60:I64"/>
+    <mergeCell ref="J60:J64"/>
+    <mergeCell ref="H65:H69"/>
+    <mergeCell ref="I65:I69"/>
+    <mergeCell ref="J65:J69"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="D70:D74"/>
+    <mergeCell ref="E70:E74"/>
+    <mergeCell ref="F70:F74"/>
+    <mergeCell ref="G70:G74"/>
+    <mergeCell ref="H70:H74"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="G65:G69"/>
+    <mergeCell ref="I70:I74"/>
+    <mergeCell ref="J70:J74"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="F75:F79"/>
+    <mergeCell ref="G75:G79"/>
+    <mergeCell ref="H75:H79"/>
+    <mergeCell ref="I75:I79"/>
+    <mergeCell ref="J75:J79"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="D85:D89"/>
+    <mergeCell ref="E85:E89"/>
+    <mergeCell ref="F85:F89"/>
+    <mergeCell ref="G85:G89"/>
+    <mergeCell ref="H85:H89"/>
+    <mergeCell ref="I85:I89"/>
+    <mergeCell ref="J85:J89"/>
+    <mergeCell ref="H90:H94"/>
+    <mergeCell ref="I90:I94"/>
+    <mergeCell ref="J90:J94"/>
+    <mergeCell ref="B95:B99"/>
+    <mergeCell ref="C95:C99"/>
+    <mergeCell ref="D95:D99"/>
+    <mergeCell ref="E95:E99"/>
+    <mergeCell ref="F95:F99"/>
+    <mergeCell ref="G95:G99"/>
+    <mergeCell ref="H95:H99"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="D90:D94"/>
+    <mergeCell ref="E90:E94"/>
+    <mergeCell ref="F90:F94"/>
+    <mergeCell ref="G90:G94"/>
+    <mergeCell ref="I95:I99"/>
+    <mergeCell ref="J95:J99"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="C100:C104"/>
+    <mergeCell ref="D100:D104"/>
+    <mergeCell ref="E100:E104"/>
+    <mergeCell ref="F100:F104"/>
+    <mergeCell ref="G100:G104"/>
+    <mergeCell ref="H100:H104"/>
+    <mergeCell ref="I100:I104"/>
+    <mergeCell ref="J100:J104"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="C105:C109"/>
+    <mergeCell ref="D105:D109"/>
+    <mergeCell ref="E105:E109"/>
+    <mergeCell ref="F105:F109"/>
+    <mergeCell ref="G105:G109"/>
+    <mergeCell ref="H105:H109"/>
+    <mergeCell ref="I105:I109"/>
+    <mergeCell ref="J105:J109"/>
+    <mergeCell ref="H110:H114"/>
+    <mergeCell ref="I110:I114"/>
+    <mergeCell ref="J110:J114"/>
+    <mergeCell ref="B115:B119"/>
+    <mergeCell ref="C115:C119"/>
+    <mergeCell ref="D115:D119"/>
+    <mergeCell ref="E115:E119"/>
+    <mergeCell ref="F115:F119"/>
+    <mergeCell ref="G115:G119"/>
+    <mergeCell ref="H115:H119"/>
+    <mergeCell ref="B110:B114"/>
+    <mergeCell ref="C110:C114"/>
+    <mergeCell ref="D110:D114"/>
+    <mergeCell ref="E110:E114"/>
+    <mergeCell ref="F110:F114"/>
+    <mergeCell ref="G110:G114"/>
+    <mergeCell ref="I115:I119"/>
+    <mergeCell ref="J115:J119"/>
+    <mergeCell ref="B120:B124"/>
+    <mergeCell ref="C120:C124"/>
+    <mergeCell ref="D120:D124"/>
+    <mergeCell ref="E120:E124"/>
+    <mergeCell ref="F120:F124"/>
+    <mergeCell ref="G120:G124"/>
+    <mergeCell ref="H120:H124"/>
+    <mergeCell ref="I120:I124"/>
+    <mergeCell ref="J120:J124"/>
+    <mergeCell ref="B125:B129"/>
+    <mergeCell ref="C125:C129"/>
+    <mergeCell ref="D125:D129"/>
+    <mergeCell ref="E125:E129"/>
+    <mergeCell ref="F125:F129"/>
+    <mergeCell ref="G125:G129"/>
+    <mergeCell ref="H125:H129"/>
+    <mergeCell ref="I125:I129"/>
+    <mergeCell ref="J125:J129"/>
+    <mergeCell ref="N57:AC57"/>
+    <mergeCell ref="N45:AC45"/>
+    <mergeCell ref="N46:AC46"/>
+    <mergeCell ref="N47:AC47"/>
+    <mergeCell ref="N48:AC48"/>
+    <mergeCell ref="N49:AC49"/>
+    <mergeCell ref="N50:AC50"/>
+    <mergeCell ref="N51:AC51"/>
+    <mergeCell ref="N53:AC53"/>
+    <mergeCell ref="N52:AC52"/>
+    <mergeCell ref="N56:AC56"/>
+    <mergeCell ref="N54:AC54"/>
+    <mergeCell ref="N55:AC55"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="C80:C84"/>
+    <mergeCell ref="D80:D84"/>
+    <mergeCell ref="E80:E84"/>
+    <mergeCell ref="F80:F84"/>
+    <mergeCell ref="G80:G84"/>
+    <mergeCell ref="H80:H84"/>
+    <mergeCell ref="I80:I84"/>
+    <mergeCell ref="J80:J84"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6762,36 +6763,36 @@
   <sheetData>
     <row r="1" spans="2:28" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
       <c r="H2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="40"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
       <c r="H3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="68">
         <v>44707</v>
       </c>
-      <c r="J3" s="42"/>
+      <c r="J3" s="58"/>
     </row>
     <row r="4" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="20" t="s">
@@ -6823,94 +6824,94 @@
       </c>
     </row>
     <row r="5" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="45"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
     </row>
     <row r="7" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="45"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
     </row>
     <row r="8" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="45"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
     </row>
     <row r="9" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="45"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37"/>
     </row>
     <row r="10" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="45"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
@@ -6922,15 +6923,15 @@
       <c r="AB10" s="1"/>
     </row>
     <row r="11" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="45"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
@@ -6942,15 +6943,15 @@
       <c r="AB11" s="1"/>
     </row>
     <row r="12" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="37"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -6962,15 +6963,15 @@
       <c r="AB12" s="1"/>
     </row>
     <row r="13" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="45"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -6982,38 +6983,38 @@
       <c r="AB13" s="1"/>
     </row>
     <row r="14" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="45"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
     </row>
     <row r="15" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="72" t="s">
+      <c r="E15" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="45"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="37"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
@@ -7025,15 +7026,15 @@
       <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -7045,15 +7046,15 @@
       <c r="AB16" s="1"/>
     </row>
     <row r="17" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="43"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
       <c r="M17" s="2"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -7066,15 +7067,15 @@
       <c r="AB17" s="1"/>
     </row>
     <row r="18" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="45"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
@@ -7086,38 +7087,38 @@
       <c r="AB18" s="1"/>
     </row>
     <row r="19" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="45"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
     </row>
     <row r="20" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="72" t="s">
+      <c r="E20" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="45"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
@@ -7129,15 +7130,15 @@
       <c r="AB20" s="1"/>
     </row>
     <row r="21" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="45"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -7149,15 +7150,15 @@
       <c r="AB21" s="1"/>
     </row>
     <row r="22" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="45"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
@@ -7169,15 +7170,15 @@
       <c r="AB22" s="1"/>
     </row>
     <row r="23" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="45"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
@@ -7189,38 +7190,38 @@
       <c r="AB23" s="1"/>
     </row>
     <row r="24" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="45"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
     </row>
     <row r="25" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="72" t="s">
+      <c r="E25" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="G25" s="44" t="s">
+      <c r="G25" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="45"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="37"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
@@ -7232,15 +7233,15 @@
       <c r="AB25" s="1"/>
     </row>
     <row r="26" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="45"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="37"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
@@ -7252,15 +7253,15 @@
       <c r="AB26" s="1"/>
     </row>
     <row r="27" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="45"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="37"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
@@ -7272,15 +7273,15 @@
       <c r="AB27" s="1"/>
     </row>
     <row r="28" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="45"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="37"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
@@ -7292,38 +7293,38 @@
       <c r="AB28" s="1"/>
     </row>
     <row r="29" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="37"/>
     </row>
     <row r="30" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="71" t="s">
+      <c r="D30" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="72" t="s">
+      <c r="E30" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="G30" s="44" t="s">
+      <c r="G30" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="45"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="37"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
@@ -7335,15 +7336,15 @@
       <c r="AB30" s="1"/>
     </row>
     <row r="31" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="37"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
@@ -7355,15 +7356,15 @@
       <c r="AB31" s="1"/>
     </row>
     <row r="32" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="45"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="37"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
@@ -7375,15 +7376,15 @@
       <c r="AB32" s="1"/>
     </row>
     <row r="33" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="45"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="37"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
@@ -7395,38 +7396,38 @@
       <c r="AB33" s="1"/>
     </row>
     <row r="34" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="45"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="37"/>
     </row>
     <row r="35" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="71" t="s">
+      <c r="D35" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="E35" s="72" t="s">
+      <c r="E35" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="44" t="s">
+      <c r="F35" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="G35" s="44" t="s">
+      <c r="G35" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="45"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="37"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
@@ -7438,15 +7439,15 @@
       <c r="AB35" s="1"/>
     </row>
     <row r="36" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="43"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="45"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="37"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
@@ -7458,15 +7459,15 @@
       <c r="AB36" s="1"/>
     </row>
     <row r="37" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="43"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="45"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="37"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
@@ -7478,15 +7479,15 @@
       <c r="AB37" s="1"/>
     </row>
     <row r="38" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="43"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="45"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="37"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
@@ -7498,60 +7499,60 @@
       <c r="AB38" s="1"/>
     </row>
     <row r="39" spans="2:28" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="43"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="45"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="37"/>
     </row>
     <row r="40" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="D40" s="71" t="s">
+      <c r="D40" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="72" t="s">
+      <c r="E40" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="F40" s="44" t="s">
+      <c r="F40" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="G40" s="44" t="s">
+      <c r="G40" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="42"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="58"/>
       <c r="M40" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N40" s="39" t="s">
+      <c r="N40" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="39"/>
-      <c r="S40" s="40"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="66"/>
+      <c r="R40" s="66"/>
+      <c r="S40" s="67"/>
     </row>
     <row r="41" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="43"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="42"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="58"/>
       <c r="M41" s="4" t="s">
         <v>11</v>
       </c>
@@ -7575,15 +7576,15 @@
       </c>
     </row>
     <row r="42" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="43"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="42"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="58"/>
       <c r="M42" s="10" t="s">
         <v>20</v>
       </c>
@@ -7595,15 +7596,15 @@
       <c r="S42" s="12"/>
     </row>
     <row r="43" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="43"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="42"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="58"/>
       <c r="M43" s="26" t="s">
         <v>61</v>
       </c>
@@ -7625,15 +7626,15 @@
       <c r="S43" s="12"/>
     </row>
     <row r="44" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="43"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="42"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="58"/>
       <c r="M44" s="26" t="s">
         <v>68</v>
       </c>
@@ -7655,27 +7656,27 @@
       <c r="S44" s="12"/>
     </row>
     <row r="45" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="44" t="s">
+      <c r="C45" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="71" t="s">
+      <c r="D45" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="E45" s="72" t="s">
+      <c r="E45" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="F45" s="44" t="s">
+      <c r="F45" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="G45" s="73" t="s">
+      <c r="G45" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="45"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="37"/>
       <c r="M45" s="26" t="s">
         <v>117</v>
       </c>
@@ -7697,15 +7698,15 @@
       <c r="S45" s="12"/>
     </row>
     <row r="46" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="43"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="45"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="92"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="37"/>
       <c r="M46" s="27" t="s">
         <v>118</v>
       </c>
@@ -7727,72 +7728,72 @@
       <c r="S46" s="17"/>
     </row>
     <row r="47" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="43"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="45"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="92"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="37"/>
       <c r="M47" s="2"/>
     </row>
     <row r="48" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="43"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="45"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="92"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="37"/>
       <c r="M48" s="2"/>
     </row>
     <row r="49" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="43"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="45"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="92"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="37"/>
       <c r="M49" s="2"/>
     </row>
     <row r="50" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="44" t="s">
+      <c r="C50" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="71" t="s">
+      <c r="D50" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="E50" s="72" t="s">
+      <c r="E50" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="F50" s="44" t="s">
+      <c r="F50" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="G50" s="73" t="s">
+      <c r="G50" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="45"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="37"/>
       <c r="M50" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="N50" s="81" t="s">
+      <c r="N50" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="O50" s="82"/>
-      <c r="P50" s="82"/>
-      <c r="Q50" s="83"/>
+      <c r="O50" s="70"/>
+      <c r="P50" s="70"/>
+      <c r="Q50" s="71"/>
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
       <c r="V50" s="7"/>
@@ -7800,24 +7801,24 @@
       <c r="X50" s="7"/>
     </row>
     <row r="51" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="43"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="45"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="92"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="37"/>
       <c r="M51" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="N51" s="84" t="s">
+      <c r="N51" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="O51" s="85"/>
-      <c r="P51" s="85"/>
-      <c r="Q51" s="86"/>
+      <c r="O51" s="73"/>
+      <c r="P51" s="73"/>
+      <c r="Q51" s="74"/>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
@@ -7829,24 +7830,24 @@
       <c r="AB51" s="7"/>
     </row>
     <row r="52" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="43"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="45"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="92"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="37"/>
       <c r="M52" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="N52" s="87" t="s">
+      <c r="N52" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="O52" s="88"/>
-      <c r="P52" s="88"/>
-      <c r="Q52" s="89"/>
+      <c r="O52" s="76"/>
+      <c r="P52" s="76"/>
+      <c r="Q52" s="77"/>
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
       <c r="V52" s="7"/>
@@ -7858,24 +7859,24 @@
       <c r="AB52" s="7"/>
     </row>
     <row r="53" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="43"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="45"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="92"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="37"/>
       <c r="M53" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="N53" s="84" t="s">
+      <c r="N53" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="O53" s="85"/>
-      <c r="P53" s="85"/>
-      <c r="Q53" s="86"/>
+      <c r="O53" s="73"/>
+      <c r="P53" s="73"/>
+      <c r="Q53" s="74"/>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
@@ -7887,24 +7888,24 @@
       <c r="AB53" s="7"/>
     </row>
     <row r="54" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="43"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="45"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="92"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="37"/>
       <c r="M54" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="N54" s="90">
+      <c r="N54" s="78">
         <v>87654321</v>
       </c>
-      <c r="O54" s="91"/>
-      <c r="P54" s="91"/>
-      <c r="Q54" s="92"/>
+      <c r="O54" s="79"/>
+      <c r="P54" s="79"/>
+      <c r="Q54" s="80"/>
       <c r="T54" s="7"/>
       <c r="U54" s="7"/>
       <c r="V54" s="7"/>
@@ -7916,27 +7917,27 @@
       <c r="AB54" s="7"/>
     </row>
     <row r="55" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="43" t="s">
+      <c r="B55" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="68" t="s">
+      <c r="C55" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="D55" s="71" t="s">
+      <c r="D55" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="72" t="s">
+      <c r="E55" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="F55" s="44" t="s">
+      <c r="F55" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="G55" s="73" t="s">
+      <c r="G55" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="45"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="37"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
       <c r="O55" s="7"/>
@@ -7955,15 +7956,15 @@
       <c r="AB55" s="7"/>
     </row>
     <row r="56" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="66"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="45"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="92"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="37"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
       <c r="O56" s="7"/>
@@ -7982,15 +7983,15 @@
       <c r="AB56" s="7"/>
     </row>
     <row r="57" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="66"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="71"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="73"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="45"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="92"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="37"/>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
@@ -8009,15 +8010,15 @@
       <c r="AB57" s="7"/>
     </row>
     <row r="58" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="66"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="73"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="45"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="92"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="37"/>
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
       <c r="O58" s="7"/>
@@ -8036,15 +8037,15 @@
       <c r="AB58" s="7"/>
     </row>
     <row r="59" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="67"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="73"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="45"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="90"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="92"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="37"/>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
@@ -8063,27 +8064,27 @@
       <c r="AB59" s="7"/>
     </row>
     <row r="60" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="68" t="s">
+      <c r="C60" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="D60" s="71" t="s">
+      <c r="D60" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="E60" s="72" t="s">
+      <c r="E60" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="F60" s="44" t="s">
+      <c r="F60" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="G60" s="73" t="s">
+      <c r="G60" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="45"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="37"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
       <c r="O60" s="7"/>
@@ -8102,15 +8103,15 @@
       <c r="AB60" s="7"/>
     </row>
     <row r="61" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="66"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="73"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="45"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="92"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="37"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
       <c r="O61" s="7"/>
@@ -8129,15 +8130,15 @@
       <c r="AB61" s="7"/>
     </row>
     <row r="62" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="66"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="45"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="92"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="37"/>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
       <c r="O62" s="7"/>
@@ -8156,15 +8157,15 @@
       <c r="AB62" s="7"/>
     </row>
     <row r="63" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="66"/>
-      <c r="C63" s="69"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="73"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="45"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="85"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="92"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="37"/>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
       <c r="O63" s="7"/>
@@ -8183,15 +8184,15 @@
       <c r="AB63" s="7"/>
     </row>
     <row r="64" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="67"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="45"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="90"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="92"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="37"/>
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
@@ -8210,93 +8211,93 @@
       <c r="AB64" s="7"/>
     </row>
     <row r="65" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="44" t="s">
+      <c r="C65" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D65" s="71" t="s">
+      <c r="D65" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="E65" s="74" t="s">
+      <c r="E65" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="F65" s="44" t="s">
+      <c r="F65" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="G65" s="44" t="s">
+      <c r="G65" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H65" s="44"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="45"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="37"/>
     </row>
     <row r="66" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="43"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="75"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="45"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="88"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="37"/>
     </row>
     <row r="67" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="43"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="71"/>
-      <c r="E67" s="75"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="45"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="88"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="37"/>
     </row>
     <row r="68" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="43"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="44"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="45"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="85"/>
+      <c r="E68" s="88"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="37"/>
     </row>
     <row r="69" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="43"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="75"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="45"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="85"/>
+      <c r="E69" s="88"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="37"/>
     </row>
     <row r="70" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="43"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="75"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="44"/>
-      <c r="J70" s="45"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="88"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="37"/>
     </row>
     <row r="71" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="43"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="71"/>
-      <c r="E71" s="75"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="45"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="88"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="37"/>
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
       <c r="V71" s="1"/>
@@ -8308,15 +8309,15 @@
       <c r="AB71" s="1"/>
     </row>
     <row r="72" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="43"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="76"/>
-      <c r="F72" s="44"/>
-      <c r="G72" s="44"/>
-      <c r="H72" s="44"/>
-      <c r="I72" s="44"/>
-      <c r="J72" s="45"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="37"/>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
@@ -8328,456 +8329,456 @@
       <c r="AB72" s="1"/>
     </row>
     <row r="73" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="43" t="s">
+      <c r="B73" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="68" t="s">
+      <c r="C73" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="D73" s="71" t="s">
+      <c r="D73" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="E73" s="74" t="s">
+      <c r="E73" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="F73" s="44" t="s">
+      <c r="F73" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="G73" s="44" t="s">
+      <c r="G73" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H73" s="44"/>
-      <c r="I73" s="44"/>
-      <c r="J73" s="45"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="37"/>
     </row>
     <row r="74" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="66"/>
-      <c r="C74" s="69"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="75"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44"/>
-      <c r="H74" s="44"/>
-      <c r="I74" s="44"/>
-      <c r="J74" s="45"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="85"/>
+      <c r="E74" s="88"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="37"/>
     </row>
     <row r="75" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="66"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="75"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="44"/>
-      <c r="I75" s="44"/>
-      <c r="J75" s="45"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="88"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="37"/>
     </row>
     <row r="76" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="66"/>
-      <c r="C76" s="69"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="75"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="44"/>
-      <c r="H76" s="44"/>
-      <c r="I76" s="44"/>
-      <c r="J76" s="45"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="85"/>
+      <c r="E76" s="88"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="37"/>
     </row>
     <row r="77" spans="2:28" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="77"/>
-      <c r="C77" s="78"/>
-      <c r="D77" s="79"/>
-      <c r="E77" s="80"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="50"/>
-      <c r="J77" s="51"/>
+      <c r="B77" s="81"/>
+      <c r="C77" s="84"/>
+      <c r="D77" s="86"/>
+      <c r="E77" s="89"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="54"/>
+      <c r="J77" s="55"/>
     </row>
     <row r="78" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="52"/>
-      <c r="C78" s="52"/>
-      <c r="D78" s="52"/>
-      <c r="E78" s="52"/>
-      <c r="F78" s="52"/>
-      <c r="G78" s="52"/>
-      <c r="H78" s="52"/>
-      <c r="I78" s="52"/>
-      <c r="J78" s="52"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="53"/>
     </row>
     <row r="79" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="52"/>
-      <c r="C79" s="52"/>
-      <c r="D79" s="52"/>
-      <c r="E79" s="52"/>
-      <c r="F79" s="52"/>
-      <c r="G79" s="52"/>
-      <c r="H79" s="52"/>
-      <c r="I79" s="52"/>
-      <c r="J79" s="52"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="53"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="53"/>
+      <c r="G79" s="53"/>
+      <c r="H79" s="53"/>
+      <c r="I79" s="53"/>
+      <c r="J79" s="53"/>
     </row>
     <row r="80" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="52"/>
-      <c r="C80" s="52"/>
-      <c r="D80" s="52"/>
-      <c r="E80" s="52"/>
-      <c r="F80" s="52"/>
-      <c r="G80" s="52"/>
-      <c r="H80" s="52"/>
-      <c r="I80" s="52"/>
-      <c r="J80" s="52"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="53"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="53"/>
+      <c r="I80" s="53"/>
+      <c r="J80" s="53"/>
     </row>
     <row r="81" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="52"/>
-      <c r="C81" s="52"/>
-      <c r="D81" s="52"/>
-      <c r="E81" s="52"/>
-      <c r="F81" s="52"/>
-      <c r="G81" s="52"/>
-      <c r="H81" s="52"/>
-      <c r="I81" s="52"/>
-      <c r="J81" s="52"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="53"/>
+      <c r="E81" s="53"/>
+      <c r="F81" s="53"/>
+      <c r="G81" s="53"/>
+      <c r="H81" s="53"/>
+      <c r="I81" s="53"/>
+      <c r="J81" s="53"/>
     </row>
     <row r="82" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="52"/>
-      <c r="C82" s="52"/>
-      <c r="D82" s="52"/>
-      <c r="E82" s="52"/>
-      <c r="F82" s="52"/>
-      <c r="G82" s="52"/>
-      <c r="H82" s="52"/>
-      <c r="I82" s="52"/>
-      <c r="J82" s="52"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="53"/>
+      <c r="I82" s="53"/>
+      <c r="J82" s="53"/>
     </row>
     <row r="83" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="52"/>
-      <c r="C83" s="52"/>
-      <c r="D83" s="52"/>
-      <c r="E83" s="52"/>
-      <c r="F83" s="52"/>
-      <c r="G83" s="52"/>
-      <c r="H83" s="52"/>
-      <c r="I83" s="52"/>
-      <c r="J83" s="52"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="53"/>
+      <c r="E83" s="53"/>
+      <c r="F83" s="53"/>
+      <c r="G83" s="53"/>
+      <c r="H83" s="53"/>
+      <c r="I83" s="53"/>
+      <c r="J83" s="53"/>
     </row>
     <row r="84" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="52"/>
-      <c r="C84" s="52"/>
-      <c r="D84" s="52"/>
-      <c r="E84" s="52"/>
-      <c r="F84" s="52"/>
-      <c r="G84" s="52"/>
-      <c r="H84" s="52"/>
-      <c r="I84" s="52"/>
-      <c r="J84" s="52"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="53"/>
+      <c r="D84" s="53"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="53"/>
+      <c r="I84" s="53"/>
+      <c r="J84" s="53"/>
     </row>
     <row r="85" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="52"/>
-      <c r="C85" s="52"/>
-      <c r="D85" s="52"/>
-      <c r="E85" s="52"/>
-      <c r="F85" s="52"/>
-      <c r="G85" s="52"/>
-      <c r="H85" s="52"/>
-      <c r="I85" s="52"/>
-      <c r="J85" s="52"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="53"/>
+      <c r="E85" s="53"/>
+      <c r="F85" s="53"/>
+      <c r="G85" s="53"/>
+      <c r="H85" s="53"/>
+      <c r="I85" s="53"/>
+      <c r="J85" s="53"/>
     </row>
     <row r="86" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="52"/>
-      <c r="C86" s="52"/>
-      <c r="D86" s="52"/>
-      <c r="E86" s="52"/>
-      <c r="F86" s="52"/>
-      <c r="G86" s="52"/>
-      <c r="H86" s="52"/>
-      <c r="I86" s="52"/>
-      <c r="J86" s="52"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="53"/>
+      <c r="E86" s="53"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="53"/>
+      <c r="H86" s="53"/>
+      <c r="I86" s="53"/>
+      <c r="J86" s="53"/>
     </row>
     <row r="87" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="52"/>
-      <c r="C87" s="52"/>
-      <c r="D87" s="52"/>
-      <c r="E87" s="52"/>
-      <c r="F87" s="52"/>
-      <c r="G87" s="52"/>
-      <c r="H87" s="52"/>
-      <c r="I87" s="52"/>
-      <c r="J87" s="52"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="53"/>
+      <c r="F87" s="53"/>
+      <c r="G87" s="53"/>
+      <c r="H87" s="53"/>
+      <c r="I87" s="53"/>
+      <c r="J87" s="53"/>
     </row>
     <row r="88" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="52"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="52"/>
-      <c r="E88" s="52"/>
-      <c r="F88" s="52"/>
-      <c r="G88" s="52"/>
-      <c r="H88" s="52"/>
-      <c r="I88" s="52"/>
-      <c r="J88" s="52"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="53"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="53"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="53"/>
+      <c r="J88" s="53"/>
     </row>
     <row r="89" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="52"/>
-      <c r="C89" s="52"/>
-      <c r="D89" s="52"/>
-      <c r="E89" s="52"/>
-      <c r="F89" s="52"/>
-      <c r="G89" s="52"/>
-      <c r="H89" s="52"/>
-      <c r="I89" s="52"/>
-      <c r="J89" s="52"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="53"/>
+      <c r="F89" s="53"/>
+      <c r="G89" s="53"/>
+      <c r="H89" s="53"/>
+      <c r="I89" s="53"/>
+      <c r="J89" s="53"/>
     </row>
     <row r="90" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="52"/>
-      <c r="C90" s="52"/>
-      <c r="D90" s="52"/>
-      <c r="E90" s="52"/>
-      <c r="F90" s="52"/>
-      <c r="G90" s="52"/>
-      <c r="H90" s="52"/>
-      <c r="I90" s="52"/>
-      <c r="J90" s="52"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="53"/>
+      <c r="E90" s="53"/>
+      <c r="F90" s="53"/>
+      <c r="G90" s="53"/>
+      <c r="H90" s="53"/>
+      <c r="I90" s="53"/>
+      <c r="J90" s="53"/>
     </row>
     <row r="91" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="52"/>
-      <c r="C91" s="52"/>
-      <c r="D91" s="52"/>
-      <c r="E91" s="52"/>
-      <c r="F91" s="52"/>
-      <c r="G91" s="52"/>
-      <c r="H91" s="52"/>
-      <c r="I91" s="52"/>
-      <c r="J91" s="52"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="53"/>
+      <c r="E91" s="53"/>
+      <c r="F91" s="53"/>
+      <c r="G91" s="53"/>
+      <c r="H91" s="53"/>
+      <c r="I91" s="53"/>
+      <c r="J91" s="53"/>
     </row>
     <row r="92" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="52"/>
-      <c r="C92" s="52"/>
-      <c r="D92" s="52"/>
-      <c r="E92" s="52"/>
-      <c r="F92" s="52"/>
-      <c r="G92" s="52"/>
-      <c r="H92" s="52"/>
-      <c r="I92" s="52"/>
-      <c r="J92" s="52"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="53"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="53"/>
+      <c r="F92" s="53"/>
+      <c r="G92" s="53"/>
+      <c r="H92" s="53"/>
+      <c r="I92" s="53"/>
+      <c r="J92" s="53"/>
     </row>
     <row r="93" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="52"/>
-      <c r="C93" s="52"/>
-      <c r="D93" s="52"/>
-      <c r="E93" s="52"/>
-      <c r="F93" s="52"/>
-      <c r="G93" s="52"/>
-      <c r="H93" s="52"/>
-      <c r="I93" s="52"/>
-      <c r="J93" s="52"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="53"/>
+      <c r="D93" s="53"/>
+      <c r="E93" s="53"/>
+      <c r="F93" s="53"/>
+      <c r="G93" s="53"/>
+      <c r="H93" s="53"/>
+      <c r="I93" s="53"/>
+      <c r="J93" s="53"/>
     </row>
     <row r="94" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="52"/>
-      <c r="C94" s="52"/>
-      <c r="D94" s="52"/>
-      <c r="E94" s="52"/>
-      <c r="F94" s="52"/>
-      <c r="G94" s="52"/>
-      <c r="H94" s="52"/>
-      <c r="I94" s="52"/>
-      <c r="J94" s="52"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="53"/>
+      <c r="D94" s="53"/>
+      <c r="E94" s="53"/>
+      <c r="F94" s="53"/>
+      <c r="G94" s="53"/>
+      <c r="H94" s="53"/>
+      <c r="I94" s="53"/>
+      <c r="J94" s="53"/>
     </row>
     <row r="95" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="52"/>
-      <c r="C95" s="52"/>
-      <c r="D95" s="52"/>
-      <c r="E95" s="52"/>
-      <c r="F95" s="52"/>
-      <c r="G95" s="52"/>
-      <c r="H95" s="52"/>
-      <c r="I95" s="52"/>
-      <c r="J95" s="52"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="53"/>
+      <c r="D95" s="53"/>
+      <c r="E95" s="53"/>
+      <c r="F95" s="53"/>
+      <c r="G95" s="53"/>
+      <c r="H95" s="53"/>
+      <c r="I95" s="53"/>
+      <c r="J95" s="53"/>
     </row>
     <row r="96" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="52"/>
-      <c r="C96" s="52"/>
-      <c r="D96" s="52"/>
-      <c r="E96" s="52"/>
-      <c r="F96" s="52"/>
-      <c r="G96" s="52"/>
-      <c r="H96" s="52"/>
-      <c r="I96" s="52"/>
-      <c r="J96" s="52"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="53"/>
+      <c r="D96" s="53"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="53"/>
+      <c r="H96" s="53"/>
+      <c r="I96" s="53"/>
+      <c r="J96" s="53"/>
     </row>
     <row r="97" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="52"/>
-      <c r="C97" s="52"/>
-      <c r="D97" s="52"/>
-      <c r="E97" s="52"/>
-      <c r="F97" s="52"/>
-      <c r="G97" s="52"/>
-      <c r="H97" s="52"/>
-      <c r="I97" s="52"/>
-      <c r="J97" s="52"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="53"/>
+      <c r="D97" s="53"/>
+      <c r="E97" s="53"/>
+      <c r="F97" s="53"/>
+      <c r="G97" s="53"/>
+      <c r="H97" s="53"/>
+      <c r="I97" s="53"/>
+      <c r="J97" s="53"/>
     </row>
     <row r="98" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="52"/>
-      <c r="C98" s="52"/>
-      <c r="D98" s="52"/>
-      <c r="E98" s="52"/>
-      <c r="F98" s="52"/>
-      <c r="G98" s="52"/>
-      <c r="H98" s="52"/>
-      <c r="I98" s="52"/>
-      <c r="J98" s="52"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="53"/>
+      <c r="E98" s="53"/>
+      <c r="F98" s="53"/>
+      <c r="G98" s="53"/>
+      <c r="H98" s="53"/>
+      <c r="I98" s="53"/>
+      <c r="J98" s="53"/>
     </row>
     <row r="99" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="52"/>
-      <c r="C99" s="52"/>
-      <c r="D99" s="52"/>
-      <c r="E99" s="52"/>
-      <c r="F99" s="52"/>
-      <c r="G99" s="52"/>
-      <c r="H99" s="52"/>
-      <c r="I99" s="52"/>
-      <c r="J99" s="52"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="53"/>
+      <c r="E99" s="53"/>
+      <c r="F99" s="53"/>
+      <c r="G99" s="53"/>
+      <c r="H99" s="53"/>
+      <c r="I99" s="53"/>
+      <c r="J99" s="53"/>
     </row>
     <row r="100" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="52"/>
-      <c r="C100" s="52"/>
-      <c r="D100" s="52"/>
-      <c r="E100" s="52"/>
-      <c r="F100" s="52"/>
-      <c r="G100" s="52"/>
-      <c r="H100" s="52"/>
-      <c r="I100" s="52"/>
-      <c r="J100" s="52"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="53"/>
+      <c r="D100" s="53"/>
+      <c r="E100" s="53"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="53"/>
+      <c r="H100" s="53"/>
+      <c r="I100" s="53"/>
+      <c r="J100" s="53"/>
     </row>
     <row r="101" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="52"/>
-      <c r="C101" s="52"/>
-      <c r="D101" s="52"/>
-      <c r="E101" s="52"/>
-      <c r="F101" s="52"/>
-      <c r="G101" s="52"/>
-      <c r="H101" s="52"/>
-      <c r="I101" s="52"/>
-      <c r="J101" s="52"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="53"/>
+      <c r="D101" s="53"/>
+      <c r="E101" s="53"/>
+      <c r="F101" s="53"/>
+      <c r="G101" s="53"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="53"/>
+      <c r="J101" s="53"/>
     </row>
     <row r="102" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="52"/>
-      <c r="C102" s="52"/>
-      <c r="D102" s="52"/>
-      <c r="E102" s="52"/>
-      <c r="F102" s="52"/>
-      <c r="G102" s="52"/>
-      <c r="H102" s="52"/>
-      <c r="I102" s="52"/>
-      <c r="J102" s="52"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="53"/>
+      <c r="D102" s="53"/>
+      <c r="E102" s="53"/>
+      <c r="F102" s="53"/>
+      <c r="G102" s="53"/>
+      <c r="H102" s="53"/>
+      <c r="I102" s="53"/>
+      <c r="J102" s="53"/>
     </row>
     <row r="103" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="52"/>
-      <c r="C103" s="52"/>
-      <c r="D103" s="52"/>
-      <c r="E103" s="52"/>
-      <c r="F103" s="52"/>
-      <c r="G103" s="52"/>
-      <c r="H103" s="52"/>
-      <c r="I103" s="52"/>
-      <c r="J103" s="52"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="53"/>
+      <c r="D103" s="53"/>
+      <c r="E103" s="53"/>
+      <c r="F103" s="53"/>
+      <c r="G103" s="53"/>
+      <c r="H103" s="53"/>
+      <c r="I103" s="53"/>
+      <c r="J103" s="53"/>
     </row>
     <row r="104" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="52"/>
-      <c r="C104" s="52"/>
-      <c r="D104" s="52"/>
-      <c r="E104" s="52"/>
-      <c r="F104" s="52"/>
-      <c r="G104" s="52"/>
-      <c r="H104" s="52"/>
-      <c r="I104" s="52"/>
-      <c r="J104" s="52"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="53"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="53"/>
+      <c r="F104" s="53"/>
+      <c r="G104" s="53"/>
+      <c r="H104" s="53"/>
+      <c r="I104" s="53"/>
+      <c r="J104" s="53"/>
     </row>
     <row r="105" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="52"/>
-      <c r="C105" s="52"/>
-      <c r="D105" s="52"/>
-      <c r="E105" s="52"/>
-      <c r="F105" s="52"/>
-      <c r="G105" s="52"/>
-      <c r="H105" s="52"/>
-      <c r="I105" s="52"/>
-      <c r="J105" s="52"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="53"/>
+      <c r="D105" s="53"/>
+      <c r="E105" s="53"/>
+      <c r="F105" s="53"/>
+      <c r="G105" s="53"/>
+      <c r="H105" s="53"/>
+      <c r="I105" s="53"/>
+      <c r="J105" s="53"/>
     </row>
     <row r="106" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="52"/>
-      <c r="C106" s="52"/>
-      <c r="D106" s="52"/>
-      <c r="E106" s="52"/>
-      <c r="F106" s="52"/>
-      <c r="G106" s="52"/>
-      <c r="H106" s="52"/>
-      <c r="I106" s="52"/>
-      <c r="J106" s="52"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="53"/>
+      <c r="D106" s="53"/>
+      <c r="E106" s="53"/>
+      <c r="F106" s="53"/>
+      <c r="G106" s="53"/>
+      <c r="H106" s="53"/>
+      <c r="I106" s="53"/>
+      <c r="J106" s="53"/>
     </row>
     <row r="107" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="52"/>
-      <c r="C107" s="52"/>
-      <c r="D107" s="52"/>
-      <c r="E107" s="52"/>
-      <c r="F107" s="52"/>
-      <c r="G107" s="52"/>
-      <c r="H107" s="52"/>
-      <c r="I107" s="52"/>
-      <c r="J107" s="52"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="53"/>
+      <c r="D107" s="53"/>
+      <c r="E107" s="53"/>
+      <c r="F107" s="53"/>
+      <c r="G107" s="53"/>
+      <c r="H107" s="53"/>
+      <c r="I107" s="53"/>
+      <c r="J107" s="53"/>
     </row>
     <row r="108" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B108" s="52"/>
-      <c r="C108" s="52"/>
-      <c r="D108" s="52"/>
-      <c r="E108" s="52"/>
-      <c r="F108" s="52"/>
-      <c r="G108" s="52"/>
-      <c r="H108" s="52"/>
-      <c r="I108" s="52"/>
-      <c r="J108" s="52"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="53"/>
+      <c r="D108" s="53"/>
+      <c r="E108" s="53"/>
+      <c r="F108" s="53"/>
+      <c r="G108" s="53"/>
+      <c r="H108" s="53"/>
+      <c r="I108" s="53"/>
+      <c r="J108" s="53"/>
     </row>
     <row r="109" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B109" s="52"/>
-      <c r="C109" s="52"/>
-      <c r="D109" s="52"/>
-      <c r="E109" s="52"/>
-      <c r="F109" s="52"/>
-      <c r="G109" s="52"/>
-      <c r="H109" s="52"/>
-      <c r="I109" s="52"/>
-      <c r="J109" s="52"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="53"/>
+      <c r="D109" s="53"/>
+      <c r="E109" s="53"/>
+      <c r="F109" s="53"/>
+      <c r="G109" s="53"/>
+      <c r="H109" s="53"/>
+      <c r="I109" s="53"/>
+      <c r="J109" s="53"/>
     </row>
     <row r="110" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="52"/>
-      <c r="C110" s="52"/>
-      <c r="D110" s="52"/>
-      <c r="E110" s="52"/>
-      <c r="F110" s="52"/>
-      <c r="G110" s="52"/>
-      <c r="H110" s="52"/>
-      <c r="I110" s="52"/>
-      <c r="J110" s="52"/>
+      <c r="B110" s="53"/>
+      <c r="C110" s="53"/>
+      <c r="D110" s="53"/>
+      <c r="E110" s="53"/>
+      <c r="F110" s="53"/>
+      <c r="G110" s="53"/>
+      <c r="H110" s="53"/>
+      <c r="I110" s="53"/>
+      <c r="J110" s="53"/>
     </row>
     <row r="111" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="52"/>
-      <c r="C111" s="52"/>
-      <c r="D111" s="52"/>
-      <c r="E111" s="52"/>
-      <c r="F111" s="52"/>
-      <c r="G111" s="52"/>
-      <c r="H111" s="52"/>
-      <c r="I111" s="52"/>
-      <c r="J111" s="52"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="53"/>
+      <c r="D111" s="53"/>
+      <c r="E111" s="53"/>
+      <c r="F111" s="53"/>
+      <c r="G111" s="53"/>
+      <c r="H111" s="53"/>
+      <c r="I111" s="53"/>
+      <c r="J111" s="53"/>
     </row>
     <row r="112" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="52"/>
-      <c r="C112" s="52"/>
-      <c r="D112" s="52"/>
-      <c r="E112" s="52"/>
-      <c r="F112" s="52"/>
-      <c r="G112" s="52"/>
-      <c r="H112" s="52"/>
-      <c r="I112" s="52"/>
-      <c r="J112" s="52"/>
+      <c r="B112" s="53"/>
+      <c r="C112" s="53"/>
+      <c r="D112" s="53"/>
+      <c r="E112" s="53"/>
+      <c r="F112" s="53"/>
+      <c r="G112" s="53"/>
+      <c r="H112" s="53"/>
+      <c r="I112" s="53"/>
+      <c r="J112" s="53"/>
     </row>
     <row r="113" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="114" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8821,6 +8822,180 @@
     <row r="152" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="198">
+    <mergeCell ref="J60:J64"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="E60:E64"/>
+    <mergeCell ref="F60:F64"/>
+    <mergeCell ref="G60:G64"/>
+    <mergeCell ref="H60:H64"/>
+    <mergeCell ref="I60:I64"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="H35:H39"/>
+    <mergeCell ref="I35:I39"/>
+    <mergeCell ref="J35:J39"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="I25:I29"/>
+    <mergeCell ref="J25:J29"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="I65:I72"/>
+    <mergeCell ref="J65:J72"/>
+    <mergeCell ref="B2:G3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="I5:I9"/>
+    <mergeCell ref="J5:J9"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="I20:I24"/>
+    <mergeCell ref="J20:J24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="I15:I19"/>
+    <mergeCell ref="J15:J19"/>
+    <mergeCell ref="H40:H44"/>
+    <mergeCell ref="I40:I44"/>
+    <mergeCell ref="J40:J44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="E40:E44"/>
+    <mergeCell ref="F40:F44"/>
+    <mergeCell ref="G40:G44"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="F45:F49"/>
+    <mergeCell ref="G45:G49"/>
+    <mergeCell ref="H45:H49"/>
+    <mergeCell ref="I45:I49"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="E50:E54"/>
+    <mergeCell ref="F50:F54"/>
+    <mergeCell ref="G50:G54"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="D73:D77"/>
+    <mergeCell ref="E73:E77"/>
+    <mergeCell ref="F73:F77"/>
+    <mergeCell ref="G73:G77"/>
+    <mergeCell ref="H73:H77"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="E55:E59"/>
+    <mergeCell ref="F55:F59"/>
+    <mergeCell ref="G55:G59"/>
+    <mergeCell ref="B65:B72"/>
+    <mergeCell ref="C65:C72"/>
+    <mergeCell ref="D65:D72"/>
+    <mergeCell ref="E65:E72"/>
+    <mergeCell ref="F65:F72"/>
+    <mergeCell ref="G65:G72"/>
+    <mergeCell ref="H65:H72"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="E78:E82"/>
+    <mergeCell ref="F78:F82"/>
+    <mergeCell ref="G78:G82"/>
+    <mergeCell ref="H78:H82"/>
+    <mergeCell ref="I78:I82"/>
+    <mergeCell ref="J78:J82"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="C93:C97"/>
+    <mergeCell ref="D93:D97"/>
+    <mergeCell ref="E93:E97"/>
+    <mergeCell ref="F93:F97"/>
+    <mergeCell ref="G93:G97"/>
+    <mergeCell ref="H93:H97"/>
+    <mergeCell ref="I93:I97"/>
+    <mergeCell ref="H83:H87"/>
+    <mergeCell ref="I83:I87"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="D88:D92"/>
+    <mergeCell ref="E88:E92"/>
+    <mergeCell ref="F88:F92"/>
+    <mergeCell ref="G88:G92"/>
+    <mergeCell ref="H88:H92"/>
+    <mergeCell ref="B83:B87"/>
+    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="E83:E87"/>
+    <mergeCell ref="F83:F87"/>
+    <mergeCell ref="G83:G87"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="D98:D102"/>
+    <mergeCell ref="E98:E102"/>
+    <mergeCell ref="F98:F102"/>
+    <mergeCell ref="G98:G102"/>
+    <mergeCell ref="H98:H102"/>
+    <mergeCell ref="I98:I102"/>
+    <mergeCell ref="J98:J102"/>
+    <mergeCell ref="B108:B112"/>
+    <mergeCell ref="C108:C112"/>
+    <mergeCell ref="D108:D112"/>
+    <mergeCell ref="E108:E112"/>
+    <mergeCell ref="F108:F112"/>
+    <mergeCell ref="G108:G112"/>
+    <mergeCell ref="H108:H112"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="C103:C107"/>
+    <mergeCell ref="D103:D107"/>
+    <mergeCell ref="E103:E107"/>
+    <mergeCell ref="F103:F107"/>
+    <mergeCell ref="G103:G107"/>
     <mergeCell ref="N40:S40"/>
     <mergeCell ref="N50:Q50"/>
     <mergeCell ref="N51:Q51"/>
@@ -8845,180 +9020,6 @@
     <mergeCell ref="I50:I54"/>
     <mergeCell ref="J50:J54"/>
     <mergeCell ref="J45:J49"/>
-    <mergeCell ref="B108:B112"/>
-    <mergeCell ref="C108:C112"/>
-    <mergeCell ref="D108:D112"/>
-    <mergeCell ref="E108:E112"/>
-    <mergeCell ref="F108:F112"/>
-    <mergeCell ref="G108:G112"/>
-    <mergeCell ref="H108:H112"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="C103:C107"/>
-    <mergeCell ref="D103:D107"/>
-    <mergeCell ref="E103:E107"/>
-    <mergeCell ref="F103:F107"/>
-    <mergeCell ref="G103:G107"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="C98:C102"/>
-    <mergeCell ref="D98:D102"/>
-    <mergeCell ref="E98:E102"/>
-    <mergeCell ref="F98:F102"/>
-    <mergeCell ref="G98:G102"/>
-    <mergeCell ref="H98:H102"/>
-    <mergeCell ref="I98:I102"/>
-    <mergeCell ref="J98:J102"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="C93:C97"/>
-    <mergeCell ref="D93:D97"/>
-    <mergeCell ref="E93:E97"/>
-    <mergeCell ref="F93:F97"/>
-    <mergeCell ref="G93:G97"/>
-    <mergeCell ref="H93:H97"/>
-    <mergeCell ref="I93:I97"/>
-    <mergeCell ref="H83:H87"/>
-    <mergeCell ref="I83:I87"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="C88:C92"/>
-    <mergeCell ref="D88:D92"/>
-    <mergeCell ref="E88:E92"/>
-    <mergeCell ref="F88:F92"/>
-    <mergeCell ref="G88:G92"/>
-    <mergeCell ref="H88:H92"/>
-    <mergeCell ref="B83:B87"/>
-    <mergeCell ref="C83:C87"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="E83:E87"/>
-    <mergeCell ref="F83:F87"/>
-    <mergeCell ref="G83:G87"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="E78:E82"/>
-    <mergeCell ref="F78:F82"/>
-    <mergeCell ref="G78:G82"/>
-    <mergeCell ref="H78:H82"/>
-    <mergeCell ref="I78:I82"/>
-    <mergeCell ref="J78:J82"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="D73:D77"/>
-    <mergeCell ref="E73:E77"/>
-    <mergeCell ref="F73:F77"/>
-    <mergeCell ref="G73:G77"/>
-    <mergeCell ref="H73:H77"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="E55:E59"/>
-    <mergeCell ref="F55:F59"/>
-    <mergeCell ref="G55:G59"/>
-    <mergeCell ref="B65:B72"/>
-    <mergeCell ref="C65:C72"/>
-    <mergeCell ref="D65:D72"/>
-    <mergeCell ref="E65:E72"/>
-    <mergeCell ref="F65:F72"/>
-    <mergeCell ref="G65:G72"/>
-    <mergeCell ref="H65:H72"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="E45:E49"/>
-    <mergeCell ref="F45:F49"/>
-    <mergeCell ref="G45:G49"/>
-    <mergeCell ref="H45:H49"/>
-    <mergeCell ref="I45:I49"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="E50:E54"/>
-    <mergeCell ref="F50:F54"/>
-    <mergeCell ref="G50:G54"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="H40:H44"/>
-    <mergeCell ref="I40:I44"/>
-    <mergeCell ref="J40:J44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="E40:E44"/>
-    <mergeCell ref="F40:F44"/>
-    <mergeCell ref="G40:G44"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="I15:I19"/>
-    <mergeCell ref="J15:J19"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="E10:E14"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="H10:H14"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="J10:J14"/>
-    <mergeCell ref="I65:I72"/>
-    <mergeCell ref="J65:J72"/>
-    <mergeCell ref="B2:G3"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="I5:I9"/>
-    <mergeCell ref="J5:J9"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="I20:I24"/>
-    <mergeCell ref="J20:J24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="G25:G29"/>
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="I25:I29"/>
-    <mergeCell ref="J25:J29"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="F35:F39"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="H35:H39"/>
-    <mergeCell ref="I35:I39"/>
-    <mergeCell ref="J35:J39"/>
-    <mergeCell ref="J60:J64"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="D60:D64"/>
-    <mergeCell ref="E60:E64"/>
-    <mergeCell ref="F60:F64"/>
-    <mergeCell ref="G60:G64"/>
-    <mergeCell ref="H60:H64"/>
-    <mergeCell ref="I60:I64"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト仕様書.xlsx
+++ b/テスト仕様書.xlsx
@@ -3,20 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581B1423-FB44-4DF3-8D9F-274638E09DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C70377-115A-4F84-93B8-F7670FC21A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="野球チーム一覧サイト" sheetId="2" r:id="rId1"/>
-    <sheet name="ログインをする" sheetId="5" r:id="rId2"/>
+    <sheet name="SQL" sheetId="6" r:id="rId1"/>
+    <sheet name="野球チーム一覧サイト" sheetId="2" r:id="rId2"/>
+    <sheet name="ホテル検索" sheetId="7" r:id="rId3"/>
+    <sheet name="ホテル検索,デシジョンテーブル" sheetId="8" r:id="rId4"/>
+    <sheet name="ログインをする" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="182">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -2036,6 +2039,540 @@
     </rPh>
     <rPh sb="29" eb="30">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DROP TABLE IF EXISTS teams CASCADE;
+CREATE TABLE teams(
+	id serial primary key,
+	league_name text,
+	team_name text,
+	headquarters text,
+	inauguration text,
+	history text
+);
+INSERT INTO teams (league_name, team_name, headquarters, inauguration, history) VALUES
+('セントラル・リーグ','読売ジャイアンツ','東京ドーム（東京都・文京区）','1934年12月26日','大日本東京野球倶楽部（1934年）
+↓
+東京巨人軍（1935年〜1946年）
+↓
+読売ジャイアンツ（1947年〜）');
+INSERT INTO teams (league_name, team_name, headquarters, inauguration, history) VALUES
+('セントラル・リーグ','阪神タイガース','阪神甲子園球場（兵庫県・西宮市）','1935年12月10日','大阪タイガース（1935年〜1940年途）
+↓
+阪神軍（1940年途〜1946年）
+↓
+大阪タイガース（1947年〜1960年）→阪神タイガース（1961年〜）');
+INSERT INTO teams (league_name, team_name, headquarters, inauguration, history) VALUES
+('セントラル・リーグ','中日ドラゴンズ','ナゴヤドーム（愛知県・名古屋市東区）','1936年1月15日','名古屋軍（1936年〜1943年）
+↓
+産業軍（1944年）
+↓
+中部日本軍（1946年）
+↓
+中日ドラゴンズ（1947年〜1950年）
+↓
+名古屋ドラゴンズ（1951年〜1953年）
+↓
+中日ドラゴンズ（1954年〜）');
+INSERT INTO teams (league_name, team_name, headquarters, inauguration, history) VALUES
+('セントラル・リーグ','横浜DeNAベイスターズ','横浜スタジアム（神奈川県・横浜市中区）','1949年11月22日','大洋ホエールズ（1950年〜1952年）
+↓
+大洋松竹ロビンス（1953年〜1954年）
+↓
+大洋ホエールズ（1955年〜1977年）
+↓
+横浜大洋ホエールズ（1978年〜1992年）
+↓
+横浜ベイスターズ（1993年〜2011年）
+↓
+横浜DeNAベイスターズ（2012年〜）');
+INSERT INTO teams (league_name, team_name, headquarters, inauguration, history) VALUES
+('セントラル・リーグ','広島東洋カープ','MAZDA Zoom-Zoomスタジアム広島（広島県・広島市南区）','1949年12月15日','広島カープ（1950年〜1967年）
+↓
+広島東洋カープ（1968年〜）'),
+('セントラル・リーグ','東京ヤクルトスワローズ','明治神宮野球場（東京都・新宿区）','1950年1月12日','国鉄スワローズ（1950年〜1965年途）
+↓
+サンケイスワローズ（1965年途〜終了）
+↓
+サンケイアトムズ（1966年〜1968年）
+↓
+アトムズ（1969年）
+↓
+ヤクルトアトムズ（1970年〜1973年）
+↓
+ヤクルトスワローズ（1974年〜2005年）
+↓
+東京ヤクルトスワローズ（2006年〜）');
+DROP TABLE IF EXISTS hotels CASCADE;
+CREATE TABLE hotels(
+	id serial primary key,
+	area_name text,
+	hotel_name text,
+	address text,
+	nearest_station text,
+	price integer,
+	parking text
+);
+INSERT INTO hotels(area_name, hotel_name, address, nearest_station, price, parking) VALUES (
+'首都圏','横浜ベイホテル東急','神奈川県横浜市西区みなとみらい２－３－７','桜木町駅','10000','あり');
+INSERT INTO hotels(area_name, hotel_name, address, nearest_station, price, parking) VALUES (
+'首都圏','パレスホテル東京','東京都千代田区丸の内１丁目１−１','東京駅','20000','なし');
+INSERT INTO hotels(area_name, hotel_name, address, nearest_station, price, parking) VALUES (
+'首都圏','ホテルローズガーデン新宿','東京都新宿区西新宿８−１−３','西新宿駅','5000','あり');
+INSERT INTO hotels(area_name, hotel_name, address, nearest_station, price, parking) VALUES (
+'首都圏','渋谷エクセルホテル東急','東京都渋谷区道玄坂１−１２−２','渋谷駅','10000','なし');
+INSERT INTO hotels(area_name, hotel_name, address, nearest_station, price, parking) VALUES (
+'首都圏','東京ベイ舞浜ホテル','千葉県浦安市舞浜１−３４','舞浜駅','15000','あり');
+DROP TABLE IF EXISTS clothes CASCADE;
+CREATE TABLE clothes(
+	id serial primary key,
+	category text,
+	genre text,
+	gender integer,
+	color text,
+	price integer,
+	size text
+);
+INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('洋服','ジャケット',0,'赤',10000,'S');
+INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('洋服','パンツ　　',0,'白',20000,'M');
+INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('洋服','Ｔシャツ　',1,'青',5000,'M');
+INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('洋服','帽子　　　',1,'白',10000,'S');
+INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('洋服','ジャケット',0,'黄',15000,'L');
+INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('洋服','ワイシャツ　',1,'青',3500,'M');
+INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('洋服','スーツ　　　',1,'青',8000,'L');</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホテル検索サイト　ブラックボックステスト仕様書</t>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索画面を表示する</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索画面が表示されるか</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ブラウザが起動していること
+・SQLが実行されること</t>
+    <rPh sb="6" eb="8">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索結果を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>何も入力されていない場合</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ブラウザが起動していること
+・SQLが実行されること
+・検索画面が表示されていること</t>
+    <rPh sb="6" eb="8">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>ケンサクガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・何も入力せず検索ボタンを押す</t>
+    <rPh sb="1" eb="2">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>値段の入力(正常)</t>
+    <rPh sb="0" eb="2">
+      <t>ネダン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>値段の入力(異常, 文字列)</t>
+    <rPh sb="0" eb="2">
+      <t>ネダン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>値段の入力(異常, 負の値)</t>
+    <rPh sb="0" eb="2">
+      <t>ネダン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>値段の入力(正常, 空の入力)</t>
+    <rPh sb="0" eb="2">
+      <t>ネダン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正しい入力ではない</t>
+    <rPh sb="0" eb="1">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索結果が0件でした</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全件表示</t>
+    <rPh sb="0" eb="4">
+      <t>ゼンケンヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力した値段以下のものを表示</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ネダン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>値段の入力(正常, 検索結果なし)</t>
+    <rPh sb="0" eb="2">
+      <t>ネダン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・10000を入力して検索ボタンを押す</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正の値が入力される場合(検索結果あり)</t>
+    <rPh sb="0" eb="1">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正の値が入力される場合(検索結果なし)</t>
+    <rPh sb="0" eb="1">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・100を入力して検索ボタンを押す</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面の挙動
+異常系</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>負の値が入力される</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・-1を入力して検索ボタンを押す</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・正しい入力ではないのエラーメッセージが表示される</t>
+    <rPh sb="1" eb="2">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字列が入力される</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・aaaaを入力して検索ボタンを押す</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・http://localhost:8080/ex-intermediate/ex02にアクセスする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・画面が表示される</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ホテルの情報が全件(5件)高い順に表示されること</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゼンケン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・10000円以下のホテルの情報がすべて(3件)高い順に表示される</t>
+    <rPh sb="6" eb="7">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・検索結果が0件でしたのメッセージが表示される</t>
+    <rPh sb="1" eb="5">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2518,7 +3055,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2617,6 +3154,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2794,6 +3334,36 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3099,11 +3669,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08416EDA-BA60-4DD8-8C98-B8B7F123320A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="163.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="409.6" x14ac:dyDescent="0.15">
+      <c r="A1" s="95" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AC129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G14"/>
+    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.7" x14ac:dyDescent="0.15"/>
@@ -3125,36 +3719,36 @@
   <sheetData>
     <row r="1" spans="2:29" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
       <c r="H2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="67"/>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
       <c r="H3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="68">
+      <c r="I3" s="69">
         <v>44707</v>
       </c>
-      <c r="J3" s="58"/>
+      <c r="J3" s="59"/>
     </row>
     <row r="4" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="20" t="s">
@@ -3186,126 +3780,126 @@
       </c>
     </row>
     <row r="5" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="38"/>
     </row>
     <row r="8" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" spans="2:29" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
     </row>
     <row r="10" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
       <c r="M10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="41" t="s">
+      <c r="N10" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="44"/>
     </row>
     <row r="11" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="60"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="37"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38"/>
       <c r="M11" s="4" t="s">
         <v>11</v>
       </c>
@@ -3359,15 +3953,15 @@
       </c>
     </row>
     <row r="12" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="60"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="37"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
       <c r="M12" s="10" t="s">
         <v>20</v>
       </c>
@@ -3389,15 +3983,15 @@
       <c r="AC12" s="6"/>
     </row>
     <row r="13" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="60"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
       <c r="M13" s="4" t="s">
         <v>34</v>
       </c>
@@ -3451,15 +4045,15 @@
       </c>
     </row>
     <row r="14" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="61"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="37"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38"/>
       <c r="M14" s="4" t="s">
         <v>35</v>
       </c>
@@ -3513,15 +4107,15 @@
       </c>
     </row>
     <row r="15" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="37"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38"/>
       <c r="M15" s="4" t="s">
         <v>36</v>
       </c>
@@ -3575,15 +4169,15 @@
       </c>
     </row>
     <row r="16" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="37"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="38"/>
       <c r="M16" s="22" t="s">
         <v>37</v>
       </c>
@@ -3637,15 +4231,15 @@
       </c>
     </row>
     <row r="17" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38"/>
       <c r="M17" s="22" t="s">
         <v>38</v>
       </c>
@@ -3699,15 +4293,15 @@
       </c>
     </row>
     <row r="18" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="38"/>
       <c r="M18" s="22" t="s">
         <v>39</v>
       </c>
@@ -3761,15 +4355,15 @@
       </c>
     </row>
     <row r="19" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38"/>
       <c r="M19" s="22" t="s">
         <v>40</v>
       </c>
@@ -3823,27 +4417,27 @@
       </c>
     </row>
     <row r="20" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
       <c r="M20" s="11" t="s">
         <v>86</v>
       </c>
@@ -3897,15 +4491,15 @@
       </c>
     </row>
     <row r="21" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="37"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
       <c r="M21" s="22" t="s">
         <v>87</v>
       </c>
@@ -3959,15 +4553,15 @@
       </c>
     </row>
     <row r="22" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="37"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
       <c r="M22" s="22" t="s">
         <v>95</v>
       </c>
@@ -4021,15 +4615,15 @@
       </c>
     </row>
     <row r="23" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="37"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="38"/>
       <c r="M23" s="22" t="s">
         <v>94</v>
       </c>
@@ -4083,15 +4677,15 @@
       </c>
     </row>
     <row r="24" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="37"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38"/>
       <c r="M24" s="22" t="s">
         <v>97</v>
       </c>
@@ -4145,15 +4739,15 @@
       </c>
     </row>
     <row r="25" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="59"/>
       <c r="M25" s="22" t="s">
         <v>98</v>
       </c>
@@ -4207,15 +4801,15 @@
       </c>
     </row>
     <row r="26" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="58"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="59"/>
       <c r="M26" s="22" t="s">
         <v>42</v>
       </c>
@@ -4269,15 +4863,15 @@
       </c>
     </row>
     <row r="27" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="58"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="59"/>
       <c r="M27" s="13"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
@@ -4297,15 +4891,15 @@
       <c r="AC27" s="14"/>
     </row>
     <row r="28" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="58"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="59"/>
       <c r="M28" s="15" t="s">
         <v>21</v>
       </c>
@@ -4327,15 +4921,15 @@
       <c r="AC28" s="12"/>
     </row>
     <row r="29" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="35"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="58"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="59"/>
       <c r="M29" s="22" t="s">
         <v>43</v>
       </c>
@@ -4389,15 +4983,15 @@
       </c>
     </row>
     <row r="30" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="35"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="58"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="59"/>
       <c r="M30" s="22" t="s">
         <v>44</v>
       </c>
@@ -4451,15 +5045,15 @@
       </c>
     </row>
     <row r="31" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="58"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="59"/>
       <c r="M31" s="22" t="s">
         <v>88</v>
       </c>
@@ -4513,15 +5107,15 @@
       </c>
     </row>
     <row r="32" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="58"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="59"/>
       <c r="M32" s="22" t="s">
         <v>85</v>
       </c>
@@ -4575,15 +5169,15 @@
       </c>
     </row>
     <row r="33" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="58"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="59"/>
       <c r="M33" s="22" t="s">
         <v>45</v>
       </c>
@@ -4637,15 +5231,15 @@
       </c>
     </row>
     <row r="34" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="58"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="59"/>
       <c r="M34" s="22" t="s">
         <v>89</v>
       </c>
@@ -4699,15 +5293,15 @@
       </c>
     </row>
     <row r="35" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="35"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="58"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="59"/>
       <c r="M35" s="22" t="s">
         <v>46</v>
       </c>
@@ -4761,15 +5355,15 @@
       </c>
     </row>
     <row r="36" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="58"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="59"/>
       <c r="M36" s="22" t="s">
         <v>47</v>
       </c>
@@ -4823,15 +5417,15 @@
       </c>
     </row>
     <row r="37" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="35"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="58"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="59"/>
       <c r="M37" s="22" t="s">
         <v>90</v>
       </c>
@@ -4885,15 +5479,15 @@
       </c>
     </row>
     <row r="38" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="35"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="58"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="59"/>
       <c r="M38" s="22" t="s">
         <v>48</v>
       </c>
@@ -4947,15 +5541,15 @@
       </c>
     </row>
     <row r="39" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="35"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="58"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="59"/>
       <c r="M39" s="22" t="s">
         <v>96</v>
       </c>
@@ -5009,15 +5603,15 @@
       </c>
     </row>
     <row r="40" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="35"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="58"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="59"/>
       <c r="M40" s="22" t="s">
         <v>49</v>
       </c>
@@ -5071,15 +5665,15 @@
       </c>
     </row>
     <row r="41" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="35"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="58"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="59"/>
       <c r="M41" s="22" t="s">
         <v>91</v>
       </c>
@@ -5133,15 +5727,15 @@
       </c>
     </row>
     <row r="42" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="35"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="58"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="59"/>
       <c r="M42" s="10" t="s">
         <v>50</v>
       </c>
@@ -5195,15 +5789,15 @@
       </c>
     </row>
     <row r="43" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="35"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="58"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="59"/>
       <c r="M43" s="23" t="s">
         <v>51</v>
       </c>
@@ -5257,15 +5851,15 @@
       </c>
     </row>
     <row r="44" spans="2:29" s="1" customFormat="1" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="35"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="58"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="59"/>
       <c r="M44" s="2"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
@@ -5280,1213 +5874,1213 @@
       <c r="X44" s="7"/>
     </row>
     <row r="45" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="35"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="37"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="38"/>
       <c r="M45" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="N45" s="41"/>
-      <c r="O45" s="42"/>
-      <c r="P45" s="42"/>
-      <c r="Q45" s="42"/>
-      <c r="R45" s="42"/>
-      <c r="S45" s="42"/>
-      <c r="T45" s="42"/>
-      <c r="U45" s="42"/>
-      <c r="V45" s="42"/>
-      <c r="W45" s="42"/>
-      <c r="X45" s="42"/>
-      <c r="Y45" s="42"/>
-      <c r="Z45" s="42"/>
-      <c r="AA45" s="42"/>
-      <c r="AB45" s="42"/>
-      <c r="AC45" s="43"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="43"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="43"/>
+      <c r="U45" s="43"/>
+      <c r="V45" s="43"/>
+      <c r="W45" s="43"/>
+      <c r="X45" s="43"/>
+      <c r="Y45" s="43"/>
+      <c r="Z45" s="43"/>
+      <c r="AA45" s="43"/>
+      <c r="AB45" s="43"/>
+      <c r="AC45" s="44"/>
     </row>
     <row r="46" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="35"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="37"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="38"/>
       <c r="M46" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="N46" s="44" t="s">
+      <c r="N46" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="O46" s="44"/>
-      <c r="P46" s="44"/>
-      <c r="Q46" s="44"/>
-      <c r="R46" s="44"/>
-      <c r="S46" s="44"/>
-      <c r="T46" s="44"/>
-      <c r="U46" s="44"/>
-      <c r="V46" s="44"/>
-      <c r="W46" s="44"/>
-      <c r="X46" s="44"/>
-      <c r="Y46" s="44"/>
-      <c r="Z46" s="44"/>
-      <c r="AA46" s="44"/>
-      <c r="AB46" s="45"/>
-      <c r="AC46" s="46"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="45"/>
+      <c r="Q46" s="45"/>
+      <c r="R46" s="45"/>
+      <c r="S46" s="45"/>
+      <c r="T46" s="45"/>
+      <c r="U46" s="45"/>
+      <c r="V46" s="45"/>
+      <c r="W46" s="45"/>
+      <c r="X46" s="45"/>
+      <c r="Y46" s="45"/>
+      <c r="Z46" s="45"/>
+      <c r="AA46" s="45"/>
+      <c r="AB46" s="46"/>
+      <c r="AC46" s="47"/>
     </row>
     <row r="47" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="35"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="37"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
       <c r="M47" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="N47" s="47" t="s">
+      <c r="N47" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="O47" s="47"/>
-      <c r="P47" s="47"/>
-      <c r="Q47" s="47"/>
-      <c r="R47" s="47"/>
-      <c r="S47" s="47"/>
-      <c r="T47" s="47"/>
-      <c r="U47" s="47"/>
-      <c r="V47" s="47"/>
-      <c r="W47" s="47"/>
-      <c r="X47" s="47"/>
-      <c r="Y47" s="47"/>
-      <c r="Z47" s="47"/>
-      <c r="AA47" s="47"/>
-      <c r="AB47" s="48"/>
-      <c r="AC47" s="49"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="48"/>
+      <c r="Q47" s="48"/>
+      <c r="R47" s="48"/>
+      <c r="S47" s="48"/>
+      <c r="T47" s="48"/>
+      <c r="U47" s="48"/>
+      <c r="V47" s="48"/>
+      <c r="W47" s="48"/>
+      <c r="X47" s="48"/>
+      <c r="Y47" s="48"/>
+      <c r="Z47" s="48"/>
+      <c r="AA47" s="48"/>
+      <c r="AB47" s="49"/>
+      <c r="AC47" s="50"/>
     </row>
     <row r="48" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="35"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="37"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
       <c r="M48" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="N48" s="44" t="s">
+      <c r="N48" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="O48" s="44"/>
-      <c r="P48" s="44"/>
-      <c r="Q48" s="44"/>
-      <c r="R48" s="44"/>
-      <c r="S48" s="44"/>
-      <c r="T48" s="44"/>
-      <c r="U48" s="44"/>
-      <c r="V48" s="44"/>
-      <c r="W48" s="44"/>
-      <c r="X48" s="44"/>
-      <c r="Y48" s="44"/>
-      <c r="Z48" s="44"/>
-      <c r="AA48" s="44"/>
-      <c r="AB48" s="45"/>
-      <c r="AC48" s="46"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="45"/>
+      <c r="T48" s="45"/>
+      <c r="U48" s="45"/>
+      <c r="V48" s="45"/>
+      <c r="W48" s="45"/>
+      <c r="X48" s="45"/>
+      <c r="Y48" s="45"/>
+      <c r="Z48" s="45"/>
+      <c r="AA48" s="45"/>
+      <c r="AB48" s="46"/>
+      <c r="AC48" s="47"/>
     </row>
     <row r="49" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="35"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="37"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
       <c r="M49" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="N49" s="44" t="s">
+      <c r="N49" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="O49" s="44"/>
-      <c r="P49" s="44"/>
-      <c r="Q49" s="44"/>
-      <c r="R49" s="44"/>
-      <c r="S49" s="44"/>
-      <c r="T49" s="44"/>
-      <c r="U49" s="44"/>
-      <c r="V49" s="44"/>
-      <c r="W49" s="44"/>
-      <c r="X49" s="44"/>
-      <c r="Y49" s="44"/>
-      <c r="Z49" s="44"/>
-      <c r="AA49" s="44"/>
-      <c r="AB49" s="45"/>
-      <c r="AC49" s="46"/>
+      <c r="O49" s="45"/>
+      <c r="P49" s="45"/>
+      <c r="Q49" s="45"/>
+      <c r="R49" s="45"/>
+      <c r="S49" s="45"/>
+      <c r="T49" s="45"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
+      <c r="X49" s="45"/>
+      <c r="Y49" s="45"/>
+      <c r="Z49" s="45"/>
+      <c r="AA49" s="45"/>
+      <c r="AB49" s="46"/>
+      <c r="AC49" s="47"/>
     </row>
     <row r="50" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="35"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="37"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="38"/>
       <c r="M50" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="N50" s="44" t="s">
+      <c r="N50" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="O50" s="44"/>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="44"/>
-      <c r="S50" s="44"/>
-      <c r="T50" s="44"/>
-      <c r="U50" s="44"/>
-      <c r="V50" s="44"/>
-      <c r="W50" s="44"/>
-      <c r="X50" s="44"/>
-      <c r="Y50" s="44"/>
-      <c r="Z50" s="44"/>
-      <c r="AA50" s="44"/>
-      <c r="AB50" s="45"/>
-      <c r="AC50" s="46"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="45"/>
+      <c r="Q50" s="45"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="45"/>
+      <c r="T50" s="45"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
+      <c r="X50" s="45"/>
+      <c r="Y50" s="45"/>
+      <c r="Z50" s="45"/>
+      <c r="AA50" s="45"/>
+      <c r="AB50" s="46"/>
+      <c r="AC50" s="47"/>
     </row>
     <row r="51" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="35"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="37"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="38"/>
       <c r="M51" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="44" t="s">
+      <c r="N51" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="O51" s="44"/>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="44"/>
-      <c r="S51" s="44"/>
-      <c r="T51" s="44"/>
-      <c r="U51" s="44"/>
-      <c r="V51" s="44"/>
-      <c r="W51" s="44"/>
-      <c r="X51" s="44"/>
-      <c r="Y51" s="44"/>
-      <c r="Z51" s="44"/>
-      <c r="AA51" s="44"/>
-      <c r="AB51" s="45"/>
-      <c r="AC51" s="46"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="45"/>
+      <c r="Q51" s="45"/>
+      <c r="R51" s="45"/>
+      <c r="S51" s="45"/>
+      <c r="T51" s="45"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
+      <c r="X51" s="45"/>
+      <c r="Y51" s="45"/>
+      <c r="Z51" s="45"/>
+      <c r="AA51" s="45"/>
+      <c r="AB51" s="46"/>
+      <c r="AC51" s="47"/>
     </row>
     <row r="52" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="35"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="37"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="38"/>
       <c r="M52" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="N52" s="50" t="s">
+      <c r="N52" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="O52" s="50"/>
-      <c r="P52" s="50"/>
-      <c r="Q52" s="50"/>
-      <c r="R52" s="50"/>
-      <c r="S52" s="50"/>
-      <c r="T52" s="50"/>
-      <c r="U52" s="50"/>
-      <c r="V52" s="50"/>
-      <c r="W52" s="50"/>
-      <c r="X52" s="50"/>
-      <c r="Y52" s="50"/>
-      <c r="Z52" s="50"/>
-      <c r="AA52" s="50"/>
-      <c r="AB52" s="51"/>
-      <c r="AC52" s="52"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="51"/>
+      <c r="Q52" s="51"/>
+      <c r="R52" s="51"/>
+      <c r="S52" s="51"/>
+      <c r="T52" s="51"/>
+      <c r="U52" s="51"/>
+      <c r="V52" s="51"/>
+      <c r="W52" s="51"/>
+      <c r="X52" s="51"/>
+      <c r="Y52" s="51"/>
+      <c r="Z52" s="51"/>
+      <c r="AA52" s="51"/>
+      <c r="AB52" s="52"/>
+      <c r="AC52" s="53"/>
     </row>
     <row r="53" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="35"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="37"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="38"/>
       <c r="M53" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="N53" s="44" t="s">
+      <c r="N53" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="O53" s="44"/>
-      <c r="P53" s="44"/>
-      <c r="Q53" s="44"/>
-      <c r="R53" s="44"/>
-      <c r="S53" s="44"/>
-      <c r="T53" s="44"/>
-      <c r="U53" s="44"/>
-      <c r="V53" s="44"/>
-      <c r="W53" s="44"/>
-      <c r="X53" s="44"/>
-      <c r="Y53" s="44"/>
-      <c r="Z53" s="44"/>
-      <c r="AA53" s="44"/>
-      <c r="AB53" s="45"/>
-      <c r="AC53" s="46"/>
+      <c r="O53" s="45"/>
+      <c r="P53" s="45"/>
+      <c r="Q53" s="45"/>
+      <c r="R53" s="45"/>
+      <c r="S53" s="45"/>
+      <c r="T53" s="45"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
+      <c r="X53" s="45"/>
+      <c r="Y53" s="45"/>
+      <c r="Z53" s="45"/>
+      <c r="AA53" s="45"/>
+      <c r="AB53" s="46"/>
+      <c r="AC53" s="47"/>
     </row>
     <row r="54" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="35"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="37"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="38"/>
       <c r="M54" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="N54" s="50">
+      <c r="N54" s="51">
         <v>1234567</v>
       </c>
-      <c r="O54" s="50"/>
-      <c r="P54" s="50"/>
-      <c r="Q54" s="50"/>
-      <c r="R54" s="50"/>
-      <c r="S54" s="50"/>
-      <c r="T54" s="50"/>
-      <c r="U54" s="50"/>
-      <c r="V54" s="50"/>
-      <c r="W54" s="50"/>
-      <c r="X54" s="50"/>
-      <c r="Y54" s="50"/>
-      <c r="Z54" s="50"/>
-      <c r="AA54" s="50"/>
-      <c r="AB54" s="51"/>
-      <c r="AC54" s="52"/>
+      <c r="O54" s="51"/>
+      <c r="P54" s="51"/>
+      <c r="Q54" s="51"/>
+      <c r="R54" s="51"/>
+      <c r="S54" s="51"/>
+      <c r="T54" s="51"/>
+      <c r="U54" s="51"/>
+      <c r="V54" s="51"/>
+      <c r="W54" s="51"/>
+      <c r="X54" s="51"/>
+      <c r="Y54" s="51"/>
+      <c r="Z54" s="51"/>
+      <c r="AA54" s="51"/>
+      <c r="AB54" s="52"/>
+      <c r="AC54" s="53"/>
     </row>
     <row r="55" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="35"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="37"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="38"/>
       <c r="M55" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="N55" s="50" t="s">
+      <c r="N55" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="O55" s="50"/>
-      <c r="P55" s="50"/>
-      <c r="Q55" s="50"/>
-      <c r="R55" s="50"/>
-      <c r="S55" s="50"/>
-      <c r="T55" s="50"/>
-      <c r="U55" s="50"/>
-      <c r="V55" s="50"/>
-      <c r="W55" s="50"/>
-      <c r="X55" s="50"/>
-      <c r="Y55" s="50"/>
-      <c r="Z55" s="50"/>
-      <c r="AA55" s="50"/>
-      <c r="AB55" s="51"/>
-      <c r="AC55" s="52"/>
+      <c r="O55" s="51"/>
+      <c r="P55" s="51"/>
+      <c r="Q55" s="51"/>
+      <c r="R55" s="51"/>
+      <c r="S55" s="51"/>
+      <c r="T55" s="51"/>
+      <c r="U55" s="51"/>
+      <c r="V55" s="51"/>
+      <c r="W55" s="51"/>
+      <c r="X55" s="51"/>
+      <c r="Y55" s="51"/>
+      <c r="Z55" s="51"/>
+      <c r="AA55" s="51"/>
+      <c r="AB55" s="52"/>
+      <c r="AC55" s="53"/>
     </row>
     <row r="56" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="35"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="37"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
       <c r="M56" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="N56" s="44" t="s">
+      <c r="N56" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="O56" s="44"/>
-      <c r="P56" s="44"/>
-      <c r="Q56" s="44"/>
-      <c r="R56" s="44"/>
-      <c r="S56" s="44"/>
-      <c r="T56" s="44"/>
-      <c r="U56" s="44"/>
-      <c r="V56" s="44"/>
-      <c r="W56" s="44"/>
-      <c r="X56" s="44"/>
-      <c r="Y56" s="44"/>
-      <c r="Z56" s="44"/>
-      <c r="AA56" s="44"/>
-      <c r="AB56" s="45"/>
-      <c r="AC56" s="46"/>
+      <c r="O56" s="45"/>
+      <c r="P56" s="45"/>
+      <c r="Q56" s="45"/>
+      <c r="R56" s="45"/>
+      <c r="S56" s="45"/>
+      <c r="T56" s="45"/>
+      <c r="U56" s="45"/>
+      <c r="V56" s="45"/>
+      <c r="W56" s="45"/>
+      <c r="X56" s="45"/>
+      <c r="Y56" s="45"/>
+      <c r="Z56" s="45"/>
+      <c r="AA56" s="45"/>
+      <c r="AB56" s="46"/>
+      <c r="AC56" s="47"/>
     </row>
     <row r="57" spans="2:29" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B57" s="35"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="37"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38"/>
       <c r="M57" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="N57" s="38" t="s">
+      <c r="N57" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="O57" s="38"/>
-      <c r="P57" s="38"/>
-      <c r="Q57" s="38"/>
-      <c r="R57" s="38"/>
-      <c r="S57" s="38"/>
-      <c r="T57" s="38"/>
-      <c r="U57" s="38"/>
-      <c r="V57" s="38"/>
-      <c r="W57" s="38"/>
-      <c r="X57" s="38"/>
-      <c r="Y57" s="38"/>
-      <c r="Z57" s="38"/>
-      <c r="AA57" s="38"/>
-      <c r="AB57" s="39"/>
-      <c r="AC57" s="40"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="39"/>
+      <c r="R57" s="39"/>
+      <c r="S57" s="39"/>
+      <c r="T57" s="39"/>
+      <c r="U57" s="39"/>
+      <c r="V57" s="39"/>
+      <c r="W57" s="39"/>
+      <c r="X57" s="39"/>
+      <c r="Y57" s="39"/>
+      <c r="Z57" s="39"/>
+      <c r="AA57" s="39"/>
+      <c r="AB57" s="40"/>
+      <c r="AC57" s="41"/>
     </row>
     <row r="58" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="35"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="37"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38"/>
     </row>
     <row r="59" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="35"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="37"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="38"/>
     </row>
     <row r="60" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="35"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="37"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="38"/>
     </row>
     <row r="61" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="35"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="37"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="38"/>
     </row>
     <row r="62" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="35"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="37"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="38"/>
     </row>
     <row r="63" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="35"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="37"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="38"/>
     </row>
     <row r="64" spans="2:29" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="35"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="37"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="38"/>
     </row>
     <row r="65" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="35"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="37"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
     </row>
     <row r="66" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="35"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="37"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
     </row>
     <row r="67" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="35"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="37"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38"/>
     </row>
     <row r="68" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="35"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="37"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="38"/>
     </row>
     <row r="69" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="35"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="37"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="38"/>
     </row>
     <row r="70" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="35"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="37"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="38"/>
     </row>
     <row r="71" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="35"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="37"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="38"/>
     </row>
     <row r="72" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="35"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="37"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="38"/>
     </row>
     <row r="73" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="35"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="37"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="38"/>
     </row>
     <row r="74" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="35"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="37"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
     </row>
     <row r="75" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="35"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="37"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="38"/>
     </row>
     <row r="76" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="35"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="37"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="38"/>
     </row>
     <row r="77" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="35"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
-      <c r="J77" s="37"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="38"/>
     </row>
     <row r="78" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="35"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
-      <c r="J78" s="37"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="38"/>
     </row>
     <row r="79" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="35"/>
-      <c r="C79" s="36"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="37"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="38"/>
     </row>
     <row r="80" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="35"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="37"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="38"/>
     </row>
     <row r="81" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="35"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="36"/>
-      <c r="J81" s="37"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="38"/>
     </row>
     <row r="82" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="35"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="36"/>
-      <c r="J82" s="37"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="37"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="38"/>
     </row>
     <row r="83" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="35"/>
-      <c r="C83" s="36"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="36"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="37"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
     </row>
     <row r="84" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="35"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="36"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
-      <c r="J84" s="37"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="38"/>
     </row>
     <row r="85" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="35"/>
-      <c r="C85" s="36"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="36"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="37"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="38"/>
     </row>
     <row r="86" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="35"/>
-      <c r="C86" s="36"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
-      <c r="J86" s="37"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="38"/>
     </row>
     <row r="87" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="35"/>
-      <c r="C87" s="36"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="37"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="38"/>
     </row>
     <row r="88" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="35"/>
-      <c r="C88" s="36"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="37"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="38"/>
     </row>
     <row r="89" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="35"/>
-      <c r="C89" s="36"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="37"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="38"/>
     </row>
     <row r="90" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="35"/>
-      <c r="C90" s="36"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
-      <c r="J90" s="37"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="38"/>
     </row>
     <row r="91" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="35"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="37"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="38"/>
     </row>
     <row r="92" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="35"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="37"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
     </row>
     <row r="93" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="35"/>
-      <c r="C93" s="36"/>
-      <c r="D93" s="36"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="36"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
-      <c r="J93" s="37"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="38"/>
     </row>
     <row r="94" spans="2:10" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="56"/>
-      <c r="C94" s="54"/>
-      <c r="D94" s="54"/>
-      <c r="E94" s="54"/>
-      <c r="F94" s="54"/>
-      <c r="G94" s="54"/>
-      <c r="H94" s="54"/>
-      <c r="I94" s="54"/>
-      <c r="J94" s="55"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="55"/>
+      <c r="I94" s="55"/>
+      <c r="J94" s="56"/>
     </row>
     <row r="95" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="53"/>
-      <c r="C95" s="53"/>
-      <c r="D95" s="53"/>
-      <c r="E95" s="53"/>
-      <c r="F95" s="53"/>
-      <c r="G95" s="53"/>
-      <c r="H95" s="53"/>
-      <c r="I95" s="53"/>
-      <c r="J95" s="53"/>
+      <c r="B95" s="54"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="54"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="54"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="54"/>
+      <c r="J95" s="54"/>
     </row>
     <row r="96" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="53"/>
-      <c r="C96" s="53"/>
-      <c r="D96" s="53"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="53"/>
-      <c r="G96" s="53"/>
-      <c r="H96" s="53"/>
-      <c r="I96" s="53"/>
-      <c r="J96" s="53"/>
+      <c r="B96" s="54"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="54"/>
+      <c r="F96" s="54"/>
+      <c r="G96" s="54"/>
+      <c r="H96" s="54"/>
+      <c r="I96" s="54"/>
+      <c r="J96" s="54"/>
     </row>
     <row r="97" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="53"/>
-      <c r="C97" s="53"/>
-      <c r="D97" s="53"/>
-      <c r="E97" s="53"/>
-      <c r="F97" s="53"/>
-      <c r="G97" s="53"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="53"/>
-      <c r="J97" s="53"/>
+      <c r="B97" s="54"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="54"/>
+      <c r="F97" s="54"/>
+      <c r="G97" s="54"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="54"/>
+      <c r="J97" s="54"/>
     </row>
     <row r="98" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="53"/>
-      <c r="C98" s="53"/>
-      <c r="D98" s="53"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="53"/>
-      <c r="G98" s="53"/>
-      <c r="H98" s="53"/>
-      <c r="I98" s="53"/>
-      <c r="J98" s="53"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="54"/>
+      <c r="G98" s="54"/>
+      <c r="H98" s="54"/>
+      <c r="I98" s="54"/>
+      <c r="J98" s="54"/>
     </row>
     <row r="99" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="53"/>
-      <c r="C99" s="53"/>
-      <c r="D99" s="53"/>
-      <c r="E99" s="53"/>
-      <c r="F99" s="53"/>
-      <c r="G99" s="53"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="53"/>
-      <c r="J99" s="53"/>
+      <c r="B99" s="54"/>
+      <c r="C99" s="54"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="54"/>
+      <c r="F99" s="54"/>
+      <c r="G99" s="54"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="54"/>
+      <c r="J99" s="54"/>
     </row>
     <row r="100" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="53"/>
-      <c r="C100" s="53"/>
-      <c r="D100" s="53"/>
-      <c r="E100" s="53"/>
-      <c r="F100" s="53"/>
-      <c r="G100" s="53"/>
-      <c r="H100" s="53"/>
-      <c r="I100" s="53"/>
-      <c r="J100" s="53"/>
+      <c r="B100" s="54"/>
+      <c r="C100" s="54"/>
+      <c r="D100" s="54"/>
+      <c r="E100" s="54"/>
+      <c r="F100" s="54"/>
+      <c r="G100" s="54"/>
+      <c r="H100" s="54"/>
+      <c r="I100" s="54"/>
+      <c r="J100" s="54"/>
     </row>
     <row r="101" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="53"/>
-      <c r="C101" s="53"/>
-      <c r="D101" s="53"/>
-      <c r="E101" s="53"/>
-      <c r="F101" s="53"/>
-      <c r="G101" s="53"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="53"/>
-      <c r="J101" s="53"/>
+      <c r="B101" s="54"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="54"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="54"/>
+      <c r="H101" s="54"/>
+      <c r="I101" s="54"/>
+      <c r="J101" s="54"/>
     </row>
     <row r="102" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="53"/>
-      <c r="C102" s="53"/>
-      <c r="D102" s="53"/>
-      <c r="E102" s="53"/>
-      <c r="F102" s="53"/>
-      <c r="G102" s="53"/>
-      <c r="H102" s="53"/>
-      <c r="I102" s="53"/>
-      <c r="J102" s="53"/>
+      <c r="B102" s="54"/>
+      <c r="C102" s="54"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="54"/>
+      <c r="F102" s="54"/>
+      <c r="G102" s="54"/>
+      <c r="H102" s="54"/>
+      <c r="I102" s="54"/>
+      <c r="J102" s="54"/>
     </row>
     <row r="103" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="53"/>
-      <c r="C103" s="53"/>
-      <c r="D103" s="53"/>
-      <c r="E103" s="53"/>
-      <c r="F103" s="53"/>
-      <c r="G103" s="53"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="53"/>
-      <c r="J103" s="53"/>
+      <c r="B103" s="54"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="54"/>
+      <c r="F103" s="54"/>
+      <c r="G103" s="54"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="54"/>
+      <c r="J103" s="54"/>
     </row>
     <row r="104" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="53"/>
-      <c r="C104" s="53"/>
-      <c r="D104" s="53"/>
-      <c r="E104" s="53"/>
-      <c r="F104" s="53"/>
-      <c r="G104" s="53"/>
-      <c r="H104" s="53"/>
-      <c r="I104" s="53"/>
-      <c r="J104" s="53"/>
+      <c r="B104" s="54"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="54"/>
+      <c r="F104" s="54"/>
+      <c r="G104" s="54"/>
+      <c r="H104" s="54"/>
+      <c r="I104" s="54"/>
+      <c r="J104" s="54"/>
     </row>
     <row r="105" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="53"/>
-      <c r="C105" s="53"/>
-      <c r="D105" s="53"/>
-      <c r="E105" s="53"/>
-      <c r="F105" s="53"/>
-      <c r="G105" s="53"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="53"/>
-      <c r="J105" s="53"/>
+      <c r="B105" s="54"/>
+      <c r="C105" s="54"/>
+      <c r="D105" s="54"/>
+      <c r="E105" s="54"/>
+      <c r="F105" s="54"/>
+      <c r="G105" s="54"/>
+      <c r="H105" s="54"/>
+      <c r="I105" s="54"/>
+      <c r="J105" s="54"/>
     </row>
     <row r="106" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="53"/>
-      <c r="C106" s="53"/>
-      <c r="D106" s="53"/>
-      <c r="E106" s="53"/>
-      <c r="F106" s="53"/>
-      <c r="G106" s="53"/>
-      <c r="H106" s="53"/>
-      <c r="I106" s="53"/>
-      <c r="J106" s="53"/>
+      <c r="B106" s="54"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="54"/>
+      <c r="I106" s="54"/>
+      <c r="J106" s="54"/>
     </row>
     <row r="107" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="53"/>
-      <c r="C107" s="53"/>
-      <c r="D107" s="53"/>
-      <c r="E107" s="53"/>
-      <c r="F107" s="53"/>
-      <c r="G107" s="53"/>
-      <c r="H107" s="53"/>
-      <c r="I107" s="53"/>
-      <c r="J107" s="53"/>
+      <c r="B107" s="54"/>
+      <c r="C107" s="54"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="54"/>
+      <c r="F107" s="54"/>
+      <c r="G107" s="54"/>
+      <c r="H107" s="54"/>
+      <c r="I107" s="54"/>
+      <c r="J107" s="54"/>
     </row>
     <row r="108" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B108" s="53"/>
-      <c r="C108" s="53"/>
-      <c r="D108" s="53"/>
-      <c r="E108" s="53"/>
-      <c r="F108" s="53"/>
-      <c r="G108" s="53"/>
-      <c r="H108" s="53"/>
-      <c r="I108" s="53"/>
-      <c r="J108" s="53"/>
+      <c r="B108" s="54"/>
+      <c r="C108" s="54"/>
+      <c r="D108" s="54"/>
+      <c r="E108" s="54"/>
+      <c r="F108" s="54"/>
+      <c r="G108" s="54"/>
+      <c r="H108" s="54"/>
+      <c r="I108" s="54"/>
+      <c r="J108" s="54"/>
     </row>
     <row r="109" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B109" s="53"/>
-      <c r="C109" s="53"/>
-      <c r="D109" s="53"/>
-      <c r="E109" s="53"/>
-      <c r="F109" s="53"/>
-      <c r="G109" s="53"/>
-      <c r="H109" s="53"/>
-      <c r="I109" s="53"/>
-      <c r="J109" s="53"/>
+      <c r="B109" s="54"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="54"/>
+      <c r="F109" s="54"/>
+      <c r="G109" s="54"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="54"/>
+      <c r="J109" s="54"/>
     </row>
     <row r="110" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="53"/>
-      <c r="C110" s="53"/>
-      <c r="D110" s="53"/>
-      <c r="E110" s="53"/>
-      <c r="F110" s="53"/>
-      <c r="G110" s="53"/>
-      <c r="H110" s="53"/>
-      <c r="I110" s="53"/>
-      <c r="J110" s="53"/>
+      <c r="B110" s="54"/>
+      <c r="C110" s="54"/>
+      <c r="D110" s="54"/>
+      <c r="E110" s="54"/>
+      <c r="F110" s="54"/>
+      <c r="G110" s="54"/>
+      <c r="H110" s="54"/>
+      <c r="I110" s="54"/>
+      <c r="J110" s="54"/>
     </row>
     <row r="111" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="53"/>
-      <c r="C111" s="53"/>
-      <c r="D111" s="53"/>
-      <c r="E111" s="53"/>
-      <c r="F111" s="53"/>
-      <c r="G111" s="53"/>
-      <c r="H111" s="53"/>
-      <c r="I111" s="53"/>
-      <c r="J111" s="53"/>
+      <c r="B111" s="54"/>
+      <c r="C111" s="54"/>
+      <c r="D111" s="54"/>
+      <c r="E111" s="54"/>
+      <c r="F111" s="54"/>
+      <c r="G111" s="54"/>
+      <c r="H111" s="54"/>
+      <c r="I111" s="54"/>
+      <c r="J111" s="54"/>
     </row>
     <row r="112" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="53"/>
-      <c r="C112" s="53"/>
-      <c r="D112" s="53"/>
-      <c r="E112" s="53"/>
-      <c r="F112" s="53"/>
-      <c r="G112" s="53"/>
-      <c r="H112" s="53"/>
-      <c r="I112" s="53"/>
-      <c r="J112" s="53"/>
+      <c r="B112" s="54"/>
+      <c r="C112" s="54"/>
+      <c r="D112" s="54"/>
+      <c r="E112" s="54"/>
+      <c r="F112" s="54"/>
+      <c r="G112" s="54"/>
+      <c r="H112" s="54"/>
+      <c r="I112" s="54"/>
+      <c r="J112" s="54"/>
     </row>
     <row r="113" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="53"/>
-      <c r="C113" s="53"/>
-      <c r="D113" s="53"/>
-      <c r="E113" s="53"/>
-      <c r="F113" s="53"/>
-      <c r="G113" s="53"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="53"/>
-      <c r="J113" s="53"/>
+      <c r="B113" s="54"/>
+      <c r="C113" s="54"/>
+      <c r="D113" s="54"/>
+      <c r="E113" s="54"/>
+      <c r="F113" s="54"/>
+      <c r="G113" s="54"/>
+      <c r="H113" s="54"/>
+      <c r="I113" s="54"/>
+      <c r="J113" s="54"/>
     </row>
     <row r="114" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B114" s="53"/>
-      <c r="C114" s="53"/>
-      <c r="D114" s="53"/>
-      <c r="E114" s="53"/>
-      <c r="F114" s="53"/>
-      <c r="G114" s="53"/>
-      <c r="H114" s="53"/>
-      <c r="I114" s="53"/>
-      <c r="J114" s="53"/>
+      <c r="B114" s="54"/>
+      <c r="C114" s="54"/>
+      <c r="D114" s="54"/>
+      <c r="E114" s="54"/>
+      <c r="F114" s="54"/>
+      <c r="G114" s="54"/>
+      <c r="H114" s="54"/>
+      <c r="I114" s="54"/>
+      <c r="J114" s="54"/>
     </row>
     <row r="115" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="53"/>
-      <c r="C115" s="53"/>
-      <c r="D115" s="53"/>
-      <c r="E115" s="53"/>
-      <c r="F115" s="53"/>
-      <c r="G115" s="53"/>
-      <c r="H115" s="53"/>
-      <c r="I115" s="53"/>
-      <c r="J115" s="53"/>
+      <c r="B115" s="54"/>
+      <c r="C115" s="54"/>
+      <c r="D115" s="54"/>
+      <c r="E115" s="54"/>
+      <c r="F115" s="54"/>
+      <c r="G115" s="54"/>
+      <c r="H115" s="54"/>
+      <c r="I115" s="54"/>
+      <c r="J115" s="54"/>
     </row>
     <row r="116" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="53"/>
-      <c r="C116" s="53"/>
-      <c r="D116" s="53"/>
-      <c r="E116" s="53"/>
-      <c r="F116" s="53"/>
-      <c r="G116" s="53"/>
-      <c r="H116" s="53"/>
-      <c r="I116" s="53"/>
-      <c r="J116" s="53"/>
+      <c r="B116" s="54"/>
+      <c r="C116" s="54"/>
+      <c r="D116" s="54"/>
+      <c r="E116" s="54"/>
+      <c r="F116" s="54"/>
+      <c r="G116" s="54"/>
+      <c r="H116" s="54"/>
+      <c r="I116" s="54"/>
+      <c r="J116" s="54"/>
     </row>
     <row r="117" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="53"/>
-      <c r="C117" s="53"/>
-      <c r="D117" s="53"/>
-      <c r="E117" s="53"/>
-      <c r="F117" s="53"/>
-      <c r="G117" s="53"/>
-      <c r="H117" s="53"/>
-      <c r="I117" s="53"/>
-      <c r="J117" s="53"/>
+      <c r="B117" s="54"/>
+      <c r="C117" s="54"/>
+      <c r="D117" s="54"/>
+      <c r="E117" s="54"/>
+      <c r="F117" s="54"/>
+      <c r="G117" s="54"/>
+      <c r="H117" s="54"/>
+      <c r="I117" s="54"/>
+      <c r="J117" s="54"/>
     </row>
     <row r="118" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B118" s="53"/>
-      <c r="C118" s="53"/>
-      <c r="D118" s="53"/>
-      <c r="E118" s="53"/>
-      <c r="F118" s="53"/>
-      <c r="G118" s="53"/>
-      <c r="H118" s="53"/>
-      <c r="I118" s="53"/>
-      <c r="J118" s="53"/>
+      <c r="B118" s="54"/>
+      <c r="C118" s="54"/>
+      <c r="D118" s="54"/>
+      <c r="E118" s="54"/>
+      <c r="F118" s="54"/>
+      <c r="G118" s="54"/>
+      <c r="H118" s="54"/>
+      <c r="I118" s="54"/>
+      <c r="J118" s="54"/>
     </row>
     <row r="119" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B119" s="53"/>
-      <c r="C119" s="53"/>
-      <c r="D119" s="53"/>
-      <c r="E119" s="53"/>
-      <c r="F119" s="53"/>
-      <c r="G119" s="53"/>
-      <c r="H119" s="53"/>
-      <c r="I119" s="53"/>
-      <c r="J119" s="53"/>
+      <c r="B119" s="54"/>
+      <c r="C119" s="54"/>
+      <c r="D119" s="54"/>
+      <c r="E119" s="54"/>
+      <c r="F119" s="54"/>
+      <c r="G119" s="54"/>
+      <c r="H119" s="54"/>
+      <c r="I119" s="54"/>
+      <c r="J119" s="54"/>
     </row>
     <row r="120" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B120" s="53"/>
-      <c r="C120" s="53"/>
-      <c r="D120" s="53"/>
-      <c r="E120" s="53"/>
-      <c r="F120" s="53"/>
-      <c r="G120" s="53"/>
-      <c r="H120" s="53"/>
-      <c r="I120" s="53"/>
-      <c r="J120" s="53"/>
+      <c r="B120" s="54"/>
+      <c r="C120" s="54"/>
+      <c r="D120" s="54"/>
+      <c r="E120" s="54"/>
+      <c r="F120" s="54"/>
+      <c r="G120" s="54"/>
+      <c r="H120" s="54"/>
+      <c r="I120" s="54"/>
+      <c r="J120" s="54"/>
     </row>
     <row r="121" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B121" s="53"/>
-      <c r="C121" s="53"/>
-      <c r="D121" s="53"/>
-      <c r="E121" s="53"/>
-      <c r="F121" s="53"/>
-      <c r="G121" s="53"/>
-      <c r="H121" s="53"/>
-      <c r="I121" s="53"/>
-      <c r="J121" s="53"/>
+      <c r="B121" s="54"/>
+      <c r="C121" s="54"/>
+      <c r="D121" s="54"/>
+      <c r="E121" s="54"/>
+      <c r="F121" s="54"/>
+      <c r="G121" s="54"/>
+      <c r="H121" s="54"/>
+      <c r="I121" s="54"/>
+      <c r="J121" s="54"/>
     </row>
     <row r="122" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="53"/>
-      <c r="C122" s="53"/>
-      <c r="D122" s="53"/>
-      <c r="E122" s="53"/>
-      <c r="F122" s="53"/>
-      <c r="G122" s="53"/>
-      <c r="H122" s="53"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="53"/>
+      <c r="B122" s="54"/>
+      <c r="C122" s="54"/>
+      <c r="D122" s="54"/>
+      <c r="E122" s="54"/>
+      <c r="F122" s="54"/>
+      <c r="G122" s="54"/>
+      <c r="H122" s="54"/>
+      <c r="I122" s="54"/>
+      <c r="J122" s="54"/>
     </row>
     <row r="123" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="53"/>
-      <c r="C123" s="53"/>
-      <c r="D123" s="53"/>
-      <c r="E123" s="53"/>
-      <c r="F123" s="53"/>
-      <c r="G123" s="53"/>
-      <c r="H123" s="53"/>
-      <c r="I123" s="53"/>
-      <c r="J123" s="53"/>
+      <c r="B123" s="54"/>
+      <c r="C123" s="54"/>
+      <c r="D123" s="54"/>
+      <c r="E123" s="54"/>
+      <c r="F123" s="54"/>
+      <c r="G123" s="54"/>
+      <c r="H123" s="54"/>
+      <c r="I123" s="54"/>
+      <c r="J123" s="54"/>
     </row>
     <row r="124" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B124" s="53"/>
-      <c r="C124" s="53"/>
-      <c r="D124" s="53"/>
-      <c r="E124" s="53"/>
-      <c r="F124" s="53"/>
-      <c r="G124" s="53"/>
-      <c r="H124" s="53"/>
-      <c r="I124" s="53"/>
-      <c r="J124" s="53"/>
+      <c r="B124" s="54"/>
+      <c r="C124" s="54"/>
+      <c r="D124" s="54"/>
+      <c r="E124" s="54"/>
+      <c r="F124" s="54"/>
+      <c r="G124" s="54"/>
+      <c r="H124" s="54"/>
+      <c r="I124" s="54"/>
+      <c r="J124" s="54"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B125" s="53"/>
-      <c r="C125" s="53"/>
-      <c r="D125" s="53"/>
-      <c r="E125" s="53"/>
-      <c r="F125" s="53"/>
-      <c r="G125" s="53"/>
-      <c r="H125" s="53"/>
-      <c r="I125" s="53"/>
-      <c r="J125" s="53"/>
+      <c r="B125" s="54"/>
+      <c r="C125" s="54"/>
+      <c r="D125" s="54"/>
+      <c r="E125" s="54"/>
+      <c r="F125" s="54"/>
+      <c r="G125" s="54"/>
+      <c r="H125" s="54"/>
+      <c r="I125" s="54"/>
+      <c r="J125" s="54"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B126" s="53"/>
-      <c r="C126" s="53"/>
-      <c r="D126" s="53"/>
-      <c r="E126" s="53"/>
-      <c r="F126" s="53"/>
-      <c r="G126" s="53"/>
-      <c r="H126" s="53"/>
-      <c r="I126" s="53"/>
-      <c r="J126" s="53"/>
+      <c r="B126" s="54"/>
+      <c r="C126" s="54"/>
+      <c r="D126" s="54"/>
+      <c r="E126" s="54"/>
+      <c r="F126" s="54"/>
+      <c r="G126" s="54"/>
+      <c r="H126" s="54"/>
+      <c r="I126" s="54"/>
+      <c r="J126" s="54"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B127" s="53"/>
-      <c r="C127" s="53"/>
-      <c r="D127" s="53"/>
-      <c r="E127" s="53"/>
-      <c r="F127" s="53"/>
-      <c r="G127" s="53"/>
-      <c r="H127" s="53"/>
-      <c r="I127" s="53"/>
-      <c r="J127" s="53"/>
+      <c r="B127" s="54"/>
+      <c r="C127" s="54"/>
+      <c r="D127" s="54"/>
+      <c r="E127" s="54"/>
+      <c r="F127" s="54"/>
+      <c r="G127" s="54"/>
+      <c r="H127" s="54"/>
+      <c r="I127" s="54"/>
+      <c r="J127" s="54"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B128" s="53"/>
-      <c r="C128" s="53"/>
-      <c r="D128" s="53"/>
-      <c r="E128" s="53"/>
-      <c r="F128" s="53"/>
-      <c r="G128" s="53"/>
-      <c r="H128" s="53"/>
-      <c r="I128" s="53"/>
-      <c r="J128" s="53"/>
+      <c r="B128" s="54"/>
+      <c r="C128" s="54"/>
+      <c r="D128" s="54"/>
+      <c r="E128" s="54"/>
+      <c r="F128" s="54"/>
+      <c r="G128" s="54"/>
+      <c r="H128" s="54"/>
+      <c r="I128" s="54"/>
+      <c r="J128" s="54"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B129" s="53"/>
-      <c r="C129" s="53"/>
-      <c r="D129" s="53"/>
-      <c r="E129" s="53"/>
-      <c r="F129" s="53"/>
-      <c r="G129" s="53"/>
-      <c r="H129" s="53"/>
-      <c r="I129" s="53"/>
-      <c r="J129" s="53"/>
+      <c r="B129" s="54"/>
+      <c r="C129" s="54"/>
+      <c r="D129" s="54"/>
+      <c r="E129" s="54"/>
+      <c r="F129" s="54"/>
+      <c r="G129" s="54"/>
+      <c r="H129" s="54"/>
+      <c r="I129" s="54"/>
+      <c r="J129" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="241">
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
@@ -6514,7 +7108,6 @@
     <mergeCell ref="D10:D14"/>
     <mergeCell ref="E10:E14"/>
     <mergeCell ref="F10:F14"/>
-    <mergeCell ref="G10:G14"/>
     <mergeCell ref="H10:H14"/>
     <mergeCell ref="I10:I14"/>
     <mergeCell ref="J10:J14"/>
@@ -6736,7 +7329,2049 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F8DD60-2325-425B-AB65-3FB58FA5CFD7}">
+  <dimension ref="B1:J85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.7" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="34" style="7" customWidth="1"/>
+    <col min="6" max="6" width="48" style="7" customWidth="1"/>
+    <col min="7" max="7" width="53.77734375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="7" customWidth="1"/>
+    <col min="11" max="12" width="3.6640625" style="7" customWidth="1"/>
+    <col min="13" max="16384" width="8.6640625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="68"/>
+    </row>
+    <row r="3" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="69">
+        <v>44707</v>
+      </c>
+      <c r="J3" s="59"/>
+    </row>
+    <row r="4" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="38"/>
+    </row>
+    <row r="6" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
+    </row>
+    <row r="7" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="38"/>
+    </row>
+    <row r="8" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
+    </row>
+    <row r="9" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
+    </row>
+    <row r="10" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="60"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
+    </row>
+    <row r="11" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="61"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38"/>
+    </row>
+    <row r="12" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="61"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
+    </row>
+    <row r="13" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="61"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
+    </row>
+    <row r="14" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="62"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38"/>
+    </row>
+    <row r="15" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38"/>
+    </row>
+    <row r="16" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="38"/>
+    </row>
+    <row r="17" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38"/>
+    </row>
+    <row r="18" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="38"/>
+    </row>
+    <row r="19" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38"/>
+    </row>
+    <row r="20" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
+    </row>
+    <row r="21" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+    </row>
+    <row r="22" spans="2:10" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+    </row>
+    <row r="23" spans="2:10" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="38"/>
+    </row>
+    <row r="24" spans="2:10" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38"/>
+    </row>
+    <row r="25" spans="2:10" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="59"/>
+    </row>
+    <row r="26" spans="2:10" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="59"/>
+    </row>
+    <row r="27" spans="2:10" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="59"/>
+    </row>
+    <row r="28" spans="2:10" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="59"/>
+    </row>
+    <row r="29" spans="2:10" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="59"/>
+    </row>
+    <row r="30" spans="2:10" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="22"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="2:10" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="59"/>
+    </row>
+    <row r="32" spans="2:10" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="59"/>
+    </row>
+    <row r="33" spans="2:10" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="59"/>
+    </row>
+    <row r="34" spans="2:10" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="59"/>
+    </row>
+    <row r="35" spans="2:10" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="59"/>
+    </row>
+    <row r="36" spans="2:10" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="G36" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="59"/>
+    </row>
+    <row r="37" spans="2:10" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="36"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="59"/>
+    </row>
+    <row r="38" spans="2:10" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="59"/>
+    </row>
+    <row r="39" spans="2:10" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="59"/>
+    </row>
+    <row r="40" spans="2:10" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="59"/>
+    </row>
+    <row r="41" spans="2:10" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="59"/>
+    </row>
+    <row r="42" spans="2:10" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="59"/>
+    </row>
+    <row r="43" spans="2:10" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="59"/>
+    </row>
+    <row r="44" spans="2:10" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="59"/>
+    </row>
+    <row r="45" spans="2:10" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="59"/>
+    </row>
+    <row r="46" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="38"/>
+    </row>
+    <row r="47" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
+    </row>
+    <row r="48" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
+    </row>
+    <row r="49" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="36"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
+    </row>
+    <row r="50" spans="2:10" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="57"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="56"/>
+    </row>
+    <row r="51" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+    </row>
+    <row r="52" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+    </row>
+    <row r="53" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+    </row>
+    <row r="54" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+    </row>
+    <row r="55" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+    </row>
+    <row r="56" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
+    </row>
+    <row r="57" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
+    </row>
+    <row r="58" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
+    </row>
+    <row r="59" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+    </row>
+    <row r="60" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+    </row>
+    <row r="61" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="54"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+    </row>
+    <row r="62" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="54"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+    </row>
+    <row r="63" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+    </row>
+    <row r="64" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="54"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="54"/>
+    </row>
+    <row r="65" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="54"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
+    </row>
+    <row r="66" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="54"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="54"/>
+    </row>
+    <row r="67" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="54"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
+    </row>
+    <row r="68" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="54"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
+    </row>
+    <row r="69" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="54"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
+    </row>
+    <row r="70" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="54"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="54"/>
+    </row>
+    <row r="71" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="54"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="54"/>
+    </row>
+    <row r="72" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="54"/>
+    </row>
+    <row r="73" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="54"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="54"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="54"/>
+    </row>
+    <row r="74" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="54"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="54"/>
+    </row>
+    <row r="75" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="54"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="54"/>
+      <c r="H75" s="54"/>
+      <c r="I75" s="54"/>
+      <c r="J75" s="54"/>
+    </row>
+    <row r="76" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="54"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="54"/>
+    </row>
+    <row r="77" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="54"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="54"/>
+      <c r="J77" s="54"/>
+    </row>
+    <row r="78" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="54"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="54"/>
+    </row>
+    <row r="79" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="54"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="54"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="54"/>
+      <c r="H79" s="54"/>
+      <c r="I79" s="54"/>
+      <c r="J79" s="54"/>
+    </row>
+    <row r="80" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="54"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="54"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="54"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B81" s="54"/>
+      <c r="C81" s="54"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="54"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="54"/>
+      <c r="I81" s="54"/>
+      <c r="J81" s="54"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B82" s="54"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="54"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="54"/>
+      <c r="J82" s="54"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B83" s="54"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="54"/>
+      <c r="J83" s="54"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B84" s="54"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="54"/>
+      <c r="G84" s="54"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="54"/>
+      <c r="J84" s="54"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B85" s="54"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="54"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="54"/>
+      <c r="J85" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="147">
+    <mergeCell ref="I81:I85"/>
+    <mergeCell ref="J81:J85"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="H76:H80"/>
+    <mergeCell ref="I76:I80"/>
+    <mergeCell ref="J76:J80"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="E81:E85"/>
+    <mergeCell ref="F81:F85"/>
+    <mergeCell ref="G81:G85"/>
+    <mergeCell ref="H81:H85"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="D76:D80"/>
+    <mergeCell ref="E76:E80"/>
+    <mergeCell ref="F76:F80"/>
+    <mergeCell ref="G76:G80"/>
+    <mergeCell ref="J66:J70"/>
+    <mergeCell ref="B71:B75"/>
+    <mergeCell ref="C71:C75"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="E71:E75"/>
+    <mergeCell ref="F71:F75"/>
+    <mergeCell ref="G71:G75"/>
+    <mergeCell ref="H71:H75"/>
+    <mergeCell ref="I71:I75"/>
+    <mergeCell ref="J71:J75"/>
+    <mergeCell ref="I61:I65"/>
+    <mergeCell ref="J61:J65"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="C66:C70"/>
+    <mergeCell ref="D66:D70"/>
+    <mergeCell ref="E66:E70"/>
+    <mergeCell ref="F66:F70"/>
+    <mergeCell ref="G66:G70"/>
+    <mergeCell ref="H66:H70"/>
+    <mergeCell ref="I66:I70"/>
+    <mergeCell ref="H56:H60"/>
+    <mergeCell ref="I56:I60"/>
+    <mergeCell ref="J56:J60"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="D61:D65"/>
+    <mergeCell ref="E61:E65"/>
+    <mergeCell ref="F61:F65"/>
+    <mergeCell ref="G61:G65"/>
+    <mergeCell ref="H61:H65"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="E56:E60"/>
+    <mergeCell ref="F56:F60"/>
+    <mergeCell ref="G56:G60"/>
+    <mergeCell ref="J46:J50"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="E51:E55"/>
+    <mergeCell ref="F51:F55"/>
+    <mergeCell ref="G51:G55"/>
+    <mergeCell ref="H51:H55"/>
+    <mergeCell ref="I51:I55"/>
+    <mergeCell ref="J51:J55"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="E46:E50"/>
+    <mergeCell ref="F46:F50"/>
+    <mergeCell ref="G46:G50"/>
+    <mergeCell ref="H46:H50"/>
+    <mergeCell ref="I46:I50"/>
+    <mergeCell ref="H41:H45"/>
+    <mergeCell ref="I41:I45"/>
+    <mergeCell ref="J41:J45"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="D41:D45"/>
+    <mergeCell ref="E41:E45"/>
+    <mergeCell ref="F41:F45"/>
+    <mergeCell ref="G41:G45"/>
+    <mergeCell ref="J31:J35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="H36:H40"/>
+    <mergeCell ref="I36:I40"/>
+    <mergeCell ref="J36:J40"/>
+    <mergeCell ref="I25:I29"/>
+    <mergeCell ref="J25:J29"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="H31:H35"/>
+    <mergeCell ref="I31:I35"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="I20:I24"/>
+    <mergeCell ref="J20:J24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="I15:I19"/>
+    <mergeCell ref="J15:J19"/>
+    <mergeCell ref="I5:I9"/>
+    <mergeCell ref="J5:J9"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="B2:G3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="H5:H9"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA19842-3014-4A8F-9082-20603A7B1743}">
+  <dimension ref="A1:Q100"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.7" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="52.109375" style="7" customWidth="1"/>
+    <col min="2" max="16384" width="8.6640625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="44"/>
+    </row>
+    <row r="2" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="12"/>
+    </row>
+    <row r="5" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="12"/>
+    </row>
+    <row r="6" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="12"/>
+    </row>
+    <row r="7" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="12"/>
+    </row>
+    <row r="8" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="12"/>
+    </row>
+    <row r="9" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="22"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="12"/>
+    </row>
+    <row r="10" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="22"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="12"/>
+    </row>
+    <row r="11" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="22"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="12"/>
+    </row>
+    <row r="12" spans="1:17" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="14"/>
+    </row>
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="12"/>
+    </row>
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="12"/>
+    </row>
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="12"/>
+    </row>
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="22"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="12"/>
+    </row>
+    <row r="17" spans="1:17" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="22"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="12"/>
+    </row>
+    <row r="18" spans="1:17" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="12"/>
+    </row>
+    <row r="19" spans="1:17" s="1" customFormat="1" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="17"/>
+    </row>
+    <row r="20" spans="1:17" s="1" customFormat="1" ht="17.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="44"/>
+    </row>
+    <row r="22" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="98"/>
+    </row>
+    <row r="23" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="100"/>
+    </row>
+    <row r="24" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="97"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="98"/>
+    </row>
+    <row r="25" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="97"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="98"/>
+    </row>
+    <row r="26" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="98"/>
+    </row>
+    <row r="27" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="97"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="98"/>
+    </row>
+    <row r="28" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="101"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="101"/>
+      <c r="N28" s="101"/>
+      <c r="O28" s="101"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="102"/>
+    </row>
+    <row r="29" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="97"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="97"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="97"/>
+      <c r="O29" s="97"/>
+      <c r="P29" s="97"/>
+      <c r="Q29" s="98"/>
+    </row>
+    <row r="30" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="52">
+        <v>1234567</v>
+      </c>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="101"/>
+      <c r="M30" s="101"/>
+      <c r="N30" s="101"/>
+      <c r="O30" s="101"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="102"/>
+    </row>
+    <row r="31" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="101"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="102"/>
+    </row>
+    <row r="32" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="97"/>
+      <c r="M32" s="97"/>
+      <c r="N32" s="97"/>
+      <c r="O32" s="97"/>
+      <c r="P32" s="97"/>
+      <c r="Q32" s="98"/>
+    </row>
+    <row r="33" spans="1:17" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="104"/>
+    </row>
+    <row r="34" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B31:Q31"/>
+    <mergeCell ref="B32:Q32"/>
+    <mergeCell ref="B33:Q33"/>
+    <mergeCell ref="B26:Q26"/>
+    <mergeCell ref="B27:Q27"/>
+    <mergeCell ref="B28:Q28"/>
+    <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="B30:Q30"/>
+    <mergeCell ref="B21:Q21"/>
+    <mergeCell ref="B22:Q22"/>
+    <mergeCell ref="B23:Q23"/>
+    <mergeCell ref="B24:Q24"/>
+    <mergeCell ref="B25:Q25"/>
+    <mergeCell ref="B1:Q1"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AB152"/>
   <sheetViews>
@@ -6763,36 +9398,36 @@
   <sheetData>
     <row r="1" spans="2:28" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
       <c r="H2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="67"/>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
       <c r="H3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="68">
+      <c r="I3" s="69">
         <v>44707</v>
       </c>
-      <c r="J3" s="58"/>
+      <c r="J3" s="59"/>
     </row>
     <row r="4" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="20" t="s">
@@ -6824,94 +9459,94 @@
       </c>
     </row>
     <row r="5" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="92" t="s">
+      <c r="D5" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="38"/>
     </row>
     <row r="8" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
     </row>
     <row r="10" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="91" t="s">
+      <c r="E10" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
@@ -6923,15 +9558,15 @@
       <c r="AB10" s="1"/>
     </row>
     <row r="11" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="37"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
@@ -6943,15 +9578,15 @@
       <c r="AB11" s="1"/>
     </row>
     <row r="12" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="37"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -6963,15 +9598,15 @@
       <c r="AB12" s="1"/>
     </row>
     <row r="13" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="35"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -6983,38 +9618,38 @@
       <c r="AB13" s="1"/>
     </row>
     <row r="14" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="37"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38"/>
     </row>
     <row r="15" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="91" t="s">
+      <c r="E15" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
@@ -7026,15 +9661,15 @@
       <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="37"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="38"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -7046,15 +9681,15 @@
       <c r="AB16" s="1"/>
     </row>
     <row r="17" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38"/>
       <c r="M17" s="2"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -7067,15 +9702,15 @@
       <c r="AB17" s="1"/>
     </row>
     <row r="18" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="38"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
@@ -7087,38 +9722,38 @@
       <c r="AB18" s="1"/>
     </row>
     <row r="19" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38"/>
     </row>
     <row r="20" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="85" t="s">
+      <c r="D20" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="91" t="s">
+      <c r="E20" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
@@ -7130,15 +9765,15 @@
       <c r="AB20" s="1"/>
     </row>
     <row r="21" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="37"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -7150,15 +9785,15 @@
       <c r="AB21" s="1"/>
     </row>
     <row r="22" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="37"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
@@ -7170,15 +9805,15 @@
       <c r="AB22" s="1"/>
     </row>
     <row r="23" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="37"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="38"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
@@ -7190,38 +9825,38 @@
       <c r="AB23" s="1"/>
     </row>
     <row r="24" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="37"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38"/>
     </row>
     <row r="25" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="85" t="s">
+      <c r="D25" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="91" t="s">
+      <c r="E25" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
@@ -7233,15 +9868,15 @@
       <c r="AB25" s="1"/>
     </row>
     <row r="26" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="38"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
@@ -7253,15 +9888,15 @@
       <c r="AB26" s="1"/>
     </row>
     <row r="27" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="37"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="38"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
@@ -7273,15 +9908,15 @@
       <c r="AB27" s="1"/>
     </row>
     <row r="28" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="37"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="38"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
@@ -7293,38 +9928,38 @@
       <c r="AB28" s="1"/>
     </row>
     <row r="29" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="35"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="37"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="85" t="s">
+      <c r="D30" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="91" t="s">
+      <c r="E30" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="G30" s="36" t="s">
+      <c r="G30" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
@@ -7336,15 +9971,15 @@
       <c r="AB30" s="1"/>
     </row>
     <row r="31" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="37"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
@@ -7356,15 +9991,15 @@
       <c r="AB31" s="1"/>
     </row>
     <row r="32" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="37"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="38"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
@@ -7376,15 +10011,15 @@
       <c r="AB32" s="1"/>
     </row>
     <row r="33" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="37"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="38"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
@@ -7396,38 +10031,38 @@
       <c r="AB33" s="1"/>
     </row>
     <row r="34" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="37"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="38"/>
     </row>
     <row r="35" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="85" t="s">
+      <c r="D35" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="E35" s="91" t="s">
+      <c r="E35" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="36" t="s">
+      <c r="F35" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="G35" s="36" t="s">
+      <c r="G35" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="38"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
@@ -7439,15 +10074,15 @@
       <c r="AB35" s="1"/>
     </row>
     <row r="36" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="37"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="38"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
@@ -7459,15 +10094,15 @@
       <c r="AB36" s="1"/>
     </row>
     <row r="37" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="35"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="37"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="38"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
@@ -7479,15 +10114,15 @@
       <c r="AB37" s="1"/>
     </row>
     <row r="38" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="35"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="37"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
@@ -7499,60 +10134,60 @@
       <c r="AB38" s="1"/>
     </row>
     <row r="39" spans="2:28" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="35"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="37"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
     </row>
     <row r="40" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="D40" s="85" t="s">
+      <c r="D40" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="91" t="s">
+      <c r="E40" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="F40" s="36" t="s">
+      <c r="F40" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="G40" s="36" t="s">
+      <c r="G40" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="59"/>
       <c r="M40" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N40" s="66" t="s">
+      <c r="N40" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="O40" s="66"/>
-      <c r="P40" s="66"/>
-      <c r="Q40" s="66"/>
-      <c r="R40" s="66"/>
-      <c r="S40" s="67"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="67"/>
+      <c r="Q40" s="67"/>
+      <c r="R40" s="67"/>
+      <c r="S40" s="68"/>
     </row>
     <row r="41" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="35"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="58"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="59"/>
       <c r="M41" s="4" t="s">
         <v>11</v>
       </c>
@@ -7576,15 +10211,15 @@
       </c>
     </row>
     <row r="42" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="35"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="58"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="59"/>
       <c r="M42" s="10" t="s">
         <v>20</v>
       </c>
@@ -7596,15 +10231,15 @@
       <c r="S42" s="12"/>
     </row>
     <row r="43" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="35"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="58"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="59"/>
       <c r="M43" s="26" t="s">
         <v>61</v>
       </c>
@@ -7626,15 +10261,15 @@
       <c r="S43" s="12"/>
     </row>
     <row r="44" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="35"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="58"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="86"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="59"/>
       <c r="M44" s="26" t="s">
         <v>68</v>
       </c>
@@ -7656,27 +10291,27 @@
       <c r="S44" s="12"/>
     </row>
     <row r="45" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="C45" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="85" t="s">
+      <c r="D45" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E45" s="91" t="s">
+      <c r="E45" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="F45" s="36" t="s">
+      <c r="F45" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="G45" s="92" t="s">
+      <c r="G45" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="38"/>
       <c r="M45" s="26" t="s">
         <v>117</v>
       </c>
@@ -7698,15 +10333,15 @@
       <c r="S45" s="12"/>
     </row>
     <row r="46" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="35"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="37"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="93"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="38"/>
       <c r="M46" s="27" t="s">
         <v>118</v>
       </c>
@@ -7728,72 +10363,72 @@
       <c r="S46" s="17"/>
     </row>
     <row r="47" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="35"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="92"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="37"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="93"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
       <c r="M47" s="2"/>
     </row>
     <row r="48" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="35"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="37"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="86"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
       <c r="M48" s="2"/>
     </row>
     <row r="49" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="35"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="92"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="37"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
       <c r="M49" s="2"/>
     </row>
     <row r="50" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="85" t="s">
+      <c r="D50" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="E50" s="91" t="s">
+      <c r="E50" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="F50" s="36" t="s">
+      <c r="F50" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="G50" s="92" t="s">
+      <c r="G50" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="38"/>
       <c r="M50" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="N50" s="69" t="s">
+      <c r="N50" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="O50" s="70"/>
-      <c r="P50" s="70"/>
-      <c r="Q50" s="71"/>
+      <c r="O50" s="71"/>
+      <c r="P50" s="71"/>
+      <c r="Q50" s="72"/>
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
       <c r="V50" s="7"/>
@@ -7801,24 +10436,24 @@
       <c r="X50" s="7"/>
     </row>
     <row r="51" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="35"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="92"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="37"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="93"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="38"/>
       <c r="M51" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="N51" s="72" t="s">
+      <c r="N51" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="O51" s="73"/>
-      <c r="P51" s="73"/>
-      <c r="Q51" s="74"/>
+      <c r="O51" s="74"/>
+      <c r="P51" s="74"/>
+      <c r="Q51" s="75"/>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
@@ -7830,24 +10465,24 @@
       <c r="AB51" s="7"/>
     </row>
     <row r="52" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="35"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="92"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="37"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="86"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="93"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="38"/>
       <c r="M52" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="N52" s="75" t="s">
+      <c r="N52" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="O52" s="76"/>
-      <c r="P52" s="76"/>
-      <c r="Q52" s="77"/>
+      <c r="O52" s="77"/>
+      <c r="P52" s="77"/>
+      <c r="Q52" s="78"/>
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
       <c r="V52" s="7"/>
@@ -7859,24 +10494,24 @@
       <c r="AB52" s="7"/>
     </row>
     <row r="53" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="35"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="92"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="37"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="93"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="38"/>
       <c r="M53" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="N53" s="72" t="s">
+      <c r="N53" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="O53" s="73"/>
-      <c r="P53" s="73"/>
-      <c r="Q53" s="74"/>
+      <c r="O53" s="74"/>
+      <c r="P53" s="74"/>
+      <c r="Q53" s="75"/>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
@@ -7888,24 +10523,24 @@
       <c r="AB53" s="7"/>
     </row>
     <row r="54" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="35"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="92"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="37"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="93"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="38"/>
       <c r="M54" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="N54" s="78">
+      <c r="N54" s="79">
         <v>87654321</v>
       </c>
-      <c r="O54" s="79"/>
-      <c r="P54" s="79"/>
-      <c r="Q54" s="80"/>
+      <c r="O54" s="80"/>
+      <c r="P54" s="80"/>
+      <c r="Q54" s="81"/>
       <c r="T54" s="7"/>
       <c r="U54" s="7"/>
       <c r="V54" s="7"/>
@@ -7917,27 +10552,27 @@
       <c r="AB54" s="7"/>
     </row>
     <row r="55" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="82" t="s">
+      <c r="C55" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="D55" s="85" t="s">
+      <c r="D55" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="91" t="s">
+      <c r="E55" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="F55" s="36" t="s">
+      <c r="F55" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="G55" s="92" t="s">
+      <c r="G55" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="38"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
       <c r="O55" s="7"/>
@@ -7956,15 +10591,15 @@
       <c r="AB55" s="7"/>
     </row>
     <row r="56" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="60"/>
-      <c r="C56" s="83"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="92"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="37"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="86"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="93"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
       <c r="O56" s="7"/>
@@ -7983,15 +10618,15 @@
       <c r="AB56" s="7"/>
     </row>
     <row r="57" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="60"/>
-      <c r="C57" s="83"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="92"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="37"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="86"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="93"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38"/>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
@@ -8010,15 +10645,15 @@
       <c r="AB57" s="7"/>
     </row>
     <row r="58" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="60"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="92"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="37"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="93"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38"/>
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
       <c r="O58" s="7"/>
@@ -8037,15 +10672,15 @@
       <c r="AB58" s="7"/>
     </row>
     <row r="59" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="61"/>
-      <c r="C59" s="90"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="92"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="37"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="93"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="38"/>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
@@ -8064,27 +10699,27 @@
       <c r="AB59" s="7"/>
     </row>
     <row r="60" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="35" t="s">
+      <c r="B60" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="82" t="s">
+      <c r="C60" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="D60" s="85" t="s">
+      <c r="D60" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="E60" s="91" t="s">
+      <c r="E60" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="F60" s="36" t="s">
+      <c r="F60" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="G60" s="92" t="s">
+      <c r="G60" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="38"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
       <c r="O60" s="7"/>
@@ -8103,15 +10738,15 @@
       <c r="AB60" s="7"/>
     </row>
     <row r="61" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="60"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="92"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="37"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="93"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="38"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
       <c r="O61" s="7"/>
@@ -8130,15 +10765,15 @@
       <c r="AB61" s="7"/>
     </row>
     <row r="62" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="60"/>
-      <c r="C62" s="83"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="92"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="37"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="93"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="38"/>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
       <c r="O62" s="7"/>
@@ -8157,15 +10792,15 @@
       <c r="AB62" s="7"/>
     </row>
     <row r="63" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="60"/>
-      <c r="C63" s="83"/>
-      <c r="D63" s="85"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="92"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="37"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="86"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="93"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="38"/>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
       <c r="O63" s="7"/>
@@ -8184,15 +10819,15 @@
       <c r="AB63" s="7"/>
     </row>
     <row r="64" spans="2:28" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="61"/>
-      <c r="C64" s="90"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="92"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="37"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="86"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="93"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="38"/>
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
@@ -8211,93 +10846,93 @@
       <c r="AB64" s="7"/>
     </row>
     <row r="65" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="36" t="s">
+      <c r="C65" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D65" s="85" t="s">
+      <c r="D65" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="E65" s="87" t="s">
+      <c r="E65" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="F65" s="36" t="s">
+      <c r="F65" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="G65" s="36" t="s">
+      <c r="G65" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
     </row>
     <row r="66" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="35"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="85"/>
-      <c r="E66" s="88"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="37"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="86"/>
+      <c r="E66" s="89"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
     </row>
     <row r="67" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="35"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="85"/>
-      <c r="E67" s="88"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="37"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="86"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38"/>
     </row>
     <row r="68" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="35"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="85"/>
-      <c r="E68" s="88"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="37"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="86"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="38"/>
     </row>
     <row r="69" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="35"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="85"/>
-      <c r="E69" s="88"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="37"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="86"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="38"/>
     </row>
     <row r="70" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="35"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="85"/>
-      <c r="E70" s="88"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="37"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="86"/>
+      <c r="E70" s="89"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="38"/>
     </row>
     <row r="71" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="35"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="85"/>
-      <c r="E71" s="88"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="37"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="86"/>
+      <c r="E71" s="89"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="38"/>
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
       <c r="V71" s="1"/>
@@ -8309,15 +10944,15 @@
       <c r="AB71" s="1"/>
     </row>
     <row r="72" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="35"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="85"/>
-      <c r="E72" s="93"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="37"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="86"/>
+      <c r="E72" s="94"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="38"/>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
@@ -8329,456 +10964,456 @@
       <c r="AB72" s="1"/>
     </row>
     <row r="73" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="35" t="s">
+      <c r="B73" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="82" t="s">
+      <c r="C73" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="D73" s="85" t="s">
+      <c r="D73" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="E73" s="87" t="s">
+      <c r="E73" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="F73" s="36" t="s">
+      <c r="F73" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="G73" s="36" t="s">
+      <c r="G73" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="38"/>
     </row>
     <row r="74" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="60"/>
-      <c r="C74" s="83"/>
-      <c r="D74" s="85"/>
-      <c r="E74" s="88"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="37"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="84"/>
+      <c r="D74" s="86"/>
+      <c r="E74" s="89"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
     </row>
     <row r="75" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="60"/>
-      <c r="C75" s="83"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="88"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="37"/>
+      <c r="B75" s="61"/>
+      <c r="C75" s="84"/>
+      <c r="D75" s="86"/>
+      <c r="E75" s="89"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="38"/>
     </row>
     <row r="76" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="60"/>
-      <c r="C76" s="83"/>
-      <c r="D76" s="85"/>
-      <c r="E76" s="88"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="37"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="84"/>
+      <c r="D76" s="86"/>
+      <c r="E76" s="89"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="38"/>
     </row>
     <row r="77" spans="2:28" ht="17.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="81"/>
-      <c r="C77" s="84"/>
-      <c r="D77" s="86"/>
-      <c r="E77" s="89"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="54"/>
-      <c r="J77" s="55"/>
+      <c r="B77" s="82"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="87"/>
+      <c r="E77" s="90"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="55"/>
+      <c r="J77" s="56"/>
     </row>
     <row r="78" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="53"/>
-      <c r="C78" s="53"/>
-      <c r="D78" s="53"/>
-      <c r="E78" s="53"/>
-      <c r="F78" s="53"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="53"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="54"/>
     </row>
     <row r="79" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="53"/>
-      <c r="E79" s="53"/>
-      <c r="F79" s="53"/>
-      <c r="G79" s="53"/>
-      <c r="H79" s="53"/>
-      <c r="I79" s="53"/>
-      <c r="J79" s="53"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="54"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="54"/>
+      <c r="H79" s="54"/>
+      <c r="I79" s="54"/>
+      <c r="J79" s="54"/>
     </row>
     <row r="80" spans="2:28" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="53"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="53"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="53"/>
+      <c r="B80" s="54"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="54"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="54"/>
     </row>
     <row r="81" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="53"/>
-      <c r="C81" s="53"/>
-      <c r="D81" s="53"/>
-      <c r="E81" s="53"/>
-      <c r="F81" s="53"/>
-      <c r="G81" s="53"/>
-      <c r="H81" s="53"/>
-      <c r="I81" s="53"/>
-      <c r="J81" s="53"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="54"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="54"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="54"/>
+      <c r="I81" s="54"/>
+      <c r="J81" s="54"/>
     </row>
     <row r="82" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="53"/>
-      <c r="C82" s="53"/>
-      <c r="D82" s="53"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="53"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="53"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="54"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="54"/>
+      <c r="J82" s="54"/>
     </row>
     <row r="83" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="53"/>
-      <c r="C83" s="53"/>
-      <c r="D83" s="53"/>
-      <c r="E83" s="53"/>
-      <c r="F83" s="53"/>
-      <c r="G83" s="53"/>
-      <c r="H83" s="53"/>
-      <c r="I83" s="53"/>
-      <c r="J83" s="53"/>
+      <c r="B83" s="54"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="54"/>
+      <c r="J83" s="54"/>
     </row>
     <row r="84" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="53"/>
-      <c r="C84" s="53"/>
-      <c r="D84" s="53"/>
-      <c r="E84" s="53"/>
-      <c r="F84" s="53"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="53"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="54"/>
+      <c r="G84" s="54"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="54"/>
+      <c r="J84" s="54"/>
     </row>
     <row r="85" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="53"/>
-      <c r="C85" s="53"/>
-      <c r="D85" s="53"/>
-      <c r="E85" s="53"/>
-      <c r="F85" s="53"/>
-      <c r="G85" s="53"/>
-      <c r="H85" s="53"/>
-      <c r="I85" s="53"/>
-      <c r="J85" s="53"/>
+      <c r="B85" s="54"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="54"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="54"/>
+      <c r="J85" s="54"/>
     </row>
     <row r="86" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="53"/>
-      <c r="C86" s="53"/>
-      <c r="D86" s="53"/>
-      <c r="E86" s="53"/>
-      <c r="F86" s="53"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="53"/>
+      <c r="B86" s="54"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="54"/>
+      <c r="F86" s="54"/>
+      <c r="G86" s="54"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="54"/>
+      <c r="J86" s="54"/>
     </row>
     <row r="87" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="53"/>
-      <c r="C87" s="53"/>
-      <c r="D87" s="53"/>
-      <c r="E87" s="53"/>
-      <c r="F87" s="53"/>
-      <c r="G87" s="53"/>
-      <c r="H87" s="53"/>
-      <c r="I87" s="53"/>
-      <c r="J87" s="53"/>
+      <c r="B87" s="54"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="54"/>
+      <c r="F87" s="54"/>
+      <c r="G87" s="54"/>
+      <c r="H87" s="54"/>
+      <c r="I87" s="54"/>
+      <c r="J87" s="54"/>
     </row>
     <row r="88" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="53"/>
-      <c r="C88" s="53"/>
-      <c r="D88" s="53"/>
-      <c r="E88" s="53"/>
-      <c r="F88" s="53"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="53"/>
+      <c r="B88" s="54"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="54"/>
+      <c r="F88" s="54"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="54"/>
+      <c r="I88" s="54"/>
+      <c r="J88" s="54"/>
     </row>
     <row r="89" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="53"/>
-      <c r="C89" s="53"/>
-      <c r="D89" s="53"/>
-      <c r="E89" s="53"/>
-      <c r="F89" s="53"/>
-      <c r="G89" s="53"/>
-      <c r="H89" s="53"/>
-      <c r="I89" s="53"/>
-      <c r="J89" s="53"/>
+      <c r="B89" s="54"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="54"/>
+      <c r="E89" s="54"/>
+      <c r="F89" s="54"/>
+      <c r="G89" s="54"/>
+      <c r="H89" s="54"/>
+      <c r="I89" s="54"/>
+      <c r="J89" s="54"/>
     </row>
     <row r="90" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="53"/>
-      <c r="C90" s="53"/>
-      <c r="D90" s="53"/>
-      <c r="E90" s="53"/>
-      <c r="F90" s="53"/>
-      <c r="G90" s="53"/>
-      <c r="H90" s="53"/>
-      <c r="I90" s="53"/>
-      <c r="J90" s="53"/>
+      <c r="B90" s="54"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="54"/>
+      <c r="G90" s="54"/>
+      <c r="H90" s="54"/>
+      <c r="I90" s="54"/>
+      <c r="J90" s="54"/>
     </row>
     <row r="91" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="53"/>
-      <c r="C91" s="53"/>
-      <c r="D91" s="53"/>
-      <c r="E91" s="53"/>
-      <c r="F91" s="53"/>
-      <c r="G91" s="53"/>
-      <c r="H91" s="53"/>
-      <c r="I91" s="53"/>
-      <c r="J91" s="53"/>
+      <c r="B91" s="54"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="54"/>
+      <c r="G91" s="54"/>
+      <c r="H91" s="54"/>
+      <c r="I91" s="54"/>
+      <c r="J91" s="54"/>
     </row>
     <row r="92" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="53"/>
-      <c r="C92" s="53"/>
-      <c r="D92" s="53"/>
-      <c r="E92" s="53"/>
-      <c r="F92" s="53"/>
-      <c r="G92" s="53"/>
-      <c r="H92" s="53"/>
-      <c r="I92" s="53"/>
-      <c r="J92" s="53"/>
+      <c r="B92" s="54"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="54"/>
+      <c r="G92" s="54"/>
+      <c r="H92" s="54"/>
+      <c r="I92" s="54"/>
+      <c r="J92" s="54"/>
     </row>
     <row r="93" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="53"/>
-      <c r="C93" s="53"/>
-      <c r="D93" s="53"/>
-      <c r="E93" s="53"/>
-      <c r="F93" s="53"/>
-      <c r="G93" s="53"/>
-      <c r="H93" s="53"/>
-      <c r="I93" s="53"/>
-      <c r="J93" s="53"/>
+      <c r="B93" s="54"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="54"/>
+      <c r="F93" s="54"/>
+      <c r="G93" s="54"/>
+      <c r="H93" s="54"/>
+      <c r="I93" s="54"/>
+      <c r="J93" s="54"/>
     </row>
     <row r="94" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="53"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="53"/>
-      <c r="E94" s="53"/>
-      <c r="F94" s="53"/>
-      <c r="G94" s="53"/>
-      <c r="H94" s="53"/>
-      <c r="I94" s="53"/>
-      <c r="J94" s="53"/>
+      <c r="B94" s="54"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="54"/>
+      <c r="E94" s="54"/>
+      <c r="F94" s="54"/>
+      <c r="G94" s="54"/>
+      <c r="H94" s="54"/>
+      <c r="I94" s="54"/>
+      <c r="J94" s="54"/>
     </row>
     <row r="95" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="53"/>
-      <c r="C95" s="53"/>
-      <c r="D95" s="53"/>
-      <c r="E95" s="53"/>
-      <c r="F95" s="53"/>
-      <c r="G95" s="53"/>
-      <c r="H95" s="53"/>
-      <c r="I95" s="53"/>
-      <c r="J95" s="53"/>
+      <c r="B95" s="54"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="54"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="54"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="54"/>
+      <c r="J95" s="54"/>
     </row>
     <row r="96" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="53"/>
-      <c r="C96" s="53"/>
-      <c r="D96" s="53"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="53"/>
-      <c r="G96" s="53"/>
-      <c r="H96" s="53"/>
-      <c r="I96" s="53"/>
-      <c r="J96" s="53"/>
+      <c r="B96" s="54"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="54"/>
+      <c r="F96" s="54"/>
+      <c r="G96" s="54"/>
+      <c r="H96" s="54"/>
+      <c r="I96" s="54"/>
+      <c r="J96" s="54"/>
     </row>
     <row r="97" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="53"/>
-      <c r="C97" s="53"/>
-      <c r="D97" s="53"/>
-      <c r="E97" s="53"/>
-      <c r="F97" s="53"/>
-      <c r="G97" s="53"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="53"/>
-      <c r="J97" s="53"/>
+      <c r="B97" s="54"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="54"/>
+      <c r="F97" s="54"/>
+      <c r="G97" s="54"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="54"/>
+      <c r="J97" s="54"/>
     </row>
     <row r="98" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="53"/>
-      <c r="C98" s="53"/>
-      <c r="D98" s="53"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="53"/>
-      <c r="G98" s="53"/>
-      <c r="H98" s="53"/>
-      <c r="I98" s="53"/>
-      <c r="J98" s="53"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="54"/>
+      <c r="G98" s="54"/>
+      <c r="H98" s="54"/>
+      <c r="I98" s="54"/>
+      <c r="J98" s="54"/>
     </row>
     <row r="99" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="53"/>
-      <c r="C99" s="53"/>
-      <c r="D99" s="53"/>
-      <c r="E99" s="53"/>
-      <c r="F99" s="53"/>
-      <c r="G99" s="53"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="53"/>
-      <c r="J99" s="53"/>
+      <c r="B99" s="54"/>
+      <c r="C99" s="54"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="54"/>
+      <c r="F99" s="54"/>
+      <c r="G99" s="54"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="54"/>
+      <c r="J99" s="54"/>
     </row>
     <row r="100" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="53"/>
-      <c r="C100" s="53"/>
-      <c r="D100" s="53"/>
-      <c r="E100" s="53"/>
-      <c r="F100" s="53"/>
-      <c r="G100" s="53"/>
-      <c r="H100" s="53"/>
-      <c r="I100" s="53"/>
-      <c r="J100" s="53"/>
+      <c r="B100" s="54"/>
+      <c r="C100" s="54"/>
+      <c r="D100" s="54"/>
+      <c r="E100" s="54"/>
+      <c r="F100" s="54"/>
+      <c r="G100" s="54"/>
+      <c r="H100" s="54"/>
+      <c r="I100" s="54"/>
+      <c r="J100" s="54"/>
     </row>
     <row r="101" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="53"/>
-      <c r="C101" s="53"/>
-      <c r="D101" s="53"/>
-      <c r="E101" s="53"/>
-      <c r="F101" s="53"/>
-      <c r="G101" s="53"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="53"/>
-      <c r="J101" s="53"/>
+      <c r="B101" s="54"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="54"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="54"/>
+      <c r="H101" s="54"/>
+      <c r="I101" s="54"/>
+      <c r="J101" s="54"/>
     </row>
     <row r="102" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="53"/>
-      <c r="C102" s="53"/>
-      <c r="D102" s="53"/>
-      <c r="E102" s="53"/>
-      <c r="F102" s="53"/>
-      <c r="G102" s="53"/>
-      <c r="H102" s="53"/>
-      <c r="I102" s="53"/>
-      <c r="J102" s="53"/>
+      <c r="B102" s="54"/>
+      <c r="C102" s="54"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="54"/>
+      <c r="F102" s="54"/>
+      <c r="G102" s="54"/>
+      <c r="H102" s="54"/>
+      <c r="I102" s="54"/>
+      <c r="J102" s="54"/>
     </row>
     <row r="103" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="53"/>
-      <c r="C103" s="53"/>
-      <c r="D103" s="53"/>
-      <c r="E103" s="53"/>
-      <c r="F103" s="53"/>
-      <c r="G103" s="53"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="53"/>
-      <c r="J103" s="53"/>
+      <c r="B103" s="54"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="54"/>
+      <c r="F103" s="54"/>
+      <c r="G103" s="54"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="54"/>
+      <c r="J103" s="54"/>
     </row>
     <row r="104" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="53"/>
-      <c r="C104" s="53"/>
-      <c r="D104" s="53"/>
-      <c r="E104" s="53"/>
-      <c r="F104" s="53"/>
-      <c r="G104" s="53"/>
-      <c r="H104" s="53"/>
-      <c r="I104" s="53"/>
-      <c r="J104" s="53"/>
+      <c r="B104" s="54"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="54"/>
+      <c r="F104" s="54"/>
+      <c r="G104" s="54"/>
+      <c r="H104" s="54"/>
+      <c r="I104" s="54"/>
+      <c r="J104" s="54"/>
     </row>
     <row r="105" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="53"/>
-      <c r="C105" s="53"/>
-      <c r="D105" s="53"/>
-      <c r="E105" s="53"/>
-      <c r="F105" s="53"/>
-      <c r="G105" s="53"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="53"/>
-      <c r="J105" s="53"/>
+      <c r="B105" s="54"/>
+      <c r="C105" s="54"/>
+      <c r="D105" s="54"/>
+      <c r="E105" s="54"/>
+      <c r="F105" s="54"/>
+      <c r="G105" s="54"/>
+      <c r="H105" s="54"/>
+      <c r="I105" s="54"/>
+      <c r="J105" s="54"/>
     </row>
     <row r="106" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="53"/>
-      <c r="C106" s="53"/>
-      <c r="D106" s="53"/>
-      <c r="E106" s="53"/>
-      <c r="F106" s="53"/>
-      <c r="G106" s="53"/>
-      <c r="H106" s="53"/>
-      <c r="I106" s="53"/>
-      <c r="J106" s="53"/>
+      <c r="B106" s="54"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="54"/>
+      <c r="I106" s="54"/>
+      <c r="J106" s="54"/>
     </row>
     <row r="107" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="53"/>
-      <c r="C107" s="53"/>
-      <c r="D107" s="53"/>
-      <c r="E107" s="53"/>
-      <c r="F107" s="53"/>
-      <c r="G107" s="53"/>
-      <c r="H107" s="53"/>
-      <c r="I107" s="53"/>
-      <c r="J107" s="53"/>
+      <c r="B107" s="54"/>
+      <c r="C107" s="54"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="54"/>
+      <c r="F107" s="54"/>
+      <c r="G107" s="54"/>
+      <c r="H107" s="54"/>
+      <c r="I107" s="54"/>
+      <c r="J107" s="54"/>
     </row>
     <row r="108" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B108" s="53"/>
-      <c r="C108" s="53"/>
-      <c r="D108" s="53"/>
-      <c r="E108" s="53"/>
-      <c r="F108" s="53"/>
-      <c r="G108" s="53"/>
-      <c r="H108" s="53"/>
-      <c r="I108" s="53"/>
-      <c r="J108" s="53"/>
+      <c r="B108" s="54"/>
+      <c r="C108" s="54"/>
+      <c r="D108" s="54"/>
+      <c r="E108" s="54"/>
+      <c r="F108" s="54"/>
+      <c r="G108" s="54"/>
+      <c r="H108" s="54"/>
+      <c r="I108" s="54"/>
+      <c r="J108" s="54"/>
     </row>
     <row r="109" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B109" s="53"/>
-      <c r="C109" s="53"/>
-      <c r="D109" s="53"/>
-      <c r="E109" s="53"/>
-      <c r="F109" s="53"/>
-      <c r="G109" s="53"/>
-      <c r="H109" s="53"/>
-      <c r="I109" s="53"/>
-      <c r="J109" s="53"/>
+      <c r="B109" s="54"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="54"/>
+      <c r="F109" s="54"/>
+      <c r="G109" s="54"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="54"/>
+      <c r="J109" s="54"/>
     </row>
     <row r="110" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="53"/>
-      <c r="C110" s="53"/>
-      <c r="D110" s="53"/>
-      <c r="E110" s="53"/>
-      <c r="F110" s="53"/>
-      <c r="G110" s="53"/>
-      <c r="H110" s="53"/>
-      <c r="I110" s="53"/>
-      <c r="J110" s="53"/>
+      <c r="B110" s="54"/>
+      <c r="C110" s="54"/>
+      <c r="D110" s="54"/>
+      <c r="E110" s="54"/>
+      <c r="F110" s="54"/>
+      <c r="G110" s="54"/>
+      <c r="H110" s="54"/>
+      <c r="I110" s="54"/>
+      <c r="J110" s="54"/>
     </row>
     <row r="111" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="53"/>
-      <c r="C111" s="53"/>
-      <c r="D111" s="53"/>
-      <c r="E111" s="53"/>
-      <c r="F111" s="53"/>
-      <c r="G111" s="53"/>
-      <c r="H111" s="53"/>
-      <c r="I111" s="53"/>
-      <c r="J111" s="53"/>
+      <c r="B111" s="54"/>
+      <c r="C111" s="54"/>
+      <c r="D111" s="54"/>
+      <c r="E111" s="54"/>
+      <c r="F111" s="54"/>
+      <c r="G111" s="54"/>
+      <c r="H111" s="54"/>
+      <c r="I111" s="54"/>
+      <c r="J111" s="54"/>
     </row>
     <row r="112" spans="2:10" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="53"/>
-      <c r="C112" s="53"/>
-      <c r="D112" s="53"/>
-      <c r="E112" s="53"/>
-      <c r="F112" s="53"/>
-      <c r="G112" s="53"/>
-      <c r="H112" s="53"/>
-      <c r="I112" s="53"/>
-      <c r="J112" s="53"/>
+      <c r="B112" s="54"/>
+      <c r="C112" s="54"/>
+      <c r="D112" s="54"/>
+      <c r="E112" s="54"/>
+      <c r="F112" s="54"/>
+      <c r="G112" s="54"/>
+      <c r="H112" s="54"/>
+      <c r="I112" s="54"/>
+      <c r="J112" s="54"/>
     </row>
     <row r="113" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="114" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/テスト仕様書.xlsx
+++ b/テスト仕様書.xlsx
@@ -3,23 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C70377-115A-4F84-93B8-F7670FC21A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F251F41-A2FD-4929-BDE3-6A2867A2490C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="6" r:id="rId1"/>
     <sheet name="野球チーム一覧サイト" sheetId="2" r:id="rId2"/>
     <sheet name="ホテル検索" sheetId="7" r:id="rId3"/>
-    <sheet name="ホテル検索,デシジョンテーブル" sheetId="8" r:id="rId4"/>
-    <sheet name="ログインをする" sheetId="5" r:id="rId5"/>
+    <sheet name="ホテル検索,DTB" sheetId="8" r:id="rId4"/>
+    <sheet name="衣類検索" sheetId="9" r:id="rId5"/>
+    <sheet name="衣類検索,DTB" sheetId="10" r:id="rId6"/>
+    <sheet name="ログインをする" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="209">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -2573,6 +2575,276 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索画面</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索画面が表示されるか</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ブラウザが起動していること
+・SQLが実行されること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・http://localhost:8080/ex-intermediate/ex03にアクセスする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索画面が表示されることを確認する</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索をおこなう</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索を行う</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>性別の選択</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ブラウザが起動していること
+・SQLが実行されること
+・検索画面が表示される</t>
+    <rPh sb="29" eb="33">
+      <t>ケンサクガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>色の選択</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Man または Womoan を選択</t>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>色:赤, 青, 白, 黄色のうち1つ を選択</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>どちらかしか選択できないことを確認する</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>どれか1つしか選択できないことを確認する</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ブラウザが起動していること
+・SQLが実行されること
+・検索画面が表示される</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索結果の確認</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>性別・色を選択し, TC1 - TC8 を実行する</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1つ以上の検索結果がある場合： 検索結果を表示
+検索結果がない場合：検索結果なしのメッセージを表示する</t>
+    <rPh sb="2" eb="4">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Man を選択</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Woman を選択</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>赤を選択</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>青を選択</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>白を選択</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>黄を選択</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全件表示(件数)</t>
+    <rPh sb="5" eb="7">
+      <t>ケンスウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3055,7 +3327,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3365,6 +3637,12 @@
     <xf numFmtId="38" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -3672,9 +3950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08416EDA-BA60-4DD8-8C98-B8B7F123320A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7333,8 +7609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F8DD60-2325-425B-AB65-3FB58FA5CFD7}">
   <dimension ref="B1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.7" x14ac:dyDescent="0.15"/>
@@ -8538,8 +8814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA19842-3014-4A8F-9082-20603A7B1743}">
   <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.7" x14ac:dyDescent="0.15"/>
@@ -9101,9 +9377,7 @@
       <c r="A26" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="46" t="s">
-        <v>78</v>
-      </c>
+      <c r="B26" s="46"/>
       <c r="C26" s="97"/>
       <c r="D26" s="97"/>
       <c r="E26" s="97"/>
@@ -9372,6 +9646,1086 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703F573D-7274-45CD-99EE-A6E3ABCA9868}">
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" customWidth="1"/>
+    <col min="5" max="5" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.7" x14ac:dyDescent="0.15">
+      <c r="A1" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="68"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.7" x14ac:dyDescent="0.15">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="69">
+        <v>44707</v>
+      </c>
+      <c r="I2" s="59"/>
+    </row>
+    <row r="3" spans="1:9" ht="35.35" x14ac:dyDescent="0.15">
+      <c r="A3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="49.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="105" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="105" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="105" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="106" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="105" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+    </row>
+    <row r="5" spans="1:9" ht="30.8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+    </row>
+    <row r="6" spans="1:9" ht="66.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="105" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="105" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="105" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="106" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="105" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" s="105" t="s">
+        <v>195</v>
+      </c>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+    </row>
+    <row r="7" spans="1:9" ht="66.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="105" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="105" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="105" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="106" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="105" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+    </row>
+    <row r="8" spans="1:9" ht="66.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="105" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="105" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="106" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="105" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" s="106" t="s">
+        <v>200</v>
+      </c>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+    </row>
+    <row r="9" spans="1:9" ht="13.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="105"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+    </row>
+    <row r="10" spans="1:9" ht="13.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="105"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="105"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="105"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="105"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="105"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="105"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="105"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="105"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="105"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="105"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="105"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="105"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="105"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="105"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="105"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="105"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="105"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="105"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="105"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="105"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="105"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="105"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="105"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="105"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="105"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="105"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="105"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="105"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="105"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="105"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="105"/>
+      <c r="B40" s="105"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="105"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="105"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
+      <c r="I41" s="105"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="105"/>
+      <c r="B42" s="105"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="105"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="105"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="105"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAAFC943-BFA3-450D-A76D-7EB86D0510BC}">
+  <dimension ref="A1:Q84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.7" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="52.109375" style="7" customWidth="1"/>
+    <col min="2" max="16384" width="8.6640625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="44"/>
+    </row>
+    <row r="2" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="12"/>
+    </row>
+    <row r="5" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="12"/>
+    </row>
+    <row r="6" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="12"/>
+    </row>
+    <row r="7" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="12"/>
+    </row>
+    <row r="8" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="12"/>
+    </row>
+    <row r="9" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="12"/>
+    </row>
+    <row r="10" spans="1:17" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="12"/>
+    </row>
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="14"/>
+    </row>
+    <row r="12" spans="1:17" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="12"/>
+    </row>
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="12"/>
+    </row>
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="22"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="12"/>
+    </row>
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="22"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="12"/>
+    </row>
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8">
+        <v>3</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" s="1" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:12" ht="17.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K19" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:12" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:12" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:12" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:12" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:12" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:12" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:12" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:12" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:12" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:12" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:12" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:12" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="17.05" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:Q1"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AB152"/>
   <sheetViews>
